--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="178">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -523,7 +523,52 @@
     <t xml:space="preserve">cover for the axis working as the third mouse button</t>
   </si>
   <si>
-    <t xml:space="preserve">total sum of all parts</t>
+    <t xml:space="preserve">battery contact minus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery minus contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batr_conn_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery contact plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery positive contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batr_conn_pls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery retainer spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring_battr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery contact holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall_conn_btr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery connector pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pin_conn_btr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 pin battery connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pin_conn_btr2</t>
   </si>
 </sst>
 </file>
@@ -1168,80 +1213,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 12" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8183520" y="5648400"/>
-          <a:ext cx="523440" cy="399600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>505080</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7457040" y="5918760"/>
-          <a:ext cx="363240" cy="442440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>271080</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>29880</xdr:rowOff>
@@ -1254,11 +1225,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <xdr:cNvPr id="11" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1291,11 +1262,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 15" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <xdr:cNvPr id="12" name="Image 15" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1328,11 +1299,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <xdr:cNvPr id="13" name="Image 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1365,11 +1336,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <xdr:cNvPr id="14" name="Image 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1402,11 +1373,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 18" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <xdr:cNvPr id="15" name="Image 18" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1439,11 +1410,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <xdr:cNvPr id="16" name="Image 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1476,11 +1447,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <xdr:cNvPr id="17" name="Image 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1513,11 +1484,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 21" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <xdr:cNvPr id="18" name="Image 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1550,11 +1521,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 22" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <xdr:cNvPr id="19" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1587,11 +1558,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 23" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <xdr:cNvPr id="20" name="Image 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1624,11 +1595,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 24" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <xdr:cNvPr id="21" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1661,11 +1632,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 25" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <xdr:cNvPr id="22" name="Image 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1698,11 +1669,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 26" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <xdr:cNvPr id="23" name="Image 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1735,11 +1706,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <xdr:cNvPr id="24" name="Image 27" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1772,11 +1743,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 28" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <xdr:cNvPr id="25" name="Image 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1809,11 +1780,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <xdr:cNvPr id="26" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1846,11 +1817,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 30" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <xdr:cNvPr id="27" name="Image 30" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1883,11 +1854,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 31" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <xdr:cNvPr id="28" name="Image 31" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1920,11 +1891,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 32" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <xdr:cNvPr id="29" name="Image 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1957,11 +1928,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 33" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <xdr:cNvPr id="30" name="Image 33" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1994,11 +1965,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 34" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <xdr:cNvPr id="31" name="Image 34" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2031,11 +2002,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 35" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <xdr:cNvPr id="32" name="Image 35" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2068,11 +2039,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 36" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <xdr:cNvPr id="33" name="Image 36" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2105,11 +2076,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 37" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <xdr:cNvPr id="34" name="Image 37" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2142,11 +2113,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 38" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
+        <xdr:cNvPr id="35" name="Image 38" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2179,11 +2150,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 39" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
+        <xdr:cNvPr id="36" name="Image 39" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2216,11 +2187,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 40" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
+        <xdr:cNvPr id="37" name="Image 40" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2253,11 +2224,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 41" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
+        <xdr:cNvPr id="38" name="Image 41" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2290,11 +2261,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 42" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
+        <xdr:cNvPr id="39" name="Image 42" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2327,17 +2298,313 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 43" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
+        <xdr:cNvPr id="40" name="Image 43" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7506000" y="15678720"/>
           <a:ext cx="283320" cy="608040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>141480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>617040</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269560" y="5534280"/>
+          <a:ext cx="475560" cy="542160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>117000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>592560</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7432200" y="5967360"/>
+          <a:ext cx="475560" cy="428040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61560</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>537120</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 44" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8189640" y="16021800"/>
+          <a:ext cx="475560" cy="466200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>110880</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586440</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7426080" y="16322400"/>
+          <a:ext cx="475560" cy="418680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117000</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>592560</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 46" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8245080" y="16564320"/>
+          <a:ext cx="475560" cy="590040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92520</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>568080</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 47" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7407720" y="16979400"/>
+          <a:ext cx="475560" cy="399600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30960</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506520</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>30960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Image 48" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8159040" y="17358480"/>
+          <a:ext cx="475560" cy="313920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129240</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604800</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Image 49" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7444440" y="17660160"/>
+          <a:ext cx="475560" cy="475560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2357,10 +2624,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:L98"/>
+  <dimension ref="A3:L107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K107" activeCellId="0" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3304,7 +3571,7 @@
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,7 +3589,7 @@
       </c>
       <c r="J93" s="4"/>
       <c r="L93" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,13 +3615,109 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G98" s="0" t="s">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="L98" s="0" t="n">
-        <f aca="false">SUM(L9:L97)</f>
-        <v>283</v>
+      <c r="D97" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="L97" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K99" s="4"/>
+      <c r="L99" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="L101" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="K103" s="4"/>
+      <c r="L103" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="L105" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="K107" s="4"/>
+      <c r="L107" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="203">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -457,7 +457,7 @@
     <t xml:space="preserve">pewter_foot2.FCStd</t>
   </si>
   <si>
-    <t xml:space="preserve">tip metal pyramid</t>
+    <t xml:space="preserve">bearing pad</t>
   </si>
   <si>
     <t xml:space="preserve">sub assembly</t>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t xml:space="preserve">right </t>
+  </si>
+  <si>
+    <t xml:space="preserve">closable back cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lockable back cover with guide rods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_cover_stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connects the final whole assembly</t>
   </si>
 </sst>
 </file>
@@ -631,6 +643,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -651,32 +664,38 @@
       <sz val="36"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -727,7 +746,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -744,6 +763,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -757,14 +780,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -795,9 +810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>572040</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -810,8 +825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7382880" y="2097360"/>
-          <a:ext cx="504360" cy="323280"/>
+          <a:off x="7394400" y="2097360"/>
+          <a:ext cx="504000" cy="322920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,9 +847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>592560</xdr:colOff>
+      <xdr:colOff>592200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -847,8 +862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8245080" y="2577960"/>
-          <a:ext cx="475560" cy="275760"/>
+          <a:off x="8257680" y="2577960"/>
+          <a:ext cx="475200" cy="275400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,9 +884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>683280</xdr:colOff>
+      <xdr:colOff>682920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -884,8 +899,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7475040" y="2669040"/>
-          <a:ext cx="523440" cy="399600"/>
+          <a:off x="7486560" y="2669040"/>
+          <a:ext cx="523080" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,9 +921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -921,8 +936,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8134560" y="3012480"/>
-          <a:ext cx="523440" cy="323280"/>
+          <a:off x="8147160" y="3012480"/>
+          <a:ext cx="523080" cy="322920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -943,9 +958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>628560</xdr:colOff>
+      <xdr:colOff>628200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -958,8 +973,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7420320" y="3348360"/>
-          <a:ext cx="523440" cy="332640"/>
+          <a:off x="7431840" y="3348360"/>
+          <a:ext cx="523080" cy="332280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -980,9 +995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>639360</xdr:colOff>
+      <xdr:colOff>639000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,8 +1010,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7431120" y="3795480"/>
-          <a:ext cx="523440" cy="447120"/>
+          <a:off x="7442640" y="3795480"/>
+          <a:ext cx="523080" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1017,9 +1032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>461160</xdr:colOff>
+      <xdr:colOff>460800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1032,8 +1047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8399160" y="4614120"/>
-          <a:ext cx="190080" cy="704160"/>
+          <a:off x="8411760" y="4614120"/>
+          <a:ext cx="189720" cy="703800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,9 +1069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>299160</xdr:colOff>
+      <xdr:colOff>298800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1069,8 +1084,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8189640" y="5251680"/>
-          <a:ext cx="237600" cy="437400"/>
+          <a:off x="8202240" y="5251680"/>
+          <a:ext cx="237240" cy="437040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1091,9 +1106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>652680</xdr:colOff>
+      <xdr:colOff>652320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1106,8 +1121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7444440" y="5636880"/>
-          <a:ext cx="523440" cy="304200"/>
+          <a:off x="7455960" y="5636880"/>
+          <a:ext cx="523080" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1128,9 +1143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542160</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1143,8 +1158,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8146800" y="5968080"/>
-          <a:ext cx="523440" cy="275760"/>
+          <a:off x="8159400" y="5968080"/>
+          <a:ext cx="523080" cy="275400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,9 +1180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1180,8 +1195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8145360" y="6471000"/>
-          <a:ext cx="523440" cy="399600"/>
+          <a:off x="8157960" y="6471000"/>
+          <a:ext cx="523080" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,9 +1217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
+      <xdr:colOff>603000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1217,8 +1232,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7395120" y="6739560"/>
-          <a:ext cx="523440" cy="408960"/>
+          <a:off x="7406640" y="6739560"/>
+          <a:ext cx="523080" cy="408600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,9 +1254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1254,8 +1269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8269920" y="7016400"/>
-          <a:ext cx="388080" cy="416160"/>
+          <a:off x="8282520" y="7016400"/>
+          <a:ext cx="387720" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,9 +1291,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1291,8 +1306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7389000" y="7372080"/>
-          <a:ext cx="523440" cy="332640"/>
+          <a:off x="7400520" y="7372080"/>
+          <a:ext cx="523080" cy="332280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,9 +1328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>622080</xdr:colOff>
+      <xdr:colOff>621720</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1328,8 +1343,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8226720" y="7733520"/>
-          <a:ext cx="523440" cy="361440"/>
+          <a:off x="8239320" y="7733520"/>
+          <a:ext cx="523080" cy="361080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1350,9 +1365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>597600</xdr:colOff>
+      <xdr:colOff>597240</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1365,8 +1380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7389360" y="8058600"/>
-          <a:ext cx="523440" cy="351720"/>
+          <a:off x="7400880" y="8058600"/>
+          <a:ext cx="523080" cy="351360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,9 +1402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>566280</xdr:colOff>
+      <xdr:colOff>565920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1402,8 +1417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220240" y="8341200"/>
-          <a:ext cx="474120" cy="379080"/>
+          <a:off x="8232840" y="8341200"/>
+          <a:ext cx="473760" cy="378720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,9 +1439,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>572760</xdr:colOff>
+      <xdr:colOff>572400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1439,8 +1454,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7364520" y="8720280"/>
-          <a:ext cx="523440" cy="380520"/>
+          <a:off x="7376040" y="8720280"/>
+          <a:ext cx="523080" cy="380160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1461,9 +1476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>566640</xdr:colOff>
+      <xdr:colOff>566280</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1476,8 +1491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8171280" y="9015480"/>
-          <a:ext cx="523440" cy="428040"/>
+          <a:off x="8183880" y="9015480"/>
+          <a:ext cx="523080" cy="427680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,9 +1513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>591120</xdr:colOff>
+      <xdr:colOff>590760</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1513,8 +1528,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7382880" y="9358200"/>
-          <a:ext cx="523440" cy="380520"/>
+          <a:off x="7394400" y="9358200"/>
+          <a:ext cx="523080" cy="380160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1535,9 +1550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>615960</xdr:colOff>
+      <xdr:colOff>615600</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1550,8 +1565,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220600" y="9749520"/>
-          <a:ext cx="523440" cy="285120"/>
+          <a:off x="8233200" y="9749520"/>
+          <a:ext cx="523080" cy="284760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,9 +1587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1587,8 +1602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7333560" y="10062720"/>
-          <a:ext cx="523440" cy="218520"/>
+          <a:off x="7345080" y="10062720"/>
+          <a:ext cx="523080" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,9 +1624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>560160</xdr:colOff>
+      <xdr:colOff>559800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1624,8 +1639,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8398800" y="10285560"/>
-          <a:ext cx="289440" cy="499680"/>
+          <a:off x="8411400" y="10285560"/>
+          <a:ext cx="289080" cy="499320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1646,9 +1661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
+      <xdr:colOff>584640</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1661,8 +1676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7456680" y="10604880"/>
-          <a:ext cx="443520" cy="402840"/>
+          <a:off x="7468200" y="10604880"/>
+          <a:ext cx="443160" cy="402480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1683,9 +1698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>658800</xdr:colOff>
+      <xdr:colOff>658440</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1698,8 +1713,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8331120" y="10900080"/>
-          <a:ext cx="455760" cy="439200"/>
+          <a:off x="8343720" y="10900080"/>
+          <a:ext cx="455400" cy="438840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,9 +1735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542160</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1735,8 +1750,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7438680" y="11255040"/>
-          <a:ext cx="418680" cy="426240"/>
+          <a:off x="7450200" y="11255040"/>
+          <a:ext cx="418320" cy="425880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,9 +1772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>448920</xdr:colOff>
+      <xdr:colOff>448560</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1772,8 +1787,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8146800" y="11610000"/>
-          <a:ext cx="430200" cy="445680"/>
+          <a:off x="8159400" y="11610000"/>
+          <a:ext cx="429840" cy="445320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1794,9 +1809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>474120</xdr:colOff>
+      <xdr:colOff>473760</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1809,8 +1824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7506000" y="11887200"/>
-          <a:ext cx="283320" cy="608040"/>
+          <a:off x="7517520" y="11887200"/>
+          <a:ext cx="282960" cy="607680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,9 +1846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>617040</xdr:colOff>
+      <xdr:colOff>616680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1846,8 +1861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8269560" y="4018320"/>
-          <a:ext cx="475560" cy="542160"/>
+          <a:off x="8282160" y="4018320"/>
+          <a:ext cx="475200" cy="541800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1868,9 +1883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>592560</xdr:colOff>
+      <xdr:colOff>592200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1883,8 +1898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7432200" y="4451760"/>
-          <a:ext cx="475560" cy="428040"/>
+          <a:off x="7443720" y="4451760"/>
+          <a:ext cx="475200" cy="427680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1905,9 +1920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>537120</xdr:colOff>
+      <xdr:colOff>536760</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1920,8 +1935,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8189640" y="12230280"/>
-          <a:ext cx="475560" cy="466200"/>
+          <a:off x="8202240" y="12230280"/>
+          <a:ext cx="475200" cy="465840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1942,9 +1957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1957,8 +1972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7426080" y="12530880"/>
-          <a:ext cx="475560" cy="418680"/>
+          <a:off x="7437600" y="12530880"/>
+          <a:ext cx="475200" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1979,9 +1994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>592560</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>592200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1994,8 +2009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8245080" y="12772800"/>
-          <a:ext cx="475560" cy="590040"/>
+          <a:off x="8257680" y="12772800"/>
+          <a:ext cx="475200" cy="589680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2016,9 +2031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>568080</xdr:colOff>
+      <xdr:colOff>567720</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2031,8 +2046,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7407720" y="13187520"/>
-          <a:ext cx="475560" cy="399600"/>
+          <a:off x="7419240" y="13187520"/>
+          <a:ext cx="475200" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,9 +2068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>506520</xdr:colOff>
+      <xdr:colOff>506160</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2068,8 +2083,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8159040" y="13566960"/>
-          <a:ext cx="475560" cy="313920"/>
+          <a:off x="8171640" y="13566960"/>
+          <a:ext cx="475200" cy="313560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2090,9 +2105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>604800</xdr:colOff>
+      <xdr:colOff>604440</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2105,8 +2120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7444440" y="13868640"/>
-          <a:ext cx="475560" cy="475560"/>
+          <a:off x="7455960" y="13868640"/>
+          <a:ext cx="475200" cy="475200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2127,9 +2142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>622800</xdr:colOff>
+      <xdr:colOff>622440</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2142,8 +2157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8275320" y="14229720"/>
-          <a:ext cx="475560" cy="380520"/>
+          <a:off x="8287920" y="14229720"/>
+          <a:ext cx="475200" cy="380160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2164,9 +2179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>643680</xdr:colOff>
+      <xdr:colOff>643320</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2179,8 +2194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7483320" y="14533920"/>
-          <a:ext cx="475560" cy="389880"/>
+          <a:off x="7494840" y="14533920"/>
+          <a:ext cx="475200" cy="389520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2201,9 +2216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>629640</xdr:colOff>
+      <xdr:colOff>629280</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2216,8 +2231,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282160" y="14798160"/>
-          <a:ext cx="475560" cy="580320"/>
+          <a:off x="8294760" y="14798160"/>
+          <a:ext cx="475200" cy="579960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2238,9 +2253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
+      <xdr:colOff>636480</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2253,8 +2268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7476480" y="15143400"/>
-          <a:ext cx="475560" cy="428040"/>
+          <a:off x="7488000" y="15143400"/>
+          <a:ext cx="475200" cy="427680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2275,9 +2290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704520</xdr:colOff>
+      <xdr:colOff>704160</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2290,8 +2305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8261640" y="16601760"/>
-          <a:ext cx="570960" cy="389880"/>
+          <a:off x="8274240" y="16601760"/>
+          <a:ext cx="570600" cy="389520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2312,9 +2327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>587520</xdr:colOff>
+      <xdr:colOff>587160</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2327,8 +2342,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7427160" y="16954200"/>
-          <a:ext cx="475560" cy="380520"/>
+          <a:off x="7438680" y="16954200"/>
+          <a:ext cx="475200" cy="380160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2349,9 +2364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>682920</xdr:colOff>
+      <xdr:colOff>682560</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2364,8 +2379,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8240040" y="17218800"/>
-          <a:ext cx="570960" cy="485280"/>
+          <a:off x="8252640" y="17218800"/>
+          <a:ext cx="570600" cy="484920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2386,9 +2401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>648000</xdr:colOff>
+      <xdr:colOff>647640</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2401,8 +2416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7392240" y="17632440"/>
-          <a:ext cx="570960" cy="370800"/>
+          <a:off x="7403760" y="17632440"/>
+          <a:ext cx="570600" cy="370440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2423,9 +2438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>696960</xdr:colOff>
+      <xdr:colOff>696600</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2438,8 +2453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8254080" y="17896320"/>
-          <a:ext cx="570960" cy="428040"/>
+          <a:off x="8266680" y="17896320"/>
+          <a:ext cx="570600" cy="427680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2460,9 +2475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>711000</xdr:colOff>
+      <xdr:colOff>710640</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2475,8 +2490,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7455240" y="18282240"/>
-          <a:ext cx="570960" cy="408960"/>
+          <a:off x="7466760" y="18282240"/>
+          <a:ext cx="570600" cy="408600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2497,9 +2512,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>641160</xdr:colOff>
+      <xdr:colOff>640800</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2512,8 +2527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8198280" y="18566280"/>
-          <a:ext cx="570960" cy="399600"/>
+          <a:off x="8210880" y="18566280"/>
+          <a:ext cx="570600" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2534,9 +2549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>654840</xdr:colOff>
+      <xdr:colOff>654480</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2549,8 +2564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7399080" y="18904680"/>
-          <a:ext cx="570960" cy="313920"/>
+          <a:off x="7410600" y="18904680"/>
+          <a:ext cx="570600" cy="313560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2571,9 +2586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>668880</xdr:colOff>
+      <xdr:colOff>668520</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2586,8 +2601,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8226000" y="19074960"/>
-          <a:ext cx="570960" cy="561240"/>
+          <a:off x="8238600" y="19074960"/>
+          <a:ext cx="570600" cy="560880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2608,9 +2623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2623,8 +2638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7420320" y="19480680"/>
-          <a:ext cx="570960" cy="551880"/>
+          <a:off x="7431840" y="19480680"/>
+          <a:ext cx="570600" cy="551520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2645,9 +2660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2660,8 +2675,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8177040" y="19840320"/>
-          <a:ext cx="570960" cy="523440"/>
+          <a:off x="8189640" y="19840320"/>
+          <a:ext cx="570600" cy="523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2682,9 +2697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
+      <xdr:colOff>686520</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2697,8 +2712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8148960" y="20578680"/>
-          <a:ext cx="666000" cy="323280"/>
+          <a:off x="8161560" y="20578680"/>
+          <a:ext cx="665640" cy="322920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2719,9 +2734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>696960</xdr:colOff>
+      <xdr:colOff>696600</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2734,8 +2749,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7441200" y="20117520"/>
-          <a:ext cx="570960" cy="532800"/>
+          <a:off x="7452720" y="20117520"/>
+          <a:ext cx="570600" cy="532440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2756,9 +2771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>690120</xdr:colOff>
+      <xdr:colOff>689760</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2771,8 +2786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7434360" y="20808000"/>
-          <a:ext cx="570960" cy="389880"/>
+          <a:off x="7445880" y="20808000"/>
+          <a:ext cx="570600" cy="389520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2793,9 +2808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>690120</xdr:colOff>
+      <xdr:colOff>689760</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2808,8 +2823,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8247240" y="21161160"/>
-          <a:ext cx="570960" cy="380520"/>
+          <a:off x="8259840" y="21161160"/>
+          <a:ext cx="570600" cy="380160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2830,9 +2845,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>591840</xdr:colOff>
+      <xdr:colOff>591480</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2845,8 +2860,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7336080" y="21425040"/>
-          <a:ext cx="570960" cy="466200"/>
+          <a:off x="7347600" y="21425040"/>
+          <a:ext cx="570600" cy="465840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>168480</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>648720</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Image 15" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8309160" y="21695760"/>
+          <a:ext cx="480240" cy="582480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2866,13 +2918,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:N130"/>
+  <dimension ref="A3:N132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D95" activeCellId="0" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -2895,1198 +2947,1218 @@
       <c r="K6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="M10" s="0" t="n">
+      <c r="K10" s="7"/>
+      <c r="M10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="L12" s="0" t="n">
+      <c r="J12" s="7"/>
+      <c r="L12" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="M14" s="0" t="n">
+      <c r="K14" s="7"/>
+      <c r="M14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="M16" s="0" t="n">
+      <c r="J16" s="7"/>
+      <c r="M16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="M18" s="0" t="n">
+      <c r="K18" s="7"/>
+      <c r="M18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="M21" s="0" t="n">
+      <c r="K21" s="8"/>
+      <c r="M21" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="8"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="M23" s="0" t="n">
+      <c r="J23" s="7"/>
+      <c r="M23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="M25" s="0" t="n">
+      <c r="K25" s="7"/>
+      <c r="M25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="L27" s="0" t="n">
+      <c r="J27" s="7"/>
+      <c r="L27" s="4" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="8"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="L30" s="0" t="n">
+      <c r="J30" s="7"/>
+      <c r="L30" s="4" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="M32" s="0" t="n">
+      <c r="K32" s="7"/>
+      <c r="M32" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="M34" s="0" t="n">
+      <c r="J34" s="7"/>
+      <c r="M34" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="L37" s="0" t="n">
+      <c r="J37" s="7"/>
+      <c r="L37" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="0" t="n">
+      <c r="K39" s="7"/>
+      <c r="L39" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="M41" s="0" t="n">
+      <c r="J41" s="7"/>
+      <c r="M41" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="M43" s="0" t="n">
+      <c r="K43" s="7"/>
+      <c r="M43" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="M45" s="0" t="n">
+      <c r="J45" s="7"/>
+      <c r="M45" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="M47" s="0" t="n">
+      <c r="K47" s="7"/>
+      <c r="M47" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="N49" s="0" t="n">
+      <c r="J49" s="7"/>
+      <c r="N49" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="M51" s="0" t="n">
+      <c r="K51" s="7"/>
+      <c r="M51" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="M53" s="0" t="n">
+      <c r="J53" s="7"/>
+      <c r="M53" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="6"/>
-      <c r="M55" s="0" t="n">
+      <c r="K55" s="7"/>
+      <c r="M55" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="6"/>
-      <c r="M57" s="0" t="n">
+      <c r="J57" s="7"/>
+      <c r="M57" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="0" t="n">
+      <c r="K59" s="7"/>
+      <c r="L59" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="L61" s="0" t="n">
+      <c r="J61" s="7"/>
+      <c r="L61" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K63" s="6"/>
-      <c r="M63" s="0" t="n">
+      <c r="K63" s="7"/>
+      <c r="M63" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J65" s="6"/>
-      <c r="M65" s="0" t="n">
+      <c r="J65" s="7"/>
+      <c r="M65" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="H67" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K67" s="6"/>
-      <c r="M67" s="0" t="n">
+      <c r="K67" s="7"/>
+      <c r="M67" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="H69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J69" s="6"/>
-      <c r="M69" s="0" t="n">
+      <c r="J69" s="7"/>
+      <c r="M69" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H71" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="0" t="n">
+      <c r="K71" s="7"/>
+      <c r="L71" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H73" s="0" t="s">
+      <c r="H73" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J73" s="6"/>
-      <c r="L73" s="0" t="n">
+      <c r="J73" s="7"/>
+      <c r="L73" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K75" s="6"/>
-      <c r="L75" s="0" t="n">
+      <c r="K75" s="7"/>
+      <c r="L75" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J76" s="8"/>
+      <c r="J76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J77" s="6"/>
-      <c r="L77" s="0" t="n">
+      <c r="J77" s="7"/>
+      <c r="L77" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K79" s="6"/>
-      <c r="M79" s="0" t="n">
+      <c r="K79" s="7"/>
+      <c r="M79" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="H81" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J81" s="6"/>
-      <c r="L81" s="0" t="n">
+      <c r="J81" s="7"/>
+      <c r="L81" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="H83" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K83" s="6"/>
-      <c r="L83" s="0" t="n">
+      <c r="K83" s="7"/>
+      <c r="L83" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H85" s="0" t="s">
+      <c r="H85" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J85" s="6"/>
-      <c r="L85" s="0" t="n">
+      <c r="J85" s="7"/>
+      <c r="L85" s="4" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H87" s="0" t="s">
+      <c r="H87" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K87" s="6"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H89" s="0" t="s">
+      <c r="H89" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J89" s="6"/>
+      <c r="J89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H91" s="0" t="s">
+      <c r="H91" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="H93" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="4" t="n">
         <v>42</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="L95" s="0" t="n">
+      <c r="L95" s="4" t="n">
         <f aca="false">SUM(L10:L88) - 16*3</f>
         <v>25</v>
       </c>
-      <c r="M95" s="0" t="n">
+      <c r="M95" s="4" t="n">
         <f aca="false">SUM(M10:M88)</f>
         <v>36</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="0" t="s">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J99" s="6"/>
-      <c r="M99" s="0" t="n">
+      <c r="J99" s="7"/>
+      <c r="M99" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="0" t="s">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K101" s="6"/>
-      <c r="M101" s="0" t="n">
+      <c r="K101" s="7"/>
+      <c r="M101" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I103" s="9"/>
-      <c r="J103" s="10"/>
-      <c r="L103" s="0" t="n">
+      <c r="I103" s="4"/>
+      <c r="J103" s="9"/>
+      <c r="L103" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H105" s="0" t="s">
+      <c r="H105" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K105" s="6"/>
-      <c r="M105" s="0" t="n">
+      <c r="K105" s="7"/>
+      <c r="M105" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H107" s="0" t="s">
+      <c r="H107" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J107" s="6"/>
-      <c r="M107" s="0" t="n">
+      <c r="J107" s="7"/>
+      <c r="M107" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H109" s="0" t="s">
+      <c r="H109" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K109" s="6"/>
-      <c r="M109" s="0" t="n">
+      <c r="K109" s="7"/>
+      <c r="M109" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H111" s="0" t="s">
+      <c r="H111" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J111" s="6"/>
-      <c r="M111" s="0" t="n">
+      <c r="J111" s="7"/>
+      <c r="M111" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H113" s="0" t="s">
+      <c r="H113" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K113" s="6"/>
-      <c r="M113" s="0" t="n">
+      <c r="K113" s="7"/>
+      <c r="M113" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="H115" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J115" s="6"/>
-      <c r="M115" s="0" t="n">
+      <c r="J115" s="7"/>
+      <c r="M115" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H117" s="0" t="s">
+      <c r="H117" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K117" s="6"/>
-      <c r="L117" s="0" t="n">
+      <c r="K117" s="7"/>
+      <c r="L117" s="4" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H119" s="0" t="s">
+      <c r="H119" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J119" s="6"/>
-      <c r="M119" s="0" t="n">
+      <c r="J119" s="7"/>
+      <c r="M119" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H121" s="0" t="s">
+      <c r="H121" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K121" s="6"/>
-      <c r="M121" s="0" t="n">
+      <c r="K121" s="7"/>
+      <c r="M121" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="A123" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H123" s="0" t="s">
+      <c r="H123" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J123" s="6"/>
-      <c r="M123" s="0" t="n">
+      <c r="J123" s="7"/>
+      <c r="M123" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="A125" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H125" s="0" t="s">
+      <c r="H125" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="K125" s="6"/>
+      <c r="K125" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="A127" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H127" s="0" t="s">
+      <c r="H127" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J127" s="6"/>
+      <c r="J127" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="A129" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H129" s="0" t="s">
+      <c r="H129" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="K129" s="6"/>
+      <c r="K129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="4" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -658,6 +658,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -678,43 +679,51 @@
       <sz val="36"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -848,6 +857,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -857,10 +870,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -991,9 +1000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1006,45 +1015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7223760" y="2004120"/>
-          <a:ext cx="951840" cy="590040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8135640" y="2287800"/>
-          <a:ext cx="951840" cy="780480"/>
+          <a:off x="7233840" y="2004120"/>
+          <a:ext cx="954000" cy="589680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,23 +1037,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7230600" y="2973240"/>
-          <a:ext cx="951840" cy="723240"/>
+      <xdr:rowOff>3600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7240680" y="2973240"/>
+          <a:ext cx="954000" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,23 +1074,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>181080</xdr:colOff>
+      <xdr:colOff>180720</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 8" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8170200" y="3388320"/>
-          <a:ext cx="951840" cy="599400"/>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8182800" y="3388320"/>
+          <a:ext cx="952560" cy="599040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,23 +1111,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90360</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7266600" y="3957120"/>
-          <a:ext cx="951840" cy="599400"/>
+      <xdr:rowOff>157680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7276680" y="3957120"/>
+          <a:ext cx="954000" cy="599040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1176,23 +1148,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8128440" y="4390200"/>
-          <a:ext cx="951840" cy="761400"/>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8141040" y="4390200"/>
+          <a:ext cx="952560" cy="761040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1207,7 +1179,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>787320</xdr:colOff>
+      <xdr:colOff>787680</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>14400</xdr:rowOff>
     </xdr:from>
@@ -1215,21 +1187,21 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>113400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 12" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+      <xdr:rowOff>68760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="7398720" y="4819320"/>
-          <a:ext cx="732960" cy="951840"/>
+          <a:off x="7410600" y="4817880"/>
+          <a:ext cx="732600" cy="954000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,23 +1222,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>222480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8211960" y="5327640"/>
-          <a:ext cx="951840" cy="866160"/>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8224560" y="5327640"/>
+          <a:ext cx="952560" cy="865800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1287,60 +1259,60 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>578880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="7637400" y="5808960"/>
-          <a:ext cx="256680" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
+          <a:off x="7649280" y="5808960"/>
+          <a:ext cx="256320" cy="951480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174960</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>355680</xdr:colOff>
+      <xdr:colOff>354960</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 15" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 15" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="8303040" y="6346080"/>
-          <a:ext cx="180360" cy="951840"/>
+          <a:off x="8315640" y="6346440"/>
+          <a:ext cx="180000" cy="951480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1361,23 +1333,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:colOff>117720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7294320" y="7084800"/>
-          <a:ext cx="951840" cy="542160"/>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7304400" y="7084800"/>
+          <a:ext cx="954000" cy="541800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,23 +1370,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8128080" y="7647480"/>
-          <a:ext cx="951840" cy="504360"/>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140680" y="7647480"/>
+          <a:ext cx="952560" cy="504000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,23 +1407,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96840</xdr:colOff>
+      <xdr:colOff>96480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 18" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7273080" y="8041680"/>
-          <a:ext cx="951840" cy="732960"/>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 18" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7283160" y="8041680"/>
+          <a:ext cx="954000" cy="732600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,23 +1444,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:colOff>236520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 26" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8226000" y="8387280"/>
-          <a:ext cx="951840" cy="742320"/>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8238600" y="8387280"/>
+          <a:ext cx="952560" cy="741960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,23 +1481,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7259040" y="8984880"/>
-          <a:ext cx="951840" cy="923400"/>
+      <xdr:rowOff>28080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 27" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7269120" y="8984880"/>
+          <a:ext cx="954000" cy="923040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,23 +1518,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>173520</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 28" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8163000" y="9635040"/>
-          <a:ext cx="951840" cy="609120"/>
+      <xdr:rowOff>10800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8175600" y="9635040"/>
+          <a:ext cx="952560" cy="608760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,23 +1555,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7245360" y="10069920"/>
-          <a:ext cx="951840" cy="685080"/>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7255440" y="10069920"/>
+          <a:ext cx="954000" cy="684720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,23 +1592,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201960</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 30" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191440" y="10693440"/>
-          <a:ext cx="951840" cy="646920"/>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 30" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8204040" y="10693440"/>
+          <a:ext cx="952560" cy="646560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1657,23 +1629,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 31" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7230960" y="11135520"/>
-          <a:ext cx="951840" cy="770760"/>
+      <xdr:rowOff>126000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 31" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7241040" y="11135520"/>
+          <a:ext cx="954000" cy="770400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1694,23 +1666,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:colOff>236520</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 32" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8226000" y="11636280"/>
-          <a:ext cx="951840" cy="694800"/>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8238600" y="11636280"/>
+          <a:ext cx="952560" cy="694440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,23 +1703,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 33" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7266240" y="12091320"/>
-          <a:ext cx="951840" cy="770760"/>
+      <xdr:rowOff>50760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 33" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7276320" y="12091320"/>
+          <a:ext cx="954000" cy="770400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,23 +1740,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 34" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8197920" y="12757320"/>
-          <a:ext cx="951840" cy="656640"/>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 34" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210520" y="12757320"/>
+          <a:ext cx="952560" cy="656280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1805,23 +1777,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>201600</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 35" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7378200" y="13244400"/>
-          <a:ext cx="951840" cy="628200"/>
+      <xdr:rowOff>29880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 35" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7389720" y="13244400"/>
+          <a:ext cx="952560" cy="627840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,23 +1814,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 36" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8114040" y="13875840"/>
-          <a:ext cx="951840" cy="399600"/>
+      <xdr:rowOff>79560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 36" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8125560" y="13875840"/>
+          <a:ext cx="953640" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1879,23 +1851,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>720000</xdr:colOff>
+      <xdr:colOff>719640</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 37" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7483320" y="14119920"/>
-          <a:ext cx="551880" cy="951840"/>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 37" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7494840" y="14119920"/>
+          <a:ext cx="551520" cy="951480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1916,23 +1888,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>173520</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 38" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8163000" y="14730120"/>
-          <a:ext cx="951840" cy="875520"/>
+      <xdr:rowOff>53640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 38" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8175600" y="14730120"/>
+          <a:ext cx="952560" cy="875160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1953,23 +1925,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 39" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7182000" y="15206760"/>
-          <a:ext cx="951840" cy="913680"/>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 39" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7192080" y="15206760"/>
+          <a:ext cx="954000" cy="913320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,23 +1962,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 40" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8184240" y="15728760"/>
-          <a:ext cx="951840" cy="970920"/>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 40" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8196840" y="15728760"/>
+          <a:ext cx="952560" cy="970560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2027,23 +1999,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 41" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7189200" y="16196040"/>
-          <a:ext cx="951840" cy="980280"/>
+      <xdr:rowOff>77400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 41" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7199280" y="16196040"/>
+          <a:ext cx="954000" cy="979920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2064,23 +2036,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>773640</xdr:colOff>
+      <xdr:colOff>773280</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 42" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8464320" y="16738200"/>
-          <a:ext cx="437400" cy="951840"/>
+      <xdr:rowOff>75240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 42" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8476920" y="16738200"/>
+          <a:ext cx="437040" cy="951480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2101,23 +2073,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>167040</xdr:colOff>
+      <xdr:colOff>166680</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 43" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7343280" y="17241480"/>
-          <a:ext cx="951840" cy="923400"/>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 43" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7354800" y="17241480"/>
+          <a:ext cx="952560" cy="923040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2138,23 +2110,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230040</xdr:colOff>
+      <xdr:colOff>229680</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 44" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8219160" y="17735760"/>
-          <a:ext cx="951840" cy="828000"/>
+      <xdr:rowOff>80280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 44" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8231760" y="17735760"/>
+          <a:ext cx="952560" cy="827640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2175,23 +2147,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 45" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7279920" y="18129960"/>
-          <a:ext cx="951840" cy="1170720"/>
+      <xdr:rowOff>139320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7290000" y="18129960"/>
+          <a:ext cx="954000" cy="1170360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2212,23 +2184,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>271800</xdr:colOff>
+      <xdr:colOff>271440</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 46" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8260920" y="18855720"/>
-          <a:ext cx="951840" cy="799560"/>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 46" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8273520" y="18855720"/>
+          <a:ext cx="952560" cy="799200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2249,23 +2221,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 47" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="19513440"/>
-          <a:ext cx="951840" cy="628200"/>
+      <xdr:rowOff>111600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 47" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7326720" y="19513440"/>
+          <a:ext cx="952560" cy="627840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2286,23 +2258,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>250920</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 48" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8240040" y="19737000"/>
-          <a:ext cx="951840" cy="951840"/>
+      <xdr:rowOff>142920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 48" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8252640" y="19737000"/>
+          <a:ext cx="952560" cy="951480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2323,23 +2295,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7329240" y="20408760"/>
-          <a:ext cx="951840" cy="770760"/>
+      <xdr:rowOff>118080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340760" y="20408760"/>
+          <a:ext cx="952560" cy="770400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2360,23 +2332,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>292680</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8282160" y="20883240"/>
-          <a:ext cx="951840" cy="780480"/>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8294760" y="20883240"/>
+          <a:ext cx="952560" cy="780120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2397,23 +2369,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:colOff>117720</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7294320" y="21203640"/>
-          <a:ext cx="951840" cy="1161360"/>
+      <xdr:rowOff>109800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7304400" y="21203640"/>
+          <a:ext cx="954000" cy="1161000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2434,23 +2406,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>223200</xdr:colOff>
+      <xdr:colOff>222840</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8212320" y="21943440"/>
-          <a:ext cx="951840" cy="856440"/>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8224920" y="21943440"/>
+          <a:ext cx="952560" cy="856080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2471,23 +2443,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>68400</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 49" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7245000" y="22410360"/>
-          <a:ext cx="951840" cy="990000"/>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 49" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7255080" y="22410360"/>
+          <a:ext cx="954000" cy="989640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2508,60 +2480,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 58" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8205480" y="23062320"/>
-          <a:ext cx="951840" cy="599400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>300600</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8289720" y="24661080"/>
-          <a:ext cx="951840" cy="590040"/>
+      <xdr:rowOff>22320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 58" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8218080" y="23062320"/>
+          <a:ext cx="952560" cy="599040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2582,23 +2517,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7266240" y="25203600"/>
-          <a:ext cx="951840" cy="751680"/>
+      <xdr:rowOff>133920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7276320" y="25203600"/>
+          <a:ext cx="954000" cy="751320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2619,23 +2554,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8198280" y="25576200"/>
-          <a:ext cx="951840" cy="799560"/>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210880" y="25576200"/>
+          <a:ext cx="952560" cy="799200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2656,23 +2591,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 21" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7273440" y="26276400"/>
-          <a:ext cx="951840" cy="590040"/>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7283520" y="26276400"/>
+          <a:ext cx="954000" cy="589680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2693,23 +2628,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 22" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8142120" y="26696160"/>
-          <a:ext cx="951840" cy="713880"/>
+      <xdr:rowOff>41760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154720" y="26696160"/>
+          <a:ext cx="952560" cy="713520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2730,23 +2665,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110880</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 23" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7287120" y="27327240"/>
-          <a:ext cx="951840" cy="685080"/>
+      <xdr:rowOff>128520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7297200" y="27327240"/>
+          <a:ext cx="954000" cy="684720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2767,23 +2702,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 24" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8142120" y="27802440"/>
-          <a:ext cx="951840" cy="666000"/>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154720" y="27802440"/>
+          <a:ext cx="952560" cy="665640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,23 +2739,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>111240</xdr:colOff>
+      <xdr:colOff>110880</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 25" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7287480" y="28317240"/>
-          <a:ext cx="951840" cy="523440"/>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Image 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7297560" y="28317240"/>
+          <a:ext cx="954000" cy="523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2841,23 +2776,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 50" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8401680" y="28657080"/>
-          <a:ext cx="840600" cy="891000"/>
+      <xdr:rowOff>117360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Image 50" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8414280" y="28657080"/>
+          <a:ext cx="841320" cy="890640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2878,23 +2813,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>181080</xdr:colOff>
+      <xdr:colOff>180720</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 51" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7357320" y="29172240"/>
-          <a:ext cx="951840" cy="847080"/>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 51" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7368840" y="29172240"/>
+          <a:ext cx="952560" cy="846720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2915,23 +2850,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>335160</xdr:colOff>
+      <xdr:colOff>334800</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 52" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8324280" y="29714760"/>
-          <a:ext cx="951840" cy="875520"/>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Image 52" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8336880" y="29714760"/>
+          <a:ext cx="952560" cy="875160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2952,23 +2887,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>173520</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 54" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7350120" y="30270960"/>
-          <a:ext cx="951840" cy="885240"/>
+      <xdr:rowOff>16200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Image 54" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7361640" y="30270960"/>
+          <a:ext cx="952560" cy="884880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2989,23 +2924,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201960</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Image 53" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191440" y="30942000"/>
-          <a:ext cx="951840" cy="466200"/>
+      <xdr:rowOff>77400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 53" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8204040" y="30942000"/>
+          <a:ext cx="952560" cy="465840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3026,23 +2961,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>68400</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 55" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7245000" y="31417920"/>
-          <a:ext cx="951840" cy="637560"/>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 55" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7255080" y="31417920"/>
+          <a:ext cx="954000" cy="637200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3063,23 +2998,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>201600</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Image 56" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191080" y="31865400"/>
-          <a:ext cx="951840" cy="628200"/>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Image 56" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8203680" y="31865400"/>
+          <a:ext cx="952560" cy="627840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3100,13 +3035,87 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Image 57" descr=""/>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Image 57" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7276320" y="32395680"/>
+          <a:ext cx="954000" cy="770400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>807120</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131040</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8133840" y="24666840"/>
+          <a:ext cx="951840" cy="685080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>806760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3115,8 +3124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7266240" y="32395680"/>
-          <a:ext cx="951840" cy="770760"/>
+          <a:off x="8133480" y="2436480"/>
+          <a:ext cx="951840" cy="828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3138,11 +3147,11 @@
   </sheetPr>
   <dimension ref="A3:O188"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K190" activeCellId="0" sqref="K190"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -3217,36 +3226,36 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10" t="n">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3264,48 +3273,48 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="N16" s="0" t="n">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="N16" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10" t="n">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3323,7 +3332,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="8"/>
@@ -3336,58 +3345,58 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="14"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
+      <c r="A25" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10" t="n">
+      <c r="M25" s="11"/>
+      <c r="N25" s="11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
@@ -3403,7 +3412,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="8"/>
@@ -3416,38 +3425,38 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+      <c r="A31" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10" t="n">
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3465,7 +3474,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="13" t="s">
         <v>44</v>
       </c>
       <c r="I34" s="8"/>
@@ -3477,40 +3486,40 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
+      <c r="A37" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10" t="n">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3528,7 +3537,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="13" t="s">
         <v>52</v>
       </c>
       <c r="I40" s="8"/>
@@ -3541,32 +3550,32 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
+      <c r="A43" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10" t="n">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,7 +3593,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="13" t="s">
         <v>59</v>
       </c>
       <c r="I46" s="8"/>
@@ -3596,37 +3605,37 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="n">
+      <c r="A49" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10" t="n">
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3644,7 +3653,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="13" t="s">
         <v>66</v>
       </c>
       <c r="I52" s="8"/>
@@ -3657,48 +3666,48 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="n">
+      <c r="A55" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11" t="s">
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10" t="n">
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3716,7 +3725,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="13" t="s">
         <v>76</v>
       </c>
       <c r="I58" s="8"/>
@@ -3729,38 +3738,38 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="n">
+      <c r="A61" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="11" t="s">
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10" t="n">
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,7 +3787,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I64" s="8"/>
@@ -3792,38 +3801,38 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="n">
+      <c r="A67" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10" t="n">
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3841,7 +3850,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="13" t="s">
         <v>90</v>
       </c>
       <c r="I70" s="8"/>
@@ -3854,38 +3863,38 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="n">
+      <c r="A73" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="11" t="s">
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10" t="n">
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3903,7 +3912,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="13" t="s">
         <v>96</v>
       </c>
       <c r="I76" s="8"/>
@@ -3916,32 +3925,32 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="n">
+      <c r="A79" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10" t="s">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="11" t="s">
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10" t="n">
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3959,7 +3968,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="12" t="s">
+      <c r="H82" s="13" t="s">
         <v>103</v>
       </c>
       <c r="I82" s="8"/>
@@ -3971,33 +3980,33 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="n">
+      <c r="A85" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10" t="s">
+      <c r="C85" s="11"/>
+      <c r="D85" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="11" t="s">
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10" t="n">
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4015,7 +4024,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="12" t="s">
+      <c r="H88" s="13" t="s">
         <v>108</v>
       </c>
       <c r="I88" s="8"/>
@@ -4028,33 +4037,33 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="n">
+      <c r="A91" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10" t="s">
+      <c r="C91" s="11"/>
+      <c r="D91" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="11" t="s">
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10" t="n">
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4072,7 +4081,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="12" t="s">
+      <c r="H94" s="13" t="s">
         <v>114</v>
       </c>
       <c r="I94" s="8"/>
@@ -4085,33 +4094,33 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10" t="n">
+      <c r="A97" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10" t="s">
+      <c r="C97" s="11"/>
+      <c r="D97" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="11" t="s">
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10" t="n">
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4129,7 +4138,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="12" t="s">
+      <c r="H100" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I100" s="8"/>
@@ -4141,35 +4150,35 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10" t="n">
+      <c r="A103" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10" t="s">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="11" t="s">
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10" t="n">
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J104" s="13"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J105" s="13"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="n">
@@ -4185,7 +4194,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="12" t="s">
+      <c r="H106" s="13" t="s">
         <v>127</v>
       </c>
       <c r="I106" s="8"/>
@@ -4197,28 +4206,28 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10" t="n">
+      <c r="A109" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="11" t="s">
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10" t="n">
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4248,27 +4257,27 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10" t="n">
+      <c r="A115" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10" t="s">
+      <c r="C115" s="11"/>
+      <c r="D115" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="11" t="s">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10" t="n">
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4286,7 +4295,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="12" t="s">
+      <c r="H118" s="13" t="s">
         <v>138</v>
       </c>
       <c r="I118" s="8"/>
@@ -4298,33 +4307,33 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="n">
+      <c r="A121" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10" t="s">
+      <c r="C121" s="11"/>
+      <c r="D121" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="11" t="s">
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10" t="n">
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="N121" s="13"/>
+      <c r="N121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4342,7 +4351,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="12" t="s">
+      <c r="H124" s="13" t="s">
         <v>145</v>
       </c>
       <c r="I124" s="8"/>
@@ -4354,37 +4363,37 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10" t="n">
+      <c r="A127" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10" t="s">
+      <c r="C127" s="11"/>
+      <c r="D127" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="11" t="s">
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10" t="n">
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="10" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4400,7 +4409,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="12" t="s">
+      <c r="H130" s="13" t="s">
         <v>151</v>
       </c>
       <c r="I130" s="8"/>
@@ -4410,25 +4419,25 @@
       <c r="M130" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10" t="n">
+      <c r="A133" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="11" t="s">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10" t="n">
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4462,31 +4471,31 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10" t="n">
+      <c r="A142" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C142" s="21"/>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="11" t="s">
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4513,35 +4522,35 @@
       <c r="L145" s="22"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10" t="n">
+      <c r="A148" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10" t="s">
+      <c r="C148" s="11"/>
+      <c r="D148" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="11" t="s">
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="12" t="s">
         <v>165</v>
       </c>
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="10" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4569,35 +4578,35 @@
       <c r="M151" s="17"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10" t="n">
+      <c r="A154" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10" t="s">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="11" t="s">
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="10"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4624,35 +4633,35 @@
       <c r="L157" s="17"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10" t="n">
+      <c r="A160" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10" t="s">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="11" t="s">
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
-      <c r="L160" s="10"/>
-      <c r="M160" s="10"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="10" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4680,27 +4689,27 @@
       <c r="M163" s="17"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10" t="n">
+      <c r="A166" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10" t="s">
+      <c r="C166" s="11"/>
+      <c r="D166" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="11" t="s">
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-      <c r="L166" s="10"/>
-      <c r="M166" s="10"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="17" t="n">
@@ -4726,26 +4735,26 @@
       <c r="M169" s="17"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10" t="n">
+      <c r="A172" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10" t="s">
+      <c r="C172" s="11"/>
+      <c r="D172" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="11" t="s">
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
-      <c r="L172" s="10"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="17" t="n">
@@ -4771,27 +4780,27 @@
       <c r="M175" s="17"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10" t="n">
+      <c r="A178" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10" t="s">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="11" t="s">
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I178" s="10"/>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="10"/>
-      <c r="M178" s="10"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="17" t="n">
@@ -4817,27 +4826,27 @@
       <c r="M181" s="17"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10" t="n">
+      <c r="A184" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10" t="s">
+      <c r="C184" s="11"/>
+      <c r="D184" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="11" t="s">
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
-      <c r="K184" s="10"/>
-      <c r="L184" s="10"/>
-      <c r="M184" s="10"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="17" t="n">
@@ -4863,7 +4872,7 @@
       <c r="M187" s="17"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D188" s="0" t="s">
+      <c r="D188" s="10" t="s">
         <v>207</v>
       </c>
     </row>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="208">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -478,10 +478,10 @@
     <t xml:space="preserve">pewter_foot2</t>
   </si>
   <si>
-    <t xml:space="preserve">bearing pad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bearing_pad</t>
+    <t xml:space="preserve">touch_bottom2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom part</t>
   </si>
   <si>
     <t xml:space="preserve">number of details</t>
@@ -993,20 +993,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>721440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1015,82 +1015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7233840" y="2004120"/>
-          <a:ext cx="954000" cy="589680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7240680" y="2973240"/>
-          <a:ext cx="954000" cy="722880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180720</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 8" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8182800" y="3388320"/>
-          <a:ext cx="952560" cy="599040"/>
+          <a:off x="8410680" y="3415680"/>
+          <a:ext cx="955440" cy="597960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1111,60 +1037,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7276680" y="3957120"/>
-          <a:ext cx="954000" cy="599040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8141040" y="4390200"/>
-          <a:ext cx="952560" cy="761040"/>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7307280" y="3957120"/>
+          <a:ext cx="960480" cy="597960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1179,7 +1068,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>787680</xdr:colOff>
+      <xdr:colOff>788760</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>14400</xdr:rowOff>
     </xdr:from>
@@ -1187,21 +1076,21 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>113400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 12" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+      <xdr:rowOff>67680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="7410600" y="4817880"/>
-          <a:ext cx="732600" cy="954000"/>
+          <a:off x="7445880" y="4813920"/>
+          <a:ext cx="731520" cy="960480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,23 +1111,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>222480</xdr:colOff>
+      <xdr:colOff>221400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8224560" y="5327640"/>
-          <a:ext cx="952560" cy="865800"/>
+      <xdr:rowOff>84240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8262720" y="5327640"/>
+          <a:ext cx="955440" cy="864720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,29 +1142,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>322560</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
+      <xdr:colOff>578160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="7649280" y="5808960"/>
-          <a:ext cx="256320" cy="951480"/>
+          <a:off x="7683480" y="5808600"/>
+          <a:ext cx="255240" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1292,27 +1181,27 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>174960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>354960</xdr:colOff>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 15" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 15" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="8315640" y="6346440"/>
-          <a:ext cx="180000" cy="951480"/>
+          <a:off x="8353440" y="6346800"/>
+          <a:ext cx="178920" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1333,23 +1222,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>117720</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7304400" y="7084800"/>
-          <a:ext cx="954000" cy="541800"/>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7335000" y="7084800"/>
+          <a:ext cx="960480" cy="540720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,23 +1259,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>137520</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8140680" y="7647480"/>
-          <a:ext cx="952560" cy="504000"/>
+      <xdr:rowOff>142560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8178840" y="7647480"/>
+          <a:ext cx="955440" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1407,23 +1296,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 18" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7283160" y="8041680"/>
-          <a:ext cx="954000" cy="732600"/>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 18" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7313760" y="8041680"/>
+          <a:ext cx="960480" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1444,23 +1333,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 26" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8238600" y="8387280"/>
-          <a:ext cx="952560" cy="741960"/>
+      <xdr:rowOff>88920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8276760" y="8387280"/>
+          <a:ext cx="955440" cy="740880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1481,97 +1370,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7269120" y="8984880"/>
-          <a:ext cx="954000" cy="923040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>34920</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 28" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8175600" y="9635040"/>
-          <a:ext cx="952560" cy="608760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>743040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7255440" y="10069920"/>
-          <a:ext cx="954000" cy="684720"/>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 27" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7299720" y="8984880"/>
+          <a:ext cx="960480" cy="921960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1592,23 +1407,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 30" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8204040" y="10693440"/>
-          <a:ext cx="952560" cy="646560"/>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 30" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242200" y="10693440"/>
+          <a:ext cx="955440" cy="645480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1629,23 +1444,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>53280</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 31" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7241040" y="11135520"/>
-          <a:ext cx="954000" cy="770400"/>
+      <xdr:rowOff>124920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 31" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7271640" y="11135520"/>
+          <a:ext cx="960480" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1666,23 +1481,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 32" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8238600" y="11636280"/>
-          <a:ext cx="952560" cy="694440"/>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8276760" y="11636280"/>
+          <a:ext cx="955440" cy="693360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,23 +1518,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 33" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7276320" y="12091320"/>
-          <a:ext cx="954000" cy="770400"/>
+      <xdr:rowOff>49680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 33" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7306920" y="12091320"/>
+          <a:ext cx="960480" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1740,23 +1555,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>208440</xdr:colOff>
+      <xdr:colOff>207360</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 34" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8210520" y="12757320"/>
-          <a:ext cx="952560" cy="656280"/>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 34" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248680" y="12757320"/>
+          <a:ext cx="955440" cy="655200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,23 +1592,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 35" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7389720" y="13244400"/>
-          <a:ext cx="952560" cy="627840"/>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 35" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7423920" y="13244400"/>
+          <a:ext cx="955440" cy="626760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1814,23 +1629,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>123480</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 36" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8125560" y="13875840"/>
-          <a:ext cx="953640" cy="399240"/>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 36" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8159760" y="13875840"/>
+          <a:ext cx="960480" cy="398160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1851,23 +1666,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>719640</xdr:colOff>
+      <xdr:colOff>718560</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 37" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7494840" y="14119920"/>
-          <a:ext cx="551520" cy="951480"/>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 37" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7529040" y="14119920"/>
+          <a:ext cx="550440" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1888,23 +1703,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
+      <xdr:colOff>172440</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 38" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8175600" y="14730120"/>
-          <a:ext cx="952560" cy="875160"/>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 38" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8213760" y="14730120"/>
+          <a:ext cx="955440" cy="874080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1925,23 +1740,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 39" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7192080" y="15206760"/>
-          <a:ext cx="954000" cy="913320"/>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 39" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7222680" y="15206760"/>
+          <a:ext cx="960480" cy="912240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,23 +1777,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>193680</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 40" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8196840" y="15728760"/>
-          <a:ext cx="952560" cy="970560"/>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 40" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8235000" y="15728760"/>
+          <a:ext cx="955440" cy="969480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1999,23 +1814,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 41" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7199280" y="16196040"/>
-          <a:ext cx="954000" cy="979920"/>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 41" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229880" y="16196040"/>
+          <a:ext cx="960480" cy="978840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2036,23 +1851,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>773280</xdr:colOff>
+      <xdr:colOff>772200</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 42" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8476920" y="16738200"/>
-          <a:ext cx="437040" cy="951480"/>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 42" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515080" y="16738200"/>
+          <a:ext cx="435960" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2073,23 +1888,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 43" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7354800" y="17241480"/>
-          <a:ext cx="952560" cy="923040"/>
+      <xdr:rowOff>33480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 43" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7389000" y="17241480"/>
+          <a:ext cx="955440" cy="921960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2110,60 +1925,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 44" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8231760" y="17735760"/>
-          <a:ext cx="952560" cy="827640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>777600</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 45" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7290000" y="18129960"/>
-          <a:ext cx="954000" cy="1170360"/>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 44" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269920" y="17735760"/>
+          <a:ext cx="955440" cy="826560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,23 +1962,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
+      <xdr:colOff>270360</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 46" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8273520" y="18855720"/>
-          <a:ext cx="952560" cy="799200"/>
+      <xdr:rowOff>139680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 46" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8311680" y="18855720"/>
+          <a:ext cx="955440" cy="798120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,23 +1999,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>137520</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 47" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7326720" y="19513440"/>
-          <a:ext cx="952560" cy="627840"/>
+      <xdr:rowOff>110520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 47" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360920" y="19513440"/>
+          <a:ext cx="955440" cy="626760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2258,23 +2036,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>250560</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 48" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8252640" y="19737000"/>
-          <a:ext cx="952560" cy="951480"/>
+      <xdr:rowOff>141840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 48" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8290800" y="19737000"/>
+          <a:ext cx="955440" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,23 +2073,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7340760" y="20408760"/>
-          <a:ext cx="952560" cy="770400"/>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7374960" y="20408760"/>
+          <a:ext cx="955440" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2332,97 +2110,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8294760" y="20883240"/>
-          <a:ext cx="952560" cy="780120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>792000</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>117720</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7304400" y="21203640"/>
-          <a:ext cx="954000" cy="1161000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8224920" y="21943440"/>
-          <a:ext cx="952560" cy="856080"/>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8332920" y="20883240"/>
+          <a:ext cx="955440" cy="779040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2443,208 +2147,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 49" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7255080" y="22410360"/>
-          <a:ext cx="954000" cy="989640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 58" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8218080" y="23062320"/>
-          <a:ext cx="952560" cy="599040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>763920</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7276320" y="25203600"/>
-          <a:ext cx="954000" cy="751320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8210880" y="25576200"/>
-          <a:ext cx="952560" cy="799200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>96840</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 21" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7283520" y="26276400"/>
-          <a:ext cx="954000" cy="589680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 22" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8154720" y="26696160"/>
-          <a:ext cx="952560" cy="713520"/>
+      <xdr:rowOff>112680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 49" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7285680" y="22410360"/>
+          <a:ext cx="960480" cy="988560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2665,60 +2184,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>109440</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 23" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7297200" y="27327240"/>
-          <a:ext cx="954000" cy="684720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 24" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8154720" y="27802440"/>
-          <a:ext cx="952560" cy="665640"/>
+      <xdr:rowOff>127440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7327800" y="27327240"/>
+          <a:ext cx="960480" cy="683640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2739,23 +2221,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110880</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 25" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7297560" y="28317240"/>
-          <a:ext cx="954000" cy="523080"/>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7328160" y="28317240"/>
+          <a:ext cx="960480" cy="522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2776,23 +2258,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 50" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8414280" y="28657080"/>
-          <a:ext cx="841320" cy="890640"/>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 50" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8452440" y="28657080"/>
+          <a:ext cx="844200" cy="889560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2813,60 +2295,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180720</xdr:colOff>
+      <xdr:colOff>179640</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 51" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7368840" y="29172240"/>
-          <a:ext cx="952560" cy="846720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>196200</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>334800</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 52" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8336880" y="29714760"/>
-          <a:ext cx="952560" cy="875160"/>
+      <xdr:rowOff>72000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 51" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7403040" y="29172240"/>
+          <a:ext cx="955440" cy="845640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2887,23 +2332,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
+      <xdr:colOff>172440</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 54" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7361640" y="30270960"/>
-          <a:ext cx="952560" cy="884880"/>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 54" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7395840" y="30270960"/>
+          <a:ext cx="955440" cy="883800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2924,97 +2369,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 53" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8204040" y="30942000"/>
-          <a:ext cx="952560" cy="465840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 55" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7255080" y="31417920"/>
-          <a:ext cx="954000" cy="637200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Image 56" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8203680" y="31865400"/>
-          <a:ext cx="952560" cy="627840"/>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 53" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242200" y="30942000"/>
+          <a:ext cx="955440" cy="464760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3035,23 +2406,245 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 57" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7276320" y="32395680"/>
-          <a:ext cx="954000" cy="770400"/>
+      <xdr:rowOff>125280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 57" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7306920" y="32395680"/>
+          <a:ext cx="960480" cy="769320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>59400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7091280" y="1874160"/>
+          <a:ext cx="1146960" cy="760680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242200" y="2274120"/>
+          <a:ext cx="1144080" cy="989280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>681840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>192960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7224840" y="2851560"/>
+          <a:ext cx="1146960" cy="865440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>473760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8326440" y="4262400"/>
+          <a:ext cx="1144080" cy="1017720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63360</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389520</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>111600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242200" y="9526680"/>
+          <a:ext cx="1144080" cy="817920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604440</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>115560</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7147440" y="10090800"/>
+          <a:ext cx="1146960" cy="865440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3066,19 +2659,426 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>807120</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38520</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7396200" y="18238680"/>
+          <a:ext cx="821160" cy="1118880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>135360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45000</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360920" y="21196440"/>
+          <a:ext cx="862920" cy="1132560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>49320</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>135360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>375480</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8228160" y="21874680"/>
+          <a:ext cx="1144080" cy="922680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63360</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389520</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Image 58" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242200" y="23035680"/>
+          <a:ext cx="1144080" cy="750960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:colOff>677520</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Image 10" descr=""/>
+      <xdr:rowOff>141480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8530920" y="24666840"/>
+          <a:ext cx="1143360" cy="780120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42120</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367200</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>51840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Image 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7403040" y="25074720"/>
+          <a:ext cx="1143000" cy="960840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>366120</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>691560</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Image 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8544960" y="25488360"/>
+          <a:ext cx="1143360" cy="999000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49320</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374400</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410240" y="26152920"/>
+          <a:ext cx="1143000" cy="808560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>372960</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>169560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>698400</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>42480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8551800" y="26668800"/>
+          <a:ext cx="1143360" cy="903960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>168840</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>494280</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>29880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8347680" y="27802080"/>
+          <a:ext cx="1143360" cy="789480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492480</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Image 55" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7035480" y="31343040"/>
+          <a:ext cx="1144440" cy="827640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>48960</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>176040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>374400</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Image 56" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3087,35 +3087,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8133840" y="24666840"/>
-          <a:ext cx="951840" cy="685080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+          <a:off x="8227800" y="31831560"/>
+          <a:ext cx="1143360" cy="713520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309960</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>130680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Image 6" descr=""/>
+      <xdr:colOff>487440</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Image 52" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3124,8 +3124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8133480" y="2436480"/>
-          <a:ext cx="951840" cy="828000"/>
+          <a:off x="8488800" y="29892240"/>
+          <a:ext cx="995400" cy="960840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,10 +3148,10 @@
   <dimension ref="A3:O188"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="M171" activeCellId="0" sqref="M171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -4422,16 +4422,16 @@
       <c r="A133" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>152</v>
+      <c r="B133" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="12" t="s">
-        <v>153</v>
+      <c r="H133" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="I133" s="11"/>
       <c r="J133" s="11"/>
@@ -4439,6 +4439,11 @@
       <c r="L133" s="11"/>
       <c r="M133" s="11" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -380,27 +380,6 @@
   </si>
   <si>
     <t xml:space="preserve">pin_conn_btr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">side to motherboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring contact between motherboard and side board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">side_mother_conn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact latch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring latching contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">side_led_conn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between motherboard and LEDs</t>
   </si>
   <si>
     <t xml:space="preserve">contact to PCB</t>
@@ -1005,9 +984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>364320</xdr:colOff>
+      <xdr:colOff>363960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1020,8 +999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8575920" y="2709360"/>
-          <a:ext cx="966600" cy="592920"/>
+          <a:off x="8588520" y="2709360"/>
+          <a:ext cx="967680" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1042,9 +1021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1057,23 +1036,23 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439400" y="3251160"/>
-          <a:ext cx="988560" cy="592920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295200</xdr:colOff>
+          <a:off x="7449480" y="3251160"/>
+          <a:ext cx="990720" cy="592560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295560</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
@@ -1081,7 +1060,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>436680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1094,8 +1073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8763840" y="3593880"/>
-          <a:ext cx="726480" cy="975600"/>
+          <a:off x="8777520" y="3592800"/>
+          <a:ext cx="726120" cy="976680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,9 +1095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1131,8 +1110,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7530480" y="4173840"/>
-          <a:ext cx="966600" cy="859680"/>
+          <a:off x="7542000" y="4173840"/>
+          <a:ext cx="967320" cy="859320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1153,9 +1132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1168,8 +1147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="8625960" y="4694400"/>
-          <a:ext cx="250200" cy="945360"/>
+          <a:off x="8638920" y="4694400"/>
+          <a:ext cx="249840" cy="945000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1184,13 +1163,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>440640</xdr:colOff>
+      <xdr:colOff>440280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>614520</xdr:colOff>
+      <xdr:colOff>613800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
@@ -1205,8 +1184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="7949880" y="5120280"/>
-          <a:ext cx="173880" cy="945360"/>
+          <a:off x="7961400" y="5120280"/>
+          <a:ext cx="173520" cy="945000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,9 +1206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76680</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1242,8 +1221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8266680" y="5889960"/>
-          <a:ext cx="988200" cy="535680"/>
+          <a:off x="8278200" y="5889960"/>
+          <a:ext cx="990360" cy="535320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1264,9 +1243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
+      <xdr:colOff>131760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1279,8 +1258,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7509600" y="6378120"/>
-          <a:ext cx="966600" cy="497880"/>
+          <a:off x="7521120" y="6378120"/>
+          <a:ext cx="967320" cy="497520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1301,9 +1280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
+      <xdr:colOff>237600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1316,8 +1295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8634240" y="6922080"/>
-          <a:ext cx="781920" cy="581400"/>
+          <a:off x="8646840" y="6922080"/>
+          <a:ext cx="783000" cy="581040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1338,9 +1317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>658800</xdr:colOff>
+      <xdr:colOff>658440</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1353,8 +1332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562520" y="7496640"/>
-          <a:ext cx="605880" cy="460440"/>
+          <a:off x="7574040" y="7496640"/>
+          <a:ext cx="605520" cy="460080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,9 +1354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>196200</xdr:colOff>
+      <xdr:colOff>195840</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1390,8 +1369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8715960" y="7939440"/>
-          <a:ext cx="658440" cy="617040"/>
+          <a:off x="8728560" y="7939440"/>
+          <a:ext cx="659520" cy="616680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,9 +1391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
+      <xdr:colOff>146160</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1427,8 +1406,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524000" y="9519120"/>
-          <a:ext cx="966600" cy="640440"/>
+          <a:off x="7535520" y="9519120"/>
+          <a:ext cx="967320" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1449,9 +1428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230760</xdr:colOff>
+      <xdr:colOff>230400</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1464,8 +1443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8433360" y="9886320"/>
-          <a:ext cx="975600" cy="764280"/>
+          <a:off x="8445960" y="9886320"/>
+          <a:ext cx="976680" cy="763920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,9 +1465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>117720</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1501,8 +1480,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7482240" y="10543680"/>
-          <a:ext cx="979560" cy="688320"/>
+          <a:off x="7492320" y="10543680"/>
+          <a:ext cx="981720" cy="687960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1523,9 +1502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>231120</xdr:colOff>
+      <xdr:colOff>230760</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1538,8 +1517,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8433720" y="10917360"/>
-          <a:ext cx="975600" cy="764280"/>
+          <a:off x="8446320" y="10917360"/>
+          <a:ext cx="976680" cy="763920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1560,9 +1539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110880</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1575,8 +1554,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7475400" y="11630520"/>
-          <a:ext cx="979560" cy="650160"/>
+          <a:off x="7485480" y="11630520"/>
+          <a:ext cx="981720" cy="649800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,9 +1576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230760</xdr:colOff>
+      <xdr:colOff>230400</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1612,8 +1591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8442000" y="12015720"/>
-          <a:ext cx="966960" cy="621720"/>
+          <a:off x="8454600" y="12015720"/>
+          <a:ext cx="968040" cy="621360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1634,9 +1613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90360</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1649,8 +1628,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7445880" y="12742200"/>
-          <a:ext cx="988560" cy="393120"/>
+          <a:off x="7455960" y="12742200"/>
+          <a:ext cx="990720" cy="392760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1671,9 +1650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>720360</xdr:colOff>
+      <xdr:colOff>720000</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1686,8 +1665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8519040" y="12918240"/>
-          <a:ext cx="545400" cy="945360"/>
+          <a:off x="8531640" y="12918240"/>
+          <a:ext cx="545040" cy="945000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,9 +1687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>775800</xdr:colOff>
+      <xdr:colOff>775440</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1723,8 +1702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7733880" y="13630320"/>
-          <a:ext cx="551520" cy="495000"/>
+          <a:off x="7745400" y="13630320"/>
+          <a:ext cx="551160" cy="494640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,9 +1724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1760,8 +1739,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8646120" y="14146920"/>
-          <a:ext cx="615240" cy="612000"/>
+          <a:off x="8658720" y="14146920"/>
+          <a:ext cx="616320" cy="611640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,9 +1761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1797,8 +1776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7748280" y="14655240"/>
-          <a:ext cx="608760" cy="605520"/>
+          <a:off x="7759800" y="14655240"/>
+          <a:ext cx="609480" cy="605160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,9 +1798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>738360</xdr:colOff>
+      <xdr:colOff>738000</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1834,8 +1813,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8651520" y="15021360"/>
-          <a:ext cx="430920" cy="945360"/>
+          <a:off x="8664120" y="15021360"/>
+          <a:ext cx="430560" cy="945000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1856,9 +1835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>758160</xdr:colOff>
+      <xdr:colOff>757800</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1871,8 +1850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7685280" y="15693120"/>
-          <a:ext cx="582480" cy="554040"/>
+          <a:off x="7696800" y="15693120"/>
+          <a:ext cx="582120" cy="553680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1893,9 +1872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>798840</xdr:colOff>
+      <xdr:colOff>798480</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1908,8 +1887,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8548200" y="16215120"/>
-          <a:ext cx="594720" cy="508320"/>
+          <a:off x="8560800" y="16215120"/>
+          <a:ext cx="594360" cy="507960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1930,9 +1909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1945,8 +1924,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8476920" y="17118360"/>
-          <a:ext cx="966600" cy="793080"/>
+          <a:off x="8489520" y="17118360"/>
+          <a:ext cx="967680" cy="792720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,9 +1946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>735480</xdr:colOff>
+      <xdr:colOff>735120</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1982,8 +1961,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7636320" y="17776080"/>
-          <a:ext cx="608760" cy="393480"/>
+          <a:off x="7647840" y="17776080"/>
+          <a:ext cx="608400" cy="393120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2004,9 +1983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>603000</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2019,82 +1998,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8428320" y="18297720"/>
-          <a:ext cx="518760" cy="508680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>320400</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7830000" y="18745920"/>
-          <a:ext cx="534240" cy="420840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>610560</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8428320" y="19348920"/>
-          <a:ext cx="526320" cy="422640"/>
+          <a:off x="8440920" y="18297720"/>
+          <a:ext cx="518400" cy="508320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2110,28 +2015,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104400</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:colOff>104040</xdr:colOff>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 23" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7459920" y="28734480"/>
-          <a:ext cx="988560" cy="678600"/>
+        <xdr:cNvPr id="28" name="Image 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7470000" y="27703440"/>
+          <a:ext cx="990720" cy="678240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,28 +2052,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>785160</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>80640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104760</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 25" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7460280" y="29724480"/>
-          <a:ext cx="988560" cy="516960"/>
+      <xdr:colOff>104400</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7470360" y="28693080"/>
+          <a:ext cx="990720" cy="516600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,28 +2089,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>344520</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:colOff>47880</xdr:colOff>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 50" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8688600" y="30362400"/>
-          <a:ext cx="537840" cy="554760"/>
+        <xdr:cNvPr id="30" name="Image 50" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8701200" y="29331360"/>
+          <a:ext cx="538920" cy="554400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,65 +2126,65 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>188280</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>819360</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 54" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7709400" y="30714480"/>
+          <a:ext cx="631080" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253800</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>120600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385920</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 54" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7697880" y="31745880"/>
-          <a:ext cx="631440" cy="576360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>386280</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 53" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8597880" y="32342400"/>
-          <a:ext cx="966600" cy="459720"/>
+      <xdr:rowOff>64080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 53" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610480" y="31311000"/>
+          <a:ext cx="967680" cy="459360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,28 +2200,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>763920</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 57" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7439040" y="33802920"/>
-          <a:ext cx="988560" cy="764280"/>
+      <xdr:colOff>83160</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>119880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 57" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7449120" y="32771520"/>
+          <a:ext cx="990720" cy="763920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,23 +2242,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7356960" y="2145240"/>
-          <a:ext cx="1175040" cy="860400"/>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7367040" y="2145240"/>
+          <a:ext cx="1177200" cy="860040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2374,13 +2279,87 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>573840</xdr:colOff>
+      <xdr:colOff>573480</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 45" descr=""/>
+      <xdr:rowOff>137520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7760160" y="16785360"/>
+          <a:ext cx="334440" cy="450720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>168840</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>488880</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8525520" y="28177920"/>
+          <a:ext cx="1155600" cy="784080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136440</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 52" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2389,82 +2368,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7748640" y="16785360"/>
-          <a:ext cx="334800" cy="451080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>489240</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 24" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8512920" y="29208960"/>
-          <a:ext cx="1154520" cy="784440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>136800</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 52" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8618400" y="31380480"/>
-          <a:ext cx="696600" cy="660240"/>
+          <a:off x="8631000" y="30349080"/>
+          <a:ext cx="697680" cy="659880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2485,23 +2390,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7302240" y="8285400"/>
-          <a:ext cx="1242720" cy="859680"/>
+      <xdr:rowOff>133560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7312320" y="8285400"/>
+          <a:ext cx="1244880" cy="859320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2522,23 +2427,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>390600</xdr:colOff>
+      <xdr:colOff>390240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8603640" y="8922600"/>
-          <a:ext cx="965160" cy="734040"/>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8616240" y="8922600"/>
+          <a:ext cx="966240" cy="733680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2554,18 +2459,92 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>262440</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:colOff>531720</xdr:colOff>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 5" descr=""/>
+        <xdr:cNvPr id="40" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783560" y="18814680"/>
+          <a:ext cx="269280" cy="391680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336960</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721080</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8693640" y="19337040"/>
+          <a:ext cx="384120" cy="346320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353520</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>696600</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>187920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2574,82 +2553,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772040" y="19845720"/>
-          <a:ext cx="269640" cy="392040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>721440</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8681040" y="20368080"/>
-          <a:ext cx="384480" cy="346680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>353520</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>696960</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8697600" y="21427200"/>
-          <a:ext cx="343440" cy="309960"/>
+          <a:off x="8710200" y="20395800"/>
+          <a:ext cx="343080" cy="309600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2665,28 +2570,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>486000</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>206280</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7161120" y="20537640"/>
-          <a:ext cx="1389240" cy="948600"/>
+      <xdr:colOff>205920</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>99720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7171200" y="19506240"/>
+          <a:ext cx="1391400" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2702,28 +2607,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619560</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>444600</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7294680" y="27472320"/>
-          <a:ext cx="1494000" cy="948600"/>
+      <xdr:colOff>444240</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>160920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7304760" y="26440920"/>
+          <a:ext cx="1496160" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2739,28 +2644,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>626040</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155880</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8970120" y="28076760"/>
-          <a:ext cx="1198800" cy="948600"/>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982720" y="27045360"/>
+          <a:ext cx="1200960" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2776,28 +2681,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295920</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>692280</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 21" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7805520" y="30206160"/>
-          <a:ext cx="396360" cy="1424880"/>
+      <xdr:colOff>691920</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7817040" y="29174760"/>
+          <a:ext cx="396000" cy="1424520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2813,28 +2718,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>261000</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>195</xdr:row>
       <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 28" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8605080" y="33204960"/>
-          <a:ext cx="1453320" cy="948960"/>
+        <xdr:cNvPr id="47" name="Image 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8617680" y="32173920"/>
+          <a:ext cx="1455480" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2850,18 +2755,92 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>790920</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>14040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>675360</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 29" descr=""/>
+      <xdr:colOff>675000</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8312040" y="33267240"/>
+          <a:ext cx="2390760" cy="1513800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297000</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>720720</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 39" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7818120" y="34438320"/>
+          <a:ext cx="1259280" cy="689760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>746280</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508680</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>130680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Image 49" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2870,35 +2849,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8300520" y="34298280"/>
-          <a:ext cx="2387520" cy="1514160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296640</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>720720</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 39" descr=""/>
+          <a:off x="9102960" y="34872840"/>
+          <a:ext cx="1433520" cy="814680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>637200</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>30960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Image 51" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2906,83 +2885,9 @@
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7806240" y="35469720"/>
-          <a:ext cx="1258560" cy="690120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>746280</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>509040</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 49" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9090360" y="35903880"/>
-          <a:ext cx="1431360" cy="815040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>637560</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 51" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8432640" y="23391360"/>
-          <a:ext cx="549000" cy="520200"/>
+        <a:xfrm>
+          <a:off x="8445240" y="22360320"/>
+          <a:ext cx="548640" cy="519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2998,65 +2903,65 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>789480</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>615600</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>11160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 55" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7474680" y="22744800"/>
+          <a:ext cx="662040" cy="603360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98640</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>686520</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>615960</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Image 55" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7464600" y="23776200"/>
-          <a:ext cx="660960" cy="603720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>98640</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 56" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8442720" y="24376680"/>
-          <a:ext cx="588240" cy="416520"/>
+      <xdr:rowOff>99720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 56" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8455320" y="23345640"/>
+          <a:ext cx="587880" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3072,65 +2977,65 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>483480</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Image 58" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7541640" y="23776920"/>
+          <a:ext cx="462960" cy="532440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21240</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Image 58" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7530120" y="24807960"/>
-          <a:ext cx="463320" cy="532800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Image 59" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8365320" y="25232040"/>
-          <a:ext cx="749520" cy="618840"/>
+      <xdr:rowOff>153720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Image 59" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8377920" y="24200640"/>
+          <a:ext cx="749160" cy="618480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3146,28 +3051,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>407160</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Image 60" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7580880" y="21874320"/>
-          <a:ext cx="335880" cy="659520"/>
+      <xdr:colOff>406800</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Image 60" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7592400" y="20842920"/>
+          <a:ext cx="335520" cy="659160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3183,28 +3088,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>782640</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:colOff>802800</xdr:colOff>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Image 62" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7457760" y="25770600"/>
-          <a:ext cx="855000" cy="824760"/>
+        <xdr:cNvPr id="57" name="Image 62" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467840" y="24739560"/>
+          <a:ext cx="856080" cy="824400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3220,28 +3125,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>240120</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Image 22" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7749720" y="36492840"/>
-          <a:ext cx="1724400" cy="513720"/>
+      <xdr:colOff>295560</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7761240" y="35461440"/>
+          <a:ext cx="1726560" cy="513360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3257,28 +3162,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>812160</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:colOff>113760</xdr:colOff>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Image 61" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId62"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9156240" y="37062720"/>
-          <a:ext cx="1805040" cy="1371600"/>
+        <xdr:cNvPr id="59" name="Image 61" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9168840" y="36031680"/>
+          <a:ext cx="1808640" cy="1371240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3294,28 +3199,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>261000</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Image 63" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId63"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7317360" y="32784120"/>
-          <a:ext cx="1287720" cy="686520"/>
+      <xdr:colOff>260640</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>54720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Image 63" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7327440" y="31753080"/>
+          <a:ext cx="1289880" cy="686160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3331,28 +3236,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38160</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Image 64" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId64"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8344080" y="22288680"/>
-          <a:ext cx="872280" cy="726120"/>
+      <xdr:colOff>37800</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Image 64" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356680" y="21257280"/>
+          <a:ext cx="873360" cy="725760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3368,28 +3273,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>84600</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>649080</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Image 65" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId65"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7594200" y="22776480"/>
-          <a:ext cx="564480" cy="680400"/>
+      <xdr:colOff>648720</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>63720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Image 65" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7605720" y="21745080"/>
+          <a:ext cx="564120" cy="680040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3409,13 +3314,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O215"/>
+  <dimension ref="A3:O209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B216" activeCellId="0" sqref="B216"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -3496,6 +3401,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
+        <f aca="false">A12+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -3532,6 +3438,7 @@
     </row>
     <row r="18" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
+        <f aca="false">A15+1</f>
         <v>3</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3571,6 +3478,7 @@
     </row>
     <row r="21" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
+        <f aca="false">A18+1</f>
         <v>4</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -3602,6 +3510,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
+        <f aca="false">A21+1</f>
         <v>5</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3633,6 +3542,7 @@
     </row>
     <row r="27" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
+        <f aca="false">A24+1</f>
         <v>6</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3665,6 +3575,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="n">
+        <f aca="false">A27+1</f>
         <v>7</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3696,6 +3607,7 @@
     </row>
     <row r="33" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
+        <f aca="false">A30+1</f>
         <v>8</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3727,6 +3639,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
+        <f aca="false">A33+1</f>
         <v>9</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -3753,6 +3666,7 @@
     </row>
     <row r="39" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
+        <f aca="false">A36+1</f>
         <v>10</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -3783,6 +3697,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="n">
+        <f aca="false">A39+1</f>
         <v>11</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -3813,6 +3728,7 @@
     </row>
     <row r="45" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="n">
+        <f aca="false">A42+1</f>
         <v>12</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -3849,6 +3765,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="n">
+        <f aca="false">A45+1</f>
         <v>13</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -3885,6 +3802,7 @@
     </row>
     <row r="51" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="n">
+        <f aca="false">A48+1</f>
         <v>14</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -3921,6 +3839,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="n">
+        <f aca="false">A51+1</f>
         <v>15</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -3947,6 +3866,7 @@
     </row>
     <row r="57" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="n">
+        <f aca="false">A54+1</f>
         <v>16</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -3979,6 +3899,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="n">
+        <f aca="false">A57+1</f>
         <v>17</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -4010,6 +3931,7 @@
     </row>
     <row r="63" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="n">
+        <f aca="false">A60+1</f>
         <v>18</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -4041,6 +3963,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="n">
+        <f aca="false">A63+1</f>
         <v>19</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -4072,6 +3995,7 @@
     </row>
     <row r="69" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="n">
+        <f aca="false">A66+1</f>
         <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -4103,6 +4027,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="n">
+        <f aca="false">A69+1</f>
         <v>21</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -4128,6 +4053,7 @@
     </row>
     <row r="75" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="n">
+        <f aca="false">A72+1</f>
         <v>22</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -4153,6 +4079,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="n">
+        <f aca="false">A75+1</f>
         <v>23</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -4184,6 +4111,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="n">
+        <f aca="false">A78+1</f>
         <v>24</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -4210,6 +4138,7 @@
     </row>
     <row r="84" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="n">
+        <f aca="false">A81+1</f>
         <v>25</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -4236,6 +4165,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="n">
+        <f aca="false">A84+1</f>
         <v>26</v>
       </c>
       <c r="B87" s="11" t="s">
@@ -4267,6 +4197,7 @@
     </row>
     <row r="90" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="n">
+        <f aca="false">A87+1</f>
         <v>27</v>
       </c>
       <c r="B90" s="11" t="s">
@@ -4292,6 +4223,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="n">
+        <f aca="false">A90+1</f>
         <v>28</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -4323,6 +4255,7 @@
     </row>
     <row r="96" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="n">
+        <f aca="false">A93+1</f>
         <v>29</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -4348,6 +4281,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="n">
+        <f aca="false">A96+1</f>
         <v>30</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -4374,6 +4308,7 @@
     </row>
     <row r="102" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="n">
+        <f aca="false">A99+1</f>
         <v>31</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -4399,6 +4334,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="n">
+        <f aca="false">A102+1</f>
         <v>32</v>
       </c>
       <c r="B105" s="11" t="s">
@@ -4422,8 +4358,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="n">
+        <f aca="false">A105+1</f>
         <v>33</v>
       </c>
       <c r="B108" s="11" t="s">
@@ -4444,239 +4381,228 @@
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
       <c r="M108" s="11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="n">
+        <f aca="false">A108+1</f>
         <v>34</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N111" s="9"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="n">
+        <f aca="false">A111+1</f>
         <v>35</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="10" t="s">
-        <v>129</v>
+      <c r="H114" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
       <c r="M114" s="11" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="9"/>
       <c r="D115" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="n">
+        <f aca="false">A114+1</f>
         <v>36</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C117" s="11"/>
+        <v>133</v>
+      </c>
       <c r="D117" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11" t="n">
+        <v>134</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="N117" s="11" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="120" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="n">
+      <c r="A120" s="12" t="n">
+        <f aca="false">A117+1</f>
         <v>37</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11" t="n">
-        <v>1</v>
+      <c r="B120" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="9"/>
       <c r="D121" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="12" t="n">
+        <f aca="false">A120+1</f>
         <v>38</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N123" s="11" t="n">
-        <v>17</v>
+      <c r="B123" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="12" t="n">
+        <f aca="false">A123+1</f>
+        <v>39</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="126" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="12" t="n">
+        <f aca="false">A126+1</f>
         <v>40</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="D129" s="11"/>
+      <c r="O129" s="12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="D130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="D131" s="9"/>
     </row>
     <row r="132" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="12" t="n">
+        <f aca="false">A129+1</f>
         <v>41</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="O132" s="12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="D133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="D134" s="9"/>
     </row>
     <row r="135" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="12" t="n">
+        <f aca="false">A132+1</f>
         <v>42</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D135" s="11"/>
       <c r="O135" s="12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,14 +4613,15 @@
     </row>
     <row r="138" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="12" t="n">
+        <f aca="false">A135+1</f>
         <v>43</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D138" s="11"/>
       <c r="O138" s="12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,16 +4630,17 @@
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="9"/>
     </row>
-    <row r="141" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="n">
+    <row r="141" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="10" t="n">
+        <f aca="false">A138+1</f>
         <v>44</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D141" s="11"/>
-      <c r="O141" s="12" t="n">
-        <v>3</v>
+      <c r="O141" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,91 +4649,112 @@
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="9"/>
     </row>
-    <row r="144" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="n">
+    <row r="144" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="10" t="n">
+        <f aca="false">A141+1</f>
         <v>45</v>
       </c>
       <c r="B144" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="15"/>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="15"/>
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17" t="n">
+        <f aca="false">SUM(M12:M116)</f>
+        <v>76</v>
+      </c>
+      <c r="N147" s="17" t="n">
+        <f aca="false">SUM(N12:N119)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D144" s="11"/>
-      <c r="O144" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D145" s="9"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="n">
-        <v>46</v>
-      </c>
-      <c r="B147" s="12" t="s">
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D155" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D147" s="11"/>
-      <c r="O147" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D149" s="9"/>
-    </row>
-    <row r="150" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="B150" s="12" t="s">
+    </row>
+    <row r="157" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B157" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D150" s="11"/>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="15"/>
-      <c r="D151" s="9"/>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="15"/>
-      <c r="D152" s="9"/>
-    </row>
-    <row r="153" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="16" t="s">
+      <c r="C157" s="20"/>
+      <c r="D157" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="17"/>
-      <c r="M153" s="17" t="n">
-        <f aca="false">SUM(M12:M122)</f>
-        <v>89</v>
-      </c>
-      <c r="N153" s="17" t="n">
-        <f aca="false">SUM(N12:N125)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="6" t="s">
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="21" t="s">
         <v>162</v>
+      </c>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D158" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>163</v>
@@ -4824,7 +4773,6 @@
       <c r="J160" s="18"/>
       <c r="K160" s="18"/>
       <c r="L160" s="18"/>
-      <c r="M160" s="18"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="9" t="s">
@@ -4833,7 +4781,7 @@
     </row>
     <row r="163" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>167</v>
@@ -4856,39 +4804,35 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E166" s="18"/>
       <c r="F166" s="18"/>
       <c r="G166" s="18"/>
       <c r="H166" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I166" s="18"/>
       <c r="J166" s="18"/>
       <c r="K166" s="18"/>
       <c r="L166" s="18"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D167" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="M166" s="18"/>
     </row>
     <row r="169" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B169" s="20" t="s">
         <v>174</v>
@@ -4909,27 +4853,22 @@
       <c r="L169" s="20"/>
       <c r="M169" s="20"/>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D170" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="18"/>
       <c r="G172" s="18"/>
       <c r="H172" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I172" s="18"/>
       <c r="J172" s="18"/>
@@ -4939,43 +4878,42 @@
     </row>
     <row r="175" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C175" s="20"/>
       <c r="D175" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
       <c r="H175" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I175" s="20"/>
       <c r="J175" s="20"/>
       <c r="K175" s="20"/>
       <c r="L175" s="20"/>
-      <c r="M175" s="20"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C178" s="18"/>
       <c r="D178" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="18"/>
       <c r="G178" s="18"/>
       <c r="H178" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I178" s="18"/>
       <c r="J178" s="18"/>
@@ -4985,42 +4923,43 @@
     </row>
     <row r="181" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C181" s="20"/>
       <c r="D181" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
       <c r="H181" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I181" s="20"/>
       <c r="J181" s="20"/>
       <c r="K181" s="20"/>
       <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="18"/>
       <c r="G184" s="18"/>
       <c r="H184" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I184" s="18"/>
       <c r="J184" s="18"/>
@@ -5028,22 +4967,32 @@
       <c r="L184" s="18"/>
       <c r="M184" s="18"/>
     </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D185" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D186" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
     <row r="187" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C187" s="20"/>
       <c r="D187" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
       <c r="H187" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I187" s="20"/>
       <c r="J187" s="20"/>
@@ -5053,20 +5002,20 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="18" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="E190" s="18"/>
       <c r="F190" s="18"/>
       <c r="G190" s="18"/>
       <c r="H190" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I190" s="18"/>
       <c r="J190" s="18"/>
@@ -5075,107 +5024,51 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D191" s="0" t="s">
+      <c r="D191" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B195" s="20" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D192" s="0" t="s">
+      <c r="D195" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="193" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="B193" s="20" t="s">
+    <row r="200" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B200" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C193" s="20"/>
-      <c r="D193" s="20" t="s">
+    </row>
+    <row r="203" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B203" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="21" t="s">
+    </row>
+    <row r="206" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B206" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="I193" s="20"/>
-      <c r="J193" s="20"/>
-      <c r="K193" s="20"/>
-      <c r="L193" s="20"/>
-      <c r="M193" s="20"/>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="19" t="s">
+    </row>
+    <row r="209" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B209" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="I196" s="18"/>
-      <c r="J196" s="18"/>
-      <c r="K196" s="18"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="18"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D197" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="201" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D201" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="206" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="209" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B209" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="212" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="B212" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="215" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B215" s="24" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="204">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -602,9 +602,6 @@
   </si>
   <si>
     <t xml:space="preserve">red parts need to be removed for further assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> demo module</t>
   </si>
   <si>
     <t xml:space="preserve">demo module with mouse buttons</t>
@@ -641,8 +638,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -881,7 +879,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,7 +891,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,9 +982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>363960</xdr:colOff>
+      <xdr:colOff>363600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -999,8 +997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8588520" y="2709360"/>
-          <a:ext cx="967680" cy="592560"/>
+          <a:off x="8601120" y="2709360"/>
+          <a:ext cx="968760" cy="592200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,9 +1019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1036,23 +1034,23 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7449480" y="3251160"/>
-          <a:ext cx="990720" cy="592560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295560</xdr:colOff>
+          <a:off x="7459560" y="3251160"/>
+          <a:ext cx="992880" cy="592200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
@@ -1060,7 +1058,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>436680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1073,8 +1071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8777520" y="3592800"/>
-          <a:ext cx="726120" cy="976680"/>
+          <a:off x="8791200" y="3592440"/>
+          <a:ext cx="725760" cy="977760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,9 +1093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
+      <xdr:colOff>152280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1110,23 +1108,23 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7542000" y="4173840"/>
-          <a:ext cx="967320" cy="859320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+          <a:off x="7553160" y="4173840"/>
+          <a:ext cx="968400" cy="858960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>282600</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
@@ -1134,7 +1132,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>532080</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1147,8 +1145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="8638920" y="4694400"/>
-          <a:ext cx="249840" cy="945000"/>
+          <a:off x="8651520" y="4694040"/>
+          <a:ext cx="249480" cy="944640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,9 +1167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>613800</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1184,8 +1182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="7961400" y="5120280"/>
-          <a:ext cx="173520" cy="945000"/>
+          <a:off x="7972200" y="5120640"/>
+          <a:ext cx="173160" cy="944640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,9 +1204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1221,8 +1219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8278200" y="5889960"/>
-          <a:ext cx="990360" cy="535320"/>
+          <a:off x="8289360" y="5889960"/>
+          <a:ext cx="992880" cy="534960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,9 +1241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>131760</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1258,8 +1256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7521120" y="6378120"/>
-          <a:ext cx="967320" cy="497520"/>
+          <a:off x="7532280" y="6378120"/>
+          <a:ext cx="968400" cy="497160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,9 +1278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>237600</xdr:colOff>
+      <xdr:colOff>237240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1295,8 +1293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8646840" y="6922080"/>
-          <a:ext cx="783000" cy="581040"/>
+          <a:off x="8659440" y="6922080"/>
+          <a:ext cx="784080" cy="580680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>658440</xdr:colOff>
+      <xdr:colOff>658080</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1332,8 +1330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7574040" y="7496640"/>
-          <a:ext cx="605520" cy="460080"/>
+          <a:off x="7585200" y="7496640"/>
+          <a:ext cx="605160" cy="459720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,9 +1352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>195840</xdr:colOff>
+      <xdr:colOff>195480</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1369,8 +1367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8728560" y="7939440"/>
-          <a:ext cx="659520" cy="616680"/>
+          <a:off x="8741160" y="7939440"/>
+          <a:ext cx="660600" cy="616320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,9 +1389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1406,8 +1404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7535520" y="9519120"/>
-          <a:ext cx="967320" cy="640080"/>
+          <a:off x="7546680" y="9519120"/>
+          <a:ext cx="968400" cy="639720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1428,9 +1426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230400</xdr:colOff>
+      <xdr:colOff>230040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,8 +1441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8445960" y="9886320"/>
-          <a:ext cx="976680" cy="763920"/>
+          <a:off x="8458560" y="9886320"/>
+          <a:ext cx="977760" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,9 +1463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1480,8 +1478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7492320" y="10543680"/>
-          <a:ext cx="981720" cy="687960"/>
+          <a:off x="7502400" y="10543680"/>
+          <a:ext cx="983880" cy="687600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1502,9 +1500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230760</xdr:colOff>
+      <xdr:colOff>230400</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1517,8 +1515,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8446320" y="10917360"/>
-          <a:ext cx="976680" cy="763920"/>
+          <a:off x="8458920" y="10917360"/>
+          <a:ext cx="977760" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1539,9 +1537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>110160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1554,8 +1552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7485480" y="11630520"/>
-          <a:ext cx="981720" cy="649800"/>
+          <a:off x="7495560" y="11630520"/>
+          <a:ext cx="983880" cy="649440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,9 +1574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230400</xdr:colOff>
+      <xdr:colOff>230040</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1591,8 +1589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8454600" y="12015720"/>
-          <a:ext cx="968040" cy="621360"/>
+          <a:off x="8467200" y="12015720"/>
+          <a:ext cx="969120" cy="621000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1613,9 +1611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1628,8 +1626,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7455960" y="12742200"/>
-          <a:ext cx="990720" cy="392760"/>
+          <a:off x="7466040" y="12742200"/>
+          <a:ext cx="992880" cy="392400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1650,9 +1648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>720000</xdr:colOff>
+      <xdr:colOff>719640</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1665,8 +1663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8531640" y="12918240"/>
-          <a:ext cx="545040" cy="945000"/>
+          <a:off x="8544240" y="12918240"/>
+          <a:ext cx="544680" cy="944640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1687,9 +1685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>775440</xdr:colOff>
+      <xdr:colOff>775080</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1702,8 +1700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7745400" y="13630320"/>
-          <a:ext cx="551160" cy="494640"/>
+          <a:off x="7756560" y="13630320"/>
+          <a:ext cx="550800" cy="494280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1724,9 +1722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1739,8 +1737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658720" y="14146920"/>
-          <a:ext cx="616320" cy="611640"/>
+          <a:off x="8671320" y="14146920"/>
+          <a:ext cx="617400" cy="611280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,9 +1759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
+      <xdr:colOff>12240</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1776,8 +1774,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7759800" y="14655240"/>
-          <a:ext cx="609480" cy="605160"/>
+          <a:off x="7770960" y="14655240"/>
+          <a:ext cx="610560" cy="604800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1798,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>738000</xdr:colOff>
+      <xdr:colOff>737640</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1813,8 +1811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8664120" y="15021360"/>
-          <a:ext cx="430560" cy="945000"/>
+          <a:off x="8676720" y="15021360"/>
+          <a:ext cx="430200" cy="944640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1835,9 +1833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>757800</xdr:colOff>
+      <xdr:colOff>757440</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1850,8 +1848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696800" y="15693120"/>
-          <a:ext cx="582120" cy="553680"/>
+          <a:off x="7707960" y="15693120"/>
+          <a:ext cx="581760" cy="553320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,9 +1870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>798480</xdr:colOff>
+      <xdr:colOff>798120</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1887,8 +1885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8560800" y="16215120"/>
-          <a:ext cx="594360" cy="507960"/>
+          <a:off x="8573400" y="16215120"/>
+          <a:ext cx="594000" cy="507600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,9 +1907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>264600</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1924,8 +1922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8489520" y="17118360"/>
-          <a:ext cx="967680" cy="792720"/>
+          <a:off x="8502120" y="17118360"/>
+          <a:ext cx="968760" cy="792360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1946,9 +1944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>735120</xdr:colOff>
+      <xdr:colOff>734760</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1961,8 +1959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7647840" y="17776080"/>
-          <a:ext cx="608400" cy="393120"/>
+          <a:off x="7659000" y="17776080"/>
+          <a:ext cx="608040" cy="392760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,9 +1981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1998,8 +1996,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8440920" y="18297720"/>
-          <a:ext cx="518400" cy="508320"/>
+          <a:off x="8453520" y="18297720"/>
+          <a:ext cx="518040" cy="507960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2020,9 +2018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2035,8 +2033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7470000" y="27703440"/>
-          <a:ext cx="990720" cy="678240"/>
+          <a:off x="7480080" y="27703440"/>
+          <a:ext cx="992880" cy="677880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2057,9 +2055,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104400</xdr:colOff>
+      <xdr:colOff>104040</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2072,8 +2070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7470360" y="28693080"/>
-          <a:ext cx="990720" cy="516600"/>
+          <a:off x="7480440" y="28693080"/>
+          <a:ext cx="992880" cy="516240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2094,9 +2092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2109,8 +2107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8701200" y="29331360"/>
-          <a:ext cx="538920" cy="554400"/>
+          <a:off x="8713800" y="29331360"/>
+          <a:ext cx="540000" cy="554040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2131,9 +2129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>819360</xdr:colOff>
+      <xdr:colOff>819000</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2146,8 +2144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7709400" y="30714480"/>
-          <a:ext cx="631080" cy="576000"/>
+          <a:off x="7720560" y="30714480"/>
+          <a:ext cx="630720" cy="575640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2168,9 +2166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>385920</xdr:colOff>
+      <xdr:colOff>385560</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2183,8 +2181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8610480" y="31311000"/>
-          <a:ext cx="967680" cy="459360"/>
+          <a:off x="8623080" y="31311000"/>
+          <a:ext cx="968760" cy="459000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2205,9 +2203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2220,8 +2218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7449120" y="32771520"/>
-          <a:ext cx="990720" cy="763920"/>
+          <a:off x="7459200" y="32771520"/>
+          <a:ext cx="992880" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2242,9 +2240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2257,8 +2255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7367040" y="2145240"/>
-          <a:ext cx="1177200" cy="860040"/>
+          <a:off x="7377120" y="2145240"/>
+          <a:ext cx="1179360" cy="859680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2279,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>573480</xdr:colOff>
+      <xdr:colOff>573120</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2294,8 +2292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7760160" y="16785360"/>
-          <a:ext cx="334440" cy="450720"/>
+          <a:off x="7771320" y="16785360"/>
+          <a:ext cx="334080" cy="450360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2316,9 +2314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>488880</xdr:colOff>
+      <xdr:colOff>488520</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2331,8 +2329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8525520" y="28177920"/>
-          <a:ext cx="1155600" cy="784080"/>
+          <a:off x="8538120" y="28177920"/>
+          <a:ext cx="1156680" cy="783720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2353,9 +2351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
+      <xdr:colOff>136080</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2368,8 +2366,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8631000" y="30349080"/>
-          <a:ext cx="697680" cy="659880"/>
+          <a:off x="8643600" y="30349080"/>
+          <a:ext cx="698760" cy="659520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2390,9 +2388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:colOff>200160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2405,8 +2403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7312320" y="8285400"/>
-          <a:ext cx="1244880" cy="859320"/>
+          <a:off x="7322400" y="8285400"/>
+          <a:ext cx="1247040" cy="858960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2427,9 +2425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>390240</xdr:colOff>
+      <xdr:colOff>389880</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2442,8 +2440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8616240" y="8922600"/>
-          <a:ext cx="966240" cy="733680"/>
+          <a:off x="8628840" y="8922600"/>
+          <a:ext cx="967320" cy="733320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2464,9 +2462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2479,8 +2477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7783560" y="18814680"/>
-          <a:ext cx="269280" cy="391680"/>
+          <a:off x="7794720" y="18814680"/>
+          <a:ext cx="268920" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2501,9 +2499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>721080</xdr:colOff>
+      <xdr:colOff>720720</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2516,8 +2514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8693640" y="19337040"/>
-          <a:ext cx="384120" cy="346320"/>
+          <a:off x="8706240" y="19337040"/>
+          <a:ext cx="383760" cy="345960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2538,9 +2536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>696600</xdr:colOff>
+      <xdr:colOff>696240</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2553,8 +2551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8710200" y="20395800"/>
-          <a:ext cx="343080" cy="309600"/>
+          <a:off x="8722800" y="20395800"/>
+          <a:ext cx="342720" cy="309240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2575,9 +2573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>205560</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2590,8 +2588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7171200" y="19506240"/>
-          <a:ext cx="1391400" cy="948240"/>
+          <a:off x="7181280" y="19506240"/>
+          <a:ext cx="1393560" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2612,9 +2610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>444240</xdr:colOff>
+      <xdr:colOff>443880</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2627,8 +2625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7304760" y="26440920"/>
-          <a:ext cx="1496160" cy="948240"/>
+          <a:off x="7314840" y="26440920"/>
+          <a:ext cx="1498320" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2649,9 +2647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2664,8 +2662,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8982720" y="27045360"/>
-          <a:ext cx="1200960" cy="948240"/>
+          <a:off x="8995320" y="27045360"/>
+          <a:ext cx="1203480" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2686,9 +2684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>691920</xdr:colOff>
+      <xdr:colOff>691560</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2701,8 +2699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7817040" y="29174760"/>
-          <a:ext cx="396000" cy="1424520"/>
+          <a:off x="7828200" y="29174760"/>
+          <a:ext cx="395640" cy="1424160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2723,9 +2721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>45000</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2738,8 +2736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8617680" y="32173920"/>
-          <a:ext cx="1455480" cy="948600"/>
+          <a:off x="8630280" y="32173920"/>
+          <a:ext cx="1458000" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2760,9 +2758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>675000</xdr:colOff>
+      <xdr:colOff>674640</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2775,8 +2773,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8312040" y="33267240"/>
-          <a:ext cx="2390760" cy="1513800"/>
+          <a:off x="8323200" y="33267240"/>
+          <a:ext cx="2394720" cy="1513440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2791,7 +2789,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>197</xdr:row>
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
@@ -2799,7 +2797,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>720720</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2812,8 +2810,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7818120" y="34438320"/>
-          <a:ext cx="1259280" cy="689760"/>
+          <a:off x="7829640" y="34438320"/>
+          <a:ext cx="1260360" cy="689400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2834,9 +2832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>508680</xdr:colOff>
+      <xdr:colOff>508320</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2849,8 +2847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9102960" y="34872840"/>
-          <a:ext cx="1433520" cy="814680"/>
+          <a:off x="9115560" y="34872840"/>
+          <a:ext cx="1436040" cy="814320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2871,9 +2869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>637200</xdr:colOff>
+      <xdr:colOff>636840</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2886,8 +2884,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8445240" y="22360320"/>
-          <a:ext cx="548640" cy="519840"/>
+          <a:off x="8457840" y="22360320"/>
+          <a:ext cx="548280" cy="519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2908,9 +2906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>615600</xdr:colOff>
+      <xdr:colOff>615240</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2923,8 +2921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7474680" y="22744800"/>
-          <a:ext cx="662040" cy="603360"/>
+          <a:off x="7484760" y="22744800"/>
+          <a:ext cx="662760" cy="603000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2945,9 +2943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>686520</xdr:colOff>
+      <xdr:colOff>686160</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2960,8 +2958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8455320" y="23345640"/>
-          <a:ext cx="587880" cy="416160"/>
+          <a:off x="8467920" y="23345640"/>
+          <a:ext cx="587520" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2982,9 +2980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>483480</xdr:colOff>
+      <xdr:colOff>483120</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2997,8 +2995,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7541640" y="23776920"/>
-          <a:ext cx="462960" cy="532440"/>
+          <a:off x="7552800" y="23776920"/>
+          <a:ext cx="462600" cy="532080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3019,9 +3017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>770040</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3034,8 +3032,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8377920" y="24200640"/>
-          <a:ext cx="749160" cy="618480"/>
+          <a:off x="8390520" y="24200640"/>
+          <a:ext cx="748800" cy="618120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3056,9 +3054,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>406800</xdr:colOff>
+      <xdr:colOff>406440</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3071,8 +3069,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7592400" y="20842920"/>
-          <a:ext cx="335520" cy="659160"/>
+          <a:off x="7603560" y="20842920"/>
+          <a:ext cx="335160" cy="658800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3093,9 +3091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
+      <xdr:colOff>802440</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3108,8 +3106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7467840" y="24739560"/>
-          <a:ext cx="856080" cy="824400"/>
+          <a:off x="7477920" y="24739560"/>
+          <a:ext cx="856800" cy="824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3130,9 +3128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>295560</xdr:colOff>
+      <xdr:colOff>295200</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3145,8 +3143,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7761240" y="35461440"/>
-          <a:ext cx="1726560" cy="513360"/>
+          <a:off x="7772400" y="35461440"/>
+          <a:ext cx="1729080" cy="513000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3167,9 +3165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3182,8 +3180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9168840" y="36031680"/>
-          <a:ext cx="1808640" cy="1371240"/>
+          <a:off x="9181440" y="36031680"/>
+          <a:ext cx="1811880" cy="1370880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3204,9 +3202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3219,8 +3217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7327440" y="31753080"/>
-          <a:ext cx="1289880" cy="686160"/>
+          <a:off x="7337520" y="31753080"/>
+          <a:ext cx="1292040" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3241,9 +3239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
+      <xdr:colOff>37440</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3256,8 +3254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8356680" y="21257280"/>
-          <a:ext cx="873360" cy="725760"/>
+          <a:off x="8369280" y="21257280"/>
+          <a:ext cx="874440" cy="725400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3278,9 +3276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>648720</xdr:colOff>
+      <xdr:colOff>648360</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3293,8 +3291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7605720" y="21745080"/>
-          <a:ext cx="564120" cy="680040"/>
+          <a:off x="7616880" y="21745080"/>
+          <a:ext cx="563760" cy="679680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3316,11 +3314,11 @@
   </sheetPr>
   <dimension ref="A3:O209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -4698,7 +4696,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>156</v>
@@ -4726,7 +4724,8 @@
     </row>
     <row r="157" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="20" t="n">
-        <v>5</v>
+        <f aca="false">A154+1</f>
+        <v>2</v>
       </c>
       <c r="B157" s="20" t="s">
         <v>160</v>
@@ -4754,7 +4753,8 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="18" t="n">
-        <v>6</v>
+        <f aca="false">A157+1</f>
+        <v>3</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>163</v>
@@ -4781,7 +4781,8 @@
     </row>
     <row r="163" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="20" t="n">
-        <v>7</v>
+        <f aca="false">A160+1</f>
+        <v>4</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>167</v>
@@ -4809,7 +4810,8 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="18" t="n">
-        <v>8</v>
+        <f aca="false">A163+1</f>
+        <v>5</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>171</v>
@@ -4832,7 +4834,8 @@
     </row>
     <row r="169" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="20" t="n">
-        <v>9</v>
+        <f aca="false">A166+1</f>
+        <v>6</v>
       </c>
       <c r="B169" s="20" t="s">
         <v>174</v>
@@ -4855,7 +4858,8 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="18" t="n">
-        <v>10</v>
+        <f aca="false">A169+1</f>
+        <v>7</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>177</v>
@@ -4878,7 +4882,8 @@
     </row>
     <row r="175" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="20" t="n">
-        <v>11</v>
+        <f aca="false">A172+1</f>
+        <v>8</v>
       </c>
       <c r="B175" s="20" t="s">
         <v>180</v>
@@ -4900,7 +4905,8 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="n">
-        <v>12</v>
+        <f aca="false">A175+1</f>
+        <v>9</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>183</v>
@@ -4923,7 +4929,8 @@
     </row>
     <row r="181" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="20" t="n">
-        <v>13</v>
+        <f aca="false">A178+1</f>
+        <v>10</v>
       </c>
       <c r="B181" s="20" t="s">
         <v>186</v>
@@ -4946,7 +4953,8 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="n">
-        <v>14</v>
+        <f aca="false">A181+1</f>
+        <v>11</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>189</v>
@@ -4978,21 +4986,17 @@
       </c>
     </row>
     <row r="187" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="B187" s="20" t="s">
-        <v>194</v>
-      </c>
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
       <c r="H187" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I187" s="20"/>
       <c r="J187" s="20"/>
@@ -5002,7 +5006,8 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="18" t="n">
-        <v>16</v>
+        <f aca="false">A184+1</f>
+        <v>12</v>
       </c>
       <c r="B190" s="18" t="s">
         <v>163</v>
@@ -5015,7 +5020,7 @@
       <c r="F190" s="18"/>
       <c r="G190" s="18"/>
       <c r="H190" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I190" s="18"/>
       <c r="J190" s="18"/>
@@ -5025,50 +5030,55 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="20" t="n">
-        <v>17</v>
+        <f aca="false">A190+1</f>
+        <v>13</v>
       </c>
       <c r="B195" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="D195" s="20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="200" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="20" t="n">
-        <v>18</v>
+        <f aca="false">A195+1</f>
+        <v>14</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="n">
-        <v>19</v>
+        <f aca="false">A200+1</f>
+        <v>15</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="23" t="n">
-        <v>20</v>
+        <f aca="false">A203+1</f>
+        <v>16</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="23" t="n">
-        <v>21</v>
+        <f aca="false">A206+1</f>
+        <v>17</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -580,15 +580,6 @@
     <t xml:space="preserve">plug_back_conn</t>
   </si>
   <si>
-    <t xml:space="preserve">backlit keyboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyboard pyramids with fasteners and backlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top_keyboard_led</t>
-  </si>
-  <si>
     <t xml:space="preserve">sensor module</t>
   </si>
   <si>
@@ -602,12 +593,6 @@
   </si>
   <si>
     <t xml:space="preserve">red parts need to be removed for further assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demo module with mouse buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyboard_module</t>
   </si>
   <si>
     <t xml:space="preserve">battery_wall_right</t>
@@ -982,9 +967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>363600</xdr:colOff>
+      <xdr:colOff>363240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -997,8 +982,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601120" y="2709360"/>
-          <a:ext cx="968760" cy="592200"/>
+          <a:off x="8613720" y="2709360"/>
+          <a:ext cx="969840" cy="591840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,9 +1004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1034,25 +1019,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7459560" y="3251160"/>
-          <a:ext cx="992880" cy="592200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
+          <a:off x="7470000" y="3251160"/>
+          <a:ext cx="994680" cy="591840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1071,8 +1056,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8791200" y="3592440"/>
-          <a:ext cx="725760" cy="977760"/>
+          <a:off x="8804880" y="3591720"/>
+          <a:ext cx="725400" cy="978840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1093,9 +1078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>151920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1108,8 +1093,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553160" y="4173840"/>
-          <a:ext cx="968400" cy="858960"/>
+          <a:off x="7564680" y="4173840"/>
+          <a:ext cx="969120" cy="858600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,9 +1115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>531720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1145,8 +1130,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="8651520" y="4694040"/>
-          <a:ext cx="249480" cy="944640"/>
+          <a:off x="8664480" y="4694040"/>
+          <a:ext cx="249120" cy="944280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1163,11 +1148,11 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>440280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>613440</xdr:colOff>
+      <xdr:colOff>613080</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -1182,8 +1167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="7972200" y="5120640"/>
-          <a:ext cx="173160" cy="944640"/>
+          <a:off x="7984080" y="5120640"/>
+          <a:ext cx="172800" cy="944280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,9 +1189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1219,8 +1204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8289360" y="5889960"/>
-          <a:ext cx="992880" cy="534960"/>
+          <a:off x="8300880" y="5889960"/>
+          <a:ext cx="995040" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1241,9 +1226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>131040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1256,8 +1241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7532280" y="6378120"/>
-          <a:ext cx="968400" cy="497160"/>
+          <a:off x="7543800" y="6378120"/>
+          <a:ext cx="969120" cy="496800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,9 +1263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>237240</xdr:colOff>
+      <xdr:colOff>236880</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,8 +1278,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8659440" y="6922080"/>
-          <a:ext cx="784080" cy="580680"/>
+          <a:off x="8672040" y="6922080"/>
+          <a:ext cx="785160" cy="580320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,9 +1300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>658080</xdr:colOff>
+      <xdr:colOff>657720</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1330,8 +1315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7585200" y="7496640"/>
-          <a:ext cx="605160" cy="459720"/>
+          <a:off x="7596720" y="7496640"/>
+          <a:ext cx="604800" cy="459360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,9 +1337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>195480</xdr:colOff>
+      <xdr:colOff>195120</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1367,8 +1352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8741160" y="7939440"/>
-          <a:ext cx="660600" cy="616320"/>
+          <a:off x="8753760" y="7939440"/>
+          <a:ext cx="661680" cy="615960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,9 +1374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>145440</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1404,8 +1389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7546680" y="9519120"/>
-          <a:ext cx="968400" cy="639720"/>
+          <a:off x="7558200" y="9519120"/>
+          <a:ext cx="969120" cy="639360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1426,9 +1411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230040</xdr:colOff>
+      <xdr:colOff>229680</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1441,8 +1426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8458560" y="9886320"/>
-          <a:ext cx="977760" cy="763560"/>
+          <a:off x="8471160" y="9886320"/>
+          <a:ext cx="978840" cy="763200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1463,9 +1448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1478,8 +1463,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7502400" y="10543680"/>
-          <a:ext cx="983880" cy="687600"/>
+          <a:off x="7512840" y="10543680"/>
+          <a:ext cx="985680" cy="687240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1500,9 +1485,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230400</xdr:colOff>
+      <xdr:colOff>230040</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1515,8 +1500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8458920" y="10917360"/>
-          <a:ext cx="977760" cy="763560"/>
+          <a:off x="8471520" y="10917360"/>
+          <a:ext cx="978840" cy="763200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,9 +1522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1552,8 +1537,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7495560" y="11630520"/>
-          <a:ext cx="983880" cy="649440"/>
+          <a:off x="7506000" y="11630520"/>
+          <a:ext cx="985680" cy="649080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,9 +1559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230040</xdr:colOff>
+      <xdr:colOff>229680</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1589,8 +1574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467200" y="12015720"/>
-          <a:ext cx="969120" cy="621000"/>
+          <a:off x="8479800" y="12015720"/>
+          <a:ext cx="970200" cy="620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1611,9 +1596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1626,8 +1611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7466040" y="12742200"/>
-          <a:ext cx="992880" cy="392400"/>
+          <a:off x="7476480" y="12742200"/>
+          <a:ext cx="994680" cy="392040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,9 +1633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>719640</xdr:colOff>
+      <xdr:colOff>719280</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1663,8 +1648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8544240" y="12918240"/>
-          <a:ext cx="544680" cy="944640"/>
+          <a:off x="8556840" y="12918240"/>
+          <a:ext cx="544320" cy="944280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1685,9 +1670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>775080</xdr:colOff>
+      <xdr:colOff>774720</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1700,8 +1685,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7756560" y="13630320"/>
-          <a:ext cx="550800" cy="494280"/>
+          <a:off x="7768080" y="13630320"/>
+          <a:ext cx="550440" cy="493920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,9 +1707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>82080</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1737,8 +1722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8671320" y="14146920"/>
-          <a:ext cx="617400" cy="611280"/>
+          <a:off x="8683920" y="14146920"/>
+          <a:ext cx="618480" cy="610920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,9 +1744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>11880</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1774,8 +1759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7770960" y="14655240"/>
-          <a:ext cx="610560" cy="604800"/>
+          <a:off x="7782480" y="14655240"/>
+          <a:ext cx="611280" cy="604440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,9 +1781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>737640</xdr:colOff>
+      <xdr:colOff>737280</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1811,8 +1796,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8676720" y="15021360"/>
-          <a:ext cx="430200" cy="944640"/>
+          <a:off x="8689320" y="15021360"/>
+          <a:ext cx="429840" cy="944280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1833,9 +1818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>757440</xdr:colOff>
+      <xdr:colOff>757080</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1848,8 +1833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7707960" y="15693120"/>
-          <a:ext cx="581760" cy="553320"/>
+          <a:off x="7719480" y="15693120"/>
+          <a:ext cx="581400" cy="552960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1870,9 +1855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>798120</xdr:colOff>
+      <xdr:colOff>797760</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1885,8 +1870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8573400" y="16215120"/>
-          <a:ext cx="594000" cy="507600"/>
+          <a:off x="8586000" y="16215120"/>
+          <a:ext cx="593640" cy="507240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1907,9 +1892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1922,8 +1907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8502120" y="17118360"/>
-          <a:ext cx="968760" cy="792360"/>
+          <a:off x="8514720" y="17118360"/>
+          <a:ext cx="969840" cy="792000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,9 +1929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>734760</xdr:colOff>
+      <xdr:colOff>734400</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1959,8 +1944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7659000" y="17776080"/>
-          <a:ext cx="608040" cy="392760"/>
+          <a:off x="7670520" y="17776080"/>
+          <a:ext cx="607680" cy="392400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,9 +1966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
+      <xdr:colOff>601920</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1996,8 +1981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8453520" y="18297720"/>
-          <a:ext cx="518040" cy="507960"/>
+          <a:off x="8466120" y="18297720"/>
+          <a:ext cx="517680" cy="507600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,9 +2003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2033,8 +2018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7480080" y="27703440"/>
-          <a:ext cx="992880" cy="677880"/>
+          <a:off x="7490520" y="27703440"/>
+          <a:ext cx="994680" cy="677520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2055,9 +2040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2070,8 +2055,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7480440" y="28693080"/>
-          <a:ext cx="992880" cy="516240"/>
+          <a:off x="7490880" y="28693080"/>
+          <a:ext cx="994680" cy="515880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2092,9 +2077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2107,8 +2092,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8713800" y="29331360"/>
-          <a:ext cx="540000" cy="554040"/>
+          <a:off x="8726400" y="29331360"/>
+          <a:ext cx="541080" cy="553680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,9 +2114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2144,45 +2129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7720560" y="30714480"/>
-          <a:ext cx="630720" cy="575640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 53" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8623080" y="31311000"/>
-          <a:ext cx="968760" cy="459000"/>
+          <a:off x="7732080" y="30714480"/>
+          <a:ext cx="630360" cy="575280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2198,28 +2146,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>763920</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>187</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 57" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7459200" y="32771520"/>
-          <a:ext cx="992880" cy="763560"/>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 57" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7469640" y="32065560"/>
+          <a:ext cx="994680" cy="763200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2240,23 +2188,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>187200</xdr:colOff>
+      <xdr:colOff>186840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7377120" y="2145240"/>
-          <a:ext cx="1179360" cy="859680"/>
+      <xdr:rowOff>18000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7387560" y="2145240"/>
+          <a:ext cx="1181160" cy="859320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2277,23 +2225,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>573120</xdr:colOff>
+      <xdr:colOff>572760</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 45" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7771320" y="16785360"/>
-          <a:ext cx="334080" cy="450360"/>
+      <xdr:rowOff>136800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7782840" y="16785360"/>
+          <a:ext cx="333720" cy="450000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,23 +2262,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>488520</xdr:colOff>
+      <xdr:colOff>488160</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 24" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8538120" y="28177920"/>
-          <a:ext cx="1156680" cy="783720"/>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8550720" y="28177920"/>
+          <a:ext cx="1157760" cy="783360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2351,23 +2299,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 52" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8643600" y="30349080"/>
-          <a:ext cx="698760" cy="659520"/>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 52" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8656200" y="30349080"/>
+          <a:ext cx="699840" cy="659160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2388,23 +2336,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200160</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7322400" y="8285400"/>
-          <a:ext cx="1247040" cy="858960"/>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7332840" y="8285400"/>
+          <a:ext cx="1248840" cy="858600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2425,23 +2373,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>389880</xdr:colOff>
+      <xdr:colOff>389520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8628840" y="8922600"/>
-          <a:ext cx="967320" cy="733320"/>
+      <xdr:rowOff>128520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641440" y="8922600"/>
+          <a:ext cx="968400" cy="732960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2462,23 +2410,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7794720" y="18814680"/>
-          <a:ext cx="268920" cy="391320"/>
+      <xdr:rowOff>44640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7806240" y="18814680"/>
+          <a:ext cx="268560" cy="390960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2499,23 +2447,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>720720</xdr:colOff>
+      <xdr:colOff>720360</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8706240" y="19337040"/>
-          <a:ext cx="383760" cy="345960"/>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8718840" y="19337040"/>
+          <a:ext cx="383400" cy="345600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2536,23 +2484,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>696240</xdr:colOff>
+      <xdr:colOff>695880</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8722800" y="20395800"/>
-          <a:ext cx="342720" cy="309240"/>
+      <xdr:rowOff>187200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8735400" y="20395800"/>
+          <a:ext cx="342360" cy="308880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2573,23 +2521,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>205560</xdr:colOff>
+      <xdr:colOff>205200</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7181280" y="19506240"/>
-          <a:ext cx="1393560" cy="947880"/>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191720" y="19506240"/>
+          <a:ext cx="1395360" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2610,23 +2558,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>443880</xdr:colOff>
+      <xdr:colOff>443520</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7314840" y="26440920"/>
-          <a:ext cx="1498320" cy="947880"/>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7325280" y="26440920"/>
+          <a:ext cx="1500120" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2647,23 +2595,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8995320" y="27045360"/>
-          <a:ext cx="1203480" cy="947880"/>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9007920" y="27045360"/>
+          <a:ext cx="1205640" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,60 +2632,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>691560</xdr:colOff>
+      <xdr:colOff>691200</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 21" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7828200" y="29174760"/>
-          <a:ext cx="395640" cy="1424160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>261000</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 28" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8630280" y="32173920"/>
-          <a:ext cx="1458000" cy="948240"/>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839720" y="29174760"/>
+          <a:ext cx="395280" cy="1423800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2753,18 +2664,92 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>790920</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>14040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>674640</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 29" descr=""/>
+      <xdr:colOff>674280</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>64080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334720" y="32235840"/>
+          <a:ext cx="2397960" cy="1513080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297720</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>720720</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Image 39" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7841520" y="33407280"/>
+          <a:ext cx="1261080" cy="689040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>746280</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>507960</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Image 49" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2773,82 +2758,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8323200" y="33267240"/>
-          <a:ext cx="2394720" cy="1513440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297360</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>720720</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 39" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7829640" y="34438320"/>
-          <a:ext cx="1260360" cy="689400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>746280</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>508320</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 49" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9115560" y="34872840"/>
-          <a:ext cx="1436040" cy="814320"/>
+          <a:off x="9128160" y="33841440"/>
+          <a:ext cx="1438200" cy="813960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2869,23 +2780,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
+      <xdr:colOff>636480</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 51" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8457840" y="22360320"/>
-          <a:ext cx="548280" cy="519480"/>
+      <xdr:rowOff>30240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 51" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8470440" y="22360320"/>
+          <a:ext cx="547920" cy="519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2906,23 +2817,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>615240</xdr:colOff>
+      <xdr:colOff>614880</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 55" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7484760" y="22744800"/>
-          <a:ext cx="662760" cy="603000"/>
+      <xdr:rowOff>10440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Image 55" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7495200" y="22744800"/>
+          <a:ext cx="663480" cy="602640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2943,23 +2854,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>686160</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 56" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8467920" y="23345640"/>
-          <a:ext cx="587520" cy="415800"/>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Image 56" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8480520" y="23345640"/>
+          <a:ext cx="587160" cy="415440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2980,23 +2891,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Image 58" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7552800" y="23776920"/>
-          <a:ext cx="462600" cy="532080"/>
+      <xdr:rowOff>159120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 58" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7564320" y="23776920"/>
+          <a:ext cx="462240" cy="531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3017,23 +2928,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>770040</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 59" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8390520" y="24200640"/>
-          <a:ext cx="748800" cy="618120"/>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 59" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8403120" y="24200640"/>
+          <a:ext cx="748440" cy="617760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3054,23 +2965,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>406080</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Image 60" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7603560" y="20842920"/>
-          <a:ext cx="335160" cy="658800"/>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Image 60" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7615080" y="20842920"/>
+          <a:ext cx="334800" cy="658440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3091,23 +3002,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>802440</xdr:colOff>
+      <xdr:colOff>802080</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Image 62" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7477920" y="24739560"/>
-          <a:ext cx="856800" cy="824040"/>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Image 62" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7488360" y="24739560"/>
+          <a:ext cx="857520" cy="823680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3123,28 +3034,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>240120</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>295200</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:colOff>294840</xdr:colOff>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Image 22" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7772400" y="35461440"/>
-          <a:ext cx="1729080" cy="513000"/>
+        <xdr:cNvPr id="56" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783920" y="34430400"/>
+          <a:ext cx="1731240" cy="512640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3160,28 +3071,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>812160</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Image 61" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9181440" y="36031680"/>
-          <a:ext cx="1811880" cy="1370880"/>
+      <xdr:colOff>113040</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Image 61" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9194040" y="35000280"/>
+          <a:ext cx="1815480" cy="1370520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3197,28 +3108,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Image 63" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7337520" y="31753080"/>
-          <a:ext cx="1292040" cy="685800"/>
+      <xdr:colOff>259920</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Image 63" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7347960" y="31399920"/>
+          <a:ext cx="1293840" cy="685440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3239,23 +3150,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Image 64" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId62"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8369280" y="21257280"/>
-          <a:ext cx="874440" cy="725400"/>
+      <xdr:rowOff>108360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Image 64" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8381880" y="21257280"/>
+          <a:ext cx="875520" cy="725040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3276,23 +3187,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>648360</xdr:colOff>
+      <xdr:colOff>648000</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Image 65" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId63"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7616880" y="21745080"/>
-          <a:ext cx="563760" cy="679680"/>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Image 65" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7628400" y="21745080"/>
+          <a:ext cx="563400" cy="679320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3312,13 +3223,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O209"/>
+  <dimension ref="A3:O203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B186" activeCellId="0" sqref="B186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -4927,29 +4838,39 @@
       <c r="L178" s="18"/>
       <c r="M178" s="18"/>
     </row>
-    <row r="181" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="20" t="n">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="18" t="n">
         <f aca="false">A178+1</f>
         <v>10</v>
       </c>
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C181" s="20"/>
-      <c r="D181" s="20" t="s">
+      <c r="C181" s="18"/>
+      <c r="D181" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E181" s="20"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="20"/>
-      <c r="H181" s="21" t="s">
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I181" s="20"/>
-      <c r="J181" s="20"/>
-      <c r="K181" s="20"/>
-      <c r="L181" s="20"/>
-      <c r="M181" s="20"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D182" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D183" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="n">
@@ -4957,11 +4878,11 @@
         <v>11</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="18" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="18"/>
@@ -4980,105 +4901,52 @@
         <v>192</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D186" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="20"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="I187" s="20"/>
-      <c r="J187" s="20"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="20"/>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="18" t="n">
+    <row r="189" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="20" t="n">
         <f aca="false">A184+1</f>
         <v>12</v>
       </c>
-      <c r="B190" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="19" t="s">
+      <c r="B189" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D189" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="20" t="n">
+        <f aca="false">A189+1</f>
+        <v>13</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="21" t="n">
+        <f aca="false">A194+1</f>
+        <v>14</v>
+      </c>
+      <c r="B197" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="I190" s="18"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="18"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D191" s="9" t="s">
+    </row>
+    <row r="200" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="23" t="n">
+        <f aca="false">A197+1</f>
+        <v>15</v>
+      </c>
+      <c r="B200" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="195" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="20" t="n">
-        <f aca="false">A190+1</f>
-        <v>13</v>
-      </c>
-      <c r="B195" s="20" t="s">
+    <row r="203" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="23" t="n">
+        <f aca="false">A200+1</f>
+        <v>16</v>
+      </c>
+      <c r="B203" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="D195" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="20" t="n">
-        <f aca="false">A195+1</f>
-        <v>14</v>
-      </c>
-      <c r="B200" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="21" t="n">
-        <f aca="false">A200+1</f>
-        <v>15</v>
-      </c>
-      <c r="B203" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="206" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="23" t="n">
-        <f aca="false">A203+1</f>
-        <v>16</v>
-      </c>
-      <c r="B206" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="209" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="23" t="n">
-        <f aca="false">A206+1</f>
-        <v>17</v>
-      </c>
-      <c r="B209" s="24" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="211">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -340,6 +340,9 @@
     <t xml:space="preserve">batr_conn_min</t>
   </si>
   <si>
+    <t xml:space="preserve">contact to battery negative</t>
+  </si>
+  <si>
     <t xml:space="preserve">battery contact plus</t>
   </si>
   <si>
@@ -349,6 +352,9 @@
     <t xml:space="preserve">batr_conn_pls</t>
   </si>
   <si>
+    <t xml:space="preserve">contact to the positive battery terminal</t>
+  </si>
+  <si>
     <t xml:space="preserve">battery spring</t>
   </si>
   <si>
@@ -358,6 +364,9 @@
     <t xml:space="preserve">spring_battr</t>
   </si>
   <si>
+    <t xml:space="preserve">spring pressing the batteries</t>
+  </si>
+  <si>
     <t xml:space="preserve">battery connector</t>
   </si>
   <si>
@@ -367,6 +376,9 @@
     <t xml:space="preserve">wall_conn_btr</t>
   </si>
   <si>
+    <t xml:space="preserve">bar holding battery contacts</t>
+  </si>
+  <si>
     <t xml:space="preserve">battery connector pin</t>
   </si>
   <si>
@@ -376,6 +388,9 @@
     <t xml:space="preserve">pin_conn_btr</t>
   </si>
   <si>
+    <t xml:space="preserve">contacts from batteries to the side board</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 pin battery connector</t>
   </si>
   <si>
@@ -469,9 +484,15 @@
     <t xml:space="preserve">LED</t>
   </si>
   <si>
+    <t xml:space="preserve">keyboard backlight led</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hall sensor</t>
   </si>
   <si>
+    <t xml:space="preserve">Hall sensor tracking the movement of the grid</t>
+  </si>
+  <si>
     <t xml:space="preserve">mouse button</t>
   </si>
   <si>
@@ -482,6 +503,21 @@
   </si>
   <si>
     <t xml:space="preserve">touch sensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">header connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on two pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on four pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socket connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor</t>
   </si>
   <si>
     <t xml:space="preserve">number of details</t>
@@ -693,7 +729,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,12 +752,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBF819E"/>
-        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -783,7 +813,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,15 +870,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,7 +894,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -864,23 +906,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,7 +976,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFBF819E"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -967,9 +1001,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>363240</xdr:colOff>
+      <xdr:colOff>362160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -982,8 +1016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8613720" y="2709360"/>
-          <a:ext cx="969840" cy="591840"/>
+          <a:off x="8645760" y="2709360"/>
+          <a:ext cx="971640" cy="590760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,9 +1038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1019,31 +1053,31 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7470000" y="3251160"/>
-          <a:ext cx="994680" cy="591840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
+          <a:off x="7495200" y="3251160"/>
+          <a:ext cx="1000440" cy="590760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>436680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1056,8 +1090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8804880" y="3591720"/>
-          <a:ext cx="725400" cy="978840"/>
+          <a:off x="8839440" y="3591000"/>
+          <a:ext cx="724320" cy="980640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,9 +1112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>150840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1093,31 +1127,31 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7564680" y="4173840"/>
-          <a:ext cx="969120" cy="858600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
+          <a:off x="7593120" y="4173840"/>
+          <a:ext cx="971640" cy="857520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1130,8 +1164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="8664480" y="4694040"/>
-          <a:ext cx="249120" cy="944280"/>
+          <a:off x="8697240" y="4694400"/>
+          <a:ext cx="248040" cy="943200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,13 +1182,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>440280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>613080</xdr:colOff>
+      <xdr:colOff>612000</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1167,8 +1201,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="7984080" y="5120640"/>
-          <a:ext cx="172800" cy="944280"/>
+          <a:off x="8012160" y="5121360"/>
+          <a:ext cx="171720" cy="943200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,9 +1223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1204,8 +1238,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8300880" y="5889960"/>
-          <a:ext cx="995040" cy="534600"/>
+          <a:off x="8329320" y="5889960"/>
+          <a:ext cx="1000440" cy="533520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1226,9 +1260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:colOff>129960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1241,8 +1275,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="6378120"/>
-          <a:ext cx="969120" cy="496800"/>
+          <a:off x="7572240" y="6378120"/>
+          <a:ext cx="971640" cy="495720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1263,9 +1297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:colOff>235800</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1278,8 +1312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8672040" y="6922080"/>
-          <a:ext cx="785160" cy="580320"/>
+          <a:off x="8704080" y="6922080"/>
+          <a:ext cx="786960" cy="579240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1300,9 +1334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>657720</xdr:colOff>
+      <xdr:colOff>656640</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1315,8 +1349,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7596720" y="7496640"/>
-          <a:ext cx="604800" cy="459360"/>
+          <a:off x="7625160" y="7496640"/>
+          <a:ext cx="603720" cy="458280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,9 +1371,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194040</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1352,8 +1386,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8753760" y="7939440"/>
-          <a:ext cx="661680" cy="615960"/>
+          <a:off x="8785800" y="7939440"/>
+          <a:ext cx="663480" cy="614880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,9 +1408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
+      <xdr:colOff>144360</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,45 +1423,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7558200" y="9519120"/>
-          <a:ext cx="969120" cy="639360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 31" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8471160" y="9886320"/>
-          <a:ext cx="978840" cy="763200"/>
+          <a:off x="7586640" y="9519120"/>
+          <a:ext cx="971640" cy="638280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1448,23 +1445,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>116640</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 32" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7512840" y="10543680"/>
-          <a:ext cx="985680" cy="687240"/>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7538040" y="10543680"/>
+          <a:ext cx="991440" cy="686160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,23 +1482,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>230040</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 33" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8471520" y="10917360"/>
-          <a:ext cx="978840" cy="763200"/>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 33" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8503560" y="10917360"/>
+          <a:ext cx="980640" cy="762120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,23 +1519,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>109800</xdr:colOff>
+      <xdr:colOff>108720</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 34" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7506000" y="11630520"/>
-          <a:ext cx="985680" cy="649080"/>
+      <xdr:rowOff>10800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 34" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7531200" y="11630520"/>
+          <a:ext cx="991440" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1559,23 +1556,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 35" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8479800" y="12015720"/>
-          <a:ext cx="970200" cy="620640"/>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 35" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8511840" y="12015720"/>
+          <a:ext cx="972000" cy="619560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,23 +1593,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88200</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 36" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7476480" y="12742200"/>
-          <a:ext cx="994680" cy="392040"/>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 36" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7501680" y="12742200"/>
+          <a:ext cx="1000440" cy="390960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1633,23 +1630,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>719280</xdr:colOff>
+      <xdr:colOff>718200</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 37" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8556840" y="12918240"/>
-          <a:ext cx="544320" cy="944280"/>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 37" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8588880" y="12918240"/>
+          <a:ext cx="543240" cy="943200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1670,97 +1667,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>774720</xdr:colOff>
+      <xdr:colOff>773640</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 38" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7768080" y="13630320"/>
-          <a:ext cx="550440" cy="493920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>82080</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 40" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8683920" y="14146920"/>
-          <a:ext cx="618480" cy="610920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 41" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7782480" y="14655240"/>
-          <a:ext cx="611280" cy="604440"/>
+      <xdr:rowOff>118080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 38" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7796520" y="13630320"/>
+          <a:ext cx="549360" cy="492840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1781,208 +1704,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>737280</xdr:colOff>
+      <xdr:colOff>736200</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 42" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8689320" y="15021360"/>
-          <a:ext cx="429840" cy="944280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>757080</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 43" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7719480" y="15693120"/>
-          <a:ext cx="581400" cy="552960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>797760</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 44" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8586000" y="16215120"/>
-          <a:ext cx="593640" cy="507240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 46" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8514720" y="17118360"/>
-          <a:ext cx="969840" cy="792000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>126720</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>734400</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 47" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7670520" y="17776080"/>
-          <a:ext cx="607680" cy="392400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>601920</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 48" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8466120" y="18297720"/>
-          <a:ext cx="517680" cy="507600"/>
+      <xdr:rowOff>87480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 42" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8721360" y="15021360"/>
+          <a:ext cx="428760" cy="943200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,176 +1736,102 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 23" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7490520" y="27703440"/>
-          <a:ext cx="994680" cy="677520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>785160</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 25" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7490880" y="28693080"/>
-          <a:ext cx="994680" cy="515880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:colOff>102240</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>120240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515720" y="32846760"/>
+          <a:ext cx="1000440" cy="676440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281160</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>821880</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 50" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8695080" y="34426800"/>
+          <a:ext cx="540720" cy="552600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333360</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 50" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8726400" y="29331360"/>
-          <a:ext cx="541080" cy="553680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>818640</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 54" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7732080" y="30714480"/>
-          <a:ext cx="630360" cy="575280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>763920</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 57" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7469640" y="32065560"/>
-          <a:ext cx="994680" cy="763200"/>
+      <xdr:colOff>490680</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>36720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 57" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8747280" y="36965160"/>
+          <a:ext cx="998640" cy="762120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2188,23 +1852,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>186840</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7387560" y="2145240"/>
-          <a:ext cx="1181160" cy="859320"/>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7412760" y="2145240"/>
+          <a:ext cx="1186920" cy="858240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,23 +1889,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>572760</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 45" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7782840" y="16785360"/>
-          <a:ext cx="333720" cy="450000"/>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7811280" y="16785360"/>
+          <a:ext cx="332640" cy="448920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2257,102 +1921,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>168840</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>488160</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 24" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8550720" y="28177920"/>
-          <a:ext cx="1157760" cy="783360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 52" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8656200" y="30349080"/>
-          <a:ext cx="699840" cy="659160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>627120</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7332840" y="8285400"/>
-          <a:ext cx="1248840" cy="858600"/>
+      <xdr:colOff>487080</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>22320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582760" y="33321240"/>
+          <a:ext cx="1159560" cy="782280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2373,23 +1963,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>389520</xdr:colOff>
+      <xdr:colOff>388440</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8641440" y="8922600"/>
-          <a:ext cx="968400" cy="732960"/>
+      <xdr:rowOff>127440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8673480" y="8922600"/>
+          <a:ext cx="970200" cy="731880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,23 +2000,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7806240" y="18814680"/>
-          <a:ext cx="268560" cy="390960"/>
+      <xdr:rowOff>43560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7834680" y="18814680"/>
+          <a:ext cx="267480" cy="389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,23 +2037,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>720360</xdr:colOff>
+      <xdr:colOff>719280</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8718840" y="19337040"/>
-          <a:ext cx="383400" cy="345600"/>
+      <xdr:rowOff>4680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8750880" y="19337040"/>
+          <a:ext cx="382320" cy="344520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2484,23 +2074,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>695880</xdr:colOff>
+      <xdr:colOff>694800</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8735400" y="20395800"/>
-          <a:ext cx="342360" cy="308880"/>
+      <xdr:rowOff>186120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8767440" y="20395800"/>
+          <a:ext cx="341280" cy="307800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2521,60 +2111,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>205200</xdr:colOff>
+      <xdr:colOff>204120</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7191720" y="19506240"/>
-          <a:ext cx="1395360" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>443520</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7325280" y="26440920"/>
-          <a:ext cx="1500120" cy="947520"/>
+      <xdr:rowOff>97920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7216920" y="19506240"/>
+          <a:ext cx="1401120" cy="946440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2590,176 +2143,65 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>626040</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>170280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9007920" y="27045360"/>
-          <a:ext cx="1205640" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>691200</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 21" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7839720" y="29174760"/>
-          <a:ext cx="395280" cy="1423800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>790920</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>674280</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039960" y="32189040"/>
+          <a:ext cx="1210680" cy="946440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334720" y="32235840"/>
-          <a:ext cx="2397960" cy="1513080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>720720</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 39" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7841520" y="33407280"/>
-          <a:ext cx="1261080" cy="689040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>746280</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>507960</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 49" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9128160" y="33841440"/>
-          <a:ext cx="1438200" cy="813960"/>
+      <xdr:rowOff>141840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>682560</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>17640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9543600" y="34413480"/>
+          <a:ext cx="394200" cy="1422720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2780,23 +2222,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>636480</xdr:colOff>
+      <xdr:colOff>635400</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 51" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8470440" y="22360320"/>
-          <a:ext cx="547920" cy="519120"/>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 51" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8502480" y="22360320"/>
+          <a:ext cx="546840" cy="518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2817,23 +2259,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>614880</xdr:colOff>
+      <xdr:colOff>613800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 55" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7495200" y="22744800"/>
-          <a:ext cx="663480" cy="602640"/>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 55" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7520400" y="22744800"/>
+          <a:ext cx="665640" cy="601560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2854,23 +2296,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>684720</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 56" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8480520" y="23345640"/>
-          <a:ext cx="587160" cy="415440"/>
+      <xdr:rowOff>97920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 56" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8512560" y="23345640"/>
+          <a:ext cx="586080" cy="414360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2891,23 +2333,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>482760</xdr:colOff>
+      <xdr:colOff>481680</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 58" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7564320" y="23776920"/>
-          <a:ext cx="462240" cy="531720"/>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 58" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7592760" y="23776920"/>
+          <a:ext cx="461160" cy="530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,23 +2370,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 59" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8403120" y="24200640"/>
-          <a:ext cx="748440" cy="617760"/>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 59" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8435160" y="24200640"/>
+          <a:ext cx="747360" cy="616680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,23 +2407,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>406080</xdr:colOff>
+      <xdr:colOff>405000</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Image 60" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7615080" y="20842920"/>
-          <a:ext cx="334800" cy="658440"/>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 60" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7643520" y="20842920"/>
+          <a:ext cx="333720" cy="657360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2996,140 +2438,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>782640</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>802080</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 62" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7488360" y="24739560"/>
-          <a:ext cx="857520" cy="823680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Image 22" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7783920" y="34430400"/>
-          <a:ext cx="1731240" cy="512640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>812160</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Image 61" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9194040" y="35000280"/>
-          <a:ext cx="1815480" cy="1370520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Image 63" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7347960" y="31399920"/>
-          <a:ext cx="1293840" cy="685440"/>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 61" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6739200" y="40130280"/>
+          <a:ext cx="1821960" cy="1369440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3150,23 +2481,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Image 64" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8381880" y="21257280"/>
-          <a:ext cx="875520" cy="725040"/>
+      <xdr:rowOff>107280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 64" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8413920" y="21257280"/>
+          <a:ext cx="877320" cy="723960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3187,23 +2518,1059 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>648000</xdr:colOff>
+      <xdr:colOff>646920</xdr:colOff>
       <xdr:row>127</xdr:row>
+      <xdr:rowOff>61920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 65" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7656840" y="21745080"/>
+          <a:ext cx="562320" cy="678240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>291960</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205200</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181560" y="37528200"/>
+          <a:ext cx="2437560" cy="1157400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225720</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>789840</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>98280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639640" y="38116440"/>
+          <a:ext cx="1405440" cy="1297800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>303120</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182520</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7034040" y="38637360"/>
+          <a:ext cx="1562400" cy="1270080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196920</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444240</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610840" y="39458520"/>
+          <a:ext cx="1929960" cy="795240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>416160</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164520</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>31680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7147080" y="36198000"/>
+          <a:ext cx="1431360" cy="1008360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98280</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238680</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Image 39" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8512200" y="35656200"/>
+          <a:ext cx="981720" cy="951120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>783000</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Image 49" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7513920" y="35207280"/>
+          <a:ext cx="907560" cy="951120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451440</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199800</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7182360" y="33742080"/>
+          <a:ext cx="1431360" cy="912960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>324360</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>109440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7055280" y="8251920"/>
+          <a:ext cx="1400040" cy="1052280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Image 31" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674920" y="9804240"/>
+          <a:ext cx="953280" cy="750960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>830880</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 40" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8502480" y="14024520"/>
+          <a:ext cx="742320" cy="705240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105480</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>831600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 41" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677720" y="14540760"/>
+          <a:ext cx="726120" cy="807120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>613080</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Image 43" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7727400" y="15579000"/>
+          <a:ext cx="457920" cy="763920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105840</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>605880</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Image 44" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8519760" y="16046280"/>
+          <a:ext cx="500040" cy="758160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>780840</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>765720</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Image 46" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7511760" y="17722440"/>
+          <a:ext cx="826200" cy="686880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>833760</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>789480</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>21240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Image 47" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8406000" y="18182160"/>
+          <a:ext cx="797400" cy="647280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94320</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704880</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Image 48" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8508240" y="25425360"/>
+          <a:ext cx="610560" cy="475920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119880</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>690480</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Image 52" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7692120" y="25904880"/>
+          <a:ext cx="570600" cy="507600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84240</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>547560</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>94320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Image 53" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8498160" y="26494200"/>
+          <a:ext cx="463320" cy="495720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711360</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Image 54" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7727400" y="27072360"/>
+          <a:ext cx="556200" cy="522720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>832320</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676440</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Image 62" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7563240" y="24861600"/>
+          <a:ext cx="685440" cy="451080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>721800</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>232560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290520</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Image 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7452720" y="31646160"/>
+          <a:ext cx="1251720" cy="920160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>763560</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>48960</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Image 63" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8335800" y="17117280"/>
+          <a:ext cx="968400" cy="768240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90720</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>567000</xdr:colOff>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Image 65" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7628400" y="21745080"/>
-          <a:ext cx="563400" cy="679320"/>
+        <xdr:cNvPr id="65" name="Image 66" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8504640" y="27711360"/>
+          <a:ext cx="476280" cy="390240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>652320</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Image 67" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7688880" y="28276560"/>
+          <a:ext cx="535680" cy="482760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>834480</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>184320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>757080</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>105480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Image 68" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8406720" y="28794240"/>
+          <a:ext cx="764280" cy="492840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>70200</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589320</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>169920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Image 69" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7642440" y="29467440"/>
+          <a:ext cx="519120" cy="455400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119160</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>658800</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Image 70" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8533080" y="29977200"/>
+          <a:ext cx="539640" cy="428040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3223,13 +3590,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O203"/>
+  <dimension ref="A3:O230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B186" activeCellId="0" sqref="B186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A174" activeCellId="0" sqref="A174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -4130,23 +4497,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="n">
         <f aca="false">A90+1</f>
         <v>28</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
@@ -4157,6 +4529,9 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="J94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,17 +4543,17 @@
         <v>29</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
@@ -4188,23 +4563,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="n">
         <f aca="false">A96+1</f>
         <v>30</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
@@ -4215,23 +4595,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="102" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="n">
         <f aca="false">A99+1</f>
         <v>31</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
@@ -4241,23 +4626,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="n">
         <f aca="false">A102+1</f>
         <v>32</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
@@ -4267,23 +4657,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="n">
         <f aca="false">A105+1</f>
         <v>33</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
@@ -4295,7 +4690,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,17 +4699,17 @@
         <v>34</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
@@ -4326,7 +4721,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,17 +4730,17 @@
         <v>35</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
@@ -4358,12 +4753,12 @@
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="9"/>
       <c r="D115" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,13 +4767,13 @@
         <v>36</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N117" s="11" t="n">
         <v>17</v>
@@ -4386,12 +4781,12 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,23 +4795,23 @@
         <v>37</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,20 +4820,20 @@
         <v>38</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,20 +4842,20 @@
         <v>39</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,9 +4864,11 @@
         <v>40</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="O129" s="12" t="n">
         <v>2</v>
       </c>
@@ -4488,9 +4885,11 @@
         <v>41</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D132" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="O132" s="12" t="n">
         <v>6</v>
       </c>
@@ -4507,7 +4906,7 @@
         <v>42</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D135" s="11"/>
       <c r="O135" s="12" t="n">
@@ -4526,7 +4925,7 @@
         <v>43</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D138" s="11"/>
       <c r="O138" s="12" t="n">
@@ -4545,10 +4944,10 @@
         <v>44</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D141" s="11"/>
-      <c r="O141" s="14" t="n">
+      <c r="O141" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4564,389 +4963,566 @@
         <v>45</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D144" s="11"/>
+      <c r="O144" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="15"/>
+      <c r="A145" s="14"/>
       <c r="D145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="15"/>
+      <c r="A146" s="14"/>
       <c r="D146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17" t="n">
+    <row r="147" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="15" t="n">
+        <f aca="false">A144+1</f>
+        <v>46</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="O147" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="14"/>
+      <c r="B148" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="14"/>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="15" t="n">
+        <f aca="false">A147+1</f>
+        <v>47</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="O150" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="14"/>
+      <c r="B151" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="14"/>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15" t="n">
+        <f aca="false">A150+1</f>
+        <v>48</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D153" s="11"/>
+      <c r="O153" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="14"/>
+      <c r="B154" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="14"/>
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="15" t="n">
+        <f aca="false">A153+1</f>
+        <v>49</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" s="11"/>
+      <c r="O156" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="14"/>
+      <c r="B157" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="14"/>
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="15" t="n">
+        <f aca="false">A156+1</f>
+        <v>50</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D159" s="11"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="14"/>
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="14"/>
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="16" t="n">
+        <f aca="false">A159+1</f>
+        <v>51</v>
+      </c>
+      <c r="D162" s="11"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="14"/>
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="14"/>
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="16" t="n">
+        <f aca="false">A162+1</f>
+        <v>52</v>
+      </c>
+      <c r="D165" s="11"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="14"/>
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="14"/>
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="16" t="n">
+        <f aca="false">A165+1</f>
+        <v>53</v>
+      </c>
+      <c r="D168" s="11"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="14"/>
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="14"/>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="16" t="n">
+        <f aca="false">A168+1</f>
+        <v>54</v>
+      </c>
+      <c r="D171" s="11"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="14"/>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="14"/>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="18" t="n">
         <f aca="false">SUM(M12:M116)</f>
         <v>76</v>
       </c>
-      <c r="N147" s="17" t="n">
+      <c r="N174" s="18" t="n">
         <f aca="false">SUM(N12:N119)</f>
         <v>62</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="18" t="n">
+    <row r="178" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B154" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="I154" s="18"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="18"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="20" t="n">
-        <f aca="false">A154+1</f>
-        <v>2</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D158" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="18" t="n">
-        <f aca="false">A157+1</f>
-        <v>3</v>
-      </c>
-      <c r="B160" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="I160" s="18"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D161" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="163" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="20" t="n">
-        <f aca="false">A160+1</f>
-        <v>4</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20" t="s">
+      <c r="B181" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="21" t="s">
+      <c r="C181" s="19"/>
+      <c r="D181" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
-      <c r="M163" s="20"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D164" s="9" t="s">
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="20" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="18" t="n">
-        <f aca="false">A163+1</f>
-        <v>5</v>
-      </c>
-      <c r="B166" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="I166" s="18"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
-    </row>
-    <row r="169" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="20" t="n">
-        <f aca="false">A166+1</f>
-        <v>6</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C169" s="20"/>
-      <c r="D169" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E169" s="20"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
-      <c r="M169" s="20"/>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="18" t="n">
-        <f aca="false">A169+1</f>
-        <v>7</v>
-      </c>
-      <c r="B172" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I172" s="18"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
-    </row>
-    <row r="175" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="20" t="n">
-        <f aca="false">A172+1</f>
-        <v>8</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C175" s="20"/>
-      <c r="D175" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="I175" s="20"/>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="18" t="n">
-        <f aca="false">A175+1</f>
-        <v>9</v>
-      </c>
-      <c r="B178" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I178" s="18"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="18" t="n">
-        <f aca="false">A178+1</f>
-        <v>10</v>
-      </c>
-      <c r="B181" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="19"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D182" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D183" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="18" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="184" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="21" t="n">
         <f aca="false">A181+1</f>
-        <v>11</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="I184" s="18"/>
-      <c r="J184" s="18"/>
-      <c r="K184" s="18"/>
-      <c r="L184" s="18"/>
-      <c r="M184" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I184" s="21"/>
+      <c r="J184" s="21"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="21"/>
+      <c r="M184" s="21"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="19" t="n">
+        <f aca="false">A184+1</f>
+        <v>3</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="190" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="21" t="n">
+        <f aca="false">A187+1</f>
+        <v>4</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I190" s="21"/>
+      <c r="J190" s="21"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="21"/>
+      <c r="M190" s="21"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D191" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="19" t="n">
+        <f aca="false">A190+1</f>
+        <v>5</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+    </row>
+    <row r="196" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="21" t="n">
+        <f aca="false">A193+1</f>
+        <v>6</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I196" s="21"/>
+      <c r="J196" s="21"/>
+      <c r="K196" s="21"/>
+      <c r="L196" s="21"/>
+      <c r="M196" s="21"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="19" t="n">
+        <f aca="false">A196+1</f>
+        <v>7</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="19"/>
+    </row>
+    <row r="202" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="21" t="n">
+        <f aca="false">A199+1</f>
+        <v>8</v>
+      </c>
+      <c r="B202" s="21" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="189" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="20" t="n">
-        <f aca="false">A184+1</f>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I202" s="21"/>
+      <c r="J202" s="21"/>
+      <c r="K202" s="21"/>
+      <c r="L202" s="21"/>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="19" t="n">
+        <f aca="false">A202+1</f>
+        <v>9</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I205" s="19"/>
+      <c r="J205" s="19"/>
+      <c r="K205" s="19"/>
+      <c r="L205" s="19"/>
+      <c r="M205" s="19"/>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="19" t="n">
+        <f aca="false">A205+1</f>
+        <v>10</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I208" s="19"/>
+      <c r="J208" s="19"/>
+      <c r="K208" s="19"/>
+      <c r="L208" s="19"/>
+      <c r="M208" s="19"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D209" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D210" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="19" t="n">
+        <f aca="false">A208+1</f>
+        <v>11</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="19"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D212" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="21" t="n">
+        <f aca="false">A211+1</f>
         <v>12</v>
       </c>
-      <c r="B189" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="194" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="20" t="n">
-        <f aca="false">A189+1</f>
+      <c r="B216" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D216" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="21" t="n">
+        <f aca="false">A216+1</f>
         <v>13</v>
       </c>
-      <c r="B194" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="21" t="n">
-        <f aca="false">A194+1</f>
+      <c r="B221" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="224" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="22" t="n">
+        <f aca="false">A221+1</f>
         <v>14</v>
       </c>
-      <c r="B197" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="200" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="23" t="n">
-        <f aca="false">A197+1</f>
+      <c r="B224" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="227" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="24" t="n">
+        <f aca="false">A224+1</f>
         <v>15</v>
       </c>
-      <c r="B200" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="203" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="23" t="n">
-        <f aca="false">A200+1</f>
+      <c r="B227" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="230" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="24" t="n">
+        <f aca="false">A227+1</f>
         <v>16</v>
       </c>
-      <c r="B203" s="24" t="s">
-        <v>198</v>
+      <c r="B230" s="25" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="212">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t xml:space="preserve">mouse button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power switch</t>
   </si>
   <si>
     <t xml:space="preserve">mouse encoder</t>
@@ -870,11 +873,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1001,9 +1004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>362160</xdr:colOff>
+      <xdr:colOff>361800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,8 +1019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8645760" y="2709360"/>
-          <a:ext cx="971640" cy="590760"/>
+          <a:off x="8658360" y="2709360"/>
+          <a:ext cx="972360" cy="590400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,9 +1041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>81720</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,25 +1056,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7495200" y="3251160"/>
-          <a:ext cx="1000440" cy="590760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>297360</xdr:colOff>
+          <a:off x="7505280" y="3251160"/>
+          <a:ext cx="1002600" cy="590400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1090,8 +1093,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8839440" y="3591000"/>
-          <a:ext cx="724320" cy="980640"/>
+          <a:off x="8852760" y="3590280"/>
+          <a:ext cx="723960" cy="981360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,9 +1115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>150480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1127,8 +1130,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7593120" y="4173840"/>
-          <a:ext cx="971640" cy="857520"/>
+          <a:off x="7604640" y="4173840"/>
+          <a:ext cx="972360" cy="857160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,9 +1152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1164,8 +1167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="8697240" y="4694400"/>
-          <a:ext cx="248040" cy="943200"/>
+          <a:off x="8709840" y="4694040"/>
+          <a:ext cx="247680" cy="942840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,13 +1183,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>440280</xdr:colOff>
+      <xdr:colOff>439920</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>612000</xdr:colOff>
+      <xdr:colOff>611280</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1201,8 +1204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="8012160" y="5121360"/>
-          <a:ext cx="171720" cy="943200"/>
+          <a:off x="8023680" y="5121360"/>
+          <a:ext cx="171360" cy="942840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,9 +1226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>74160</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1238,8 +1241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8329320" y="5889960"/>
-          <a:ext cx="1000440" cy="533520"/>
+          <a:off x="8340840" y="5889960"/>
+          <a:ext cx="1002240" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1260,9 +1263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>129960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1275,8 +1278,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572240" y="6378120"/>
-          <a:ext cx="971640" cy="495720"/>
+          <a:off x="7583760" y="6378120"/>
+          <a:ext cx="972360" cy="495360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,9 +1300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>235800</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1312,8 +1315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8704080" y="6922080"/>
-          <a:ext cx="786960" cy="579240"/>
+          <a:off x="8716680" y="6922080"/>
+          <a:ext cx="787680" cy="578880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,9 +1337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>656640</xdr:colOff>
+      <xdr:colOff>656280</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,8 +1352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7625160" y="7496640"/>
-          <a:ext cx="603720" cy="458280"/>
+          <a:off x="7636680" y="7496640"/>
+          <a:ext cx="603360" cy="457920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1371,9 +1374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:colOff>193680</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1386,8 +1389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8785800" y="7939440"/>
-          <a:ext cx="663480" cy="614880"/>
+          <a:off x="8798400" y="7939440"/>
+          <a:ext cx="664200" cy="614520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,9 +1411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
+      <xdr:colOff>144000</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1423,8 +1426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7586640" y="9519120"/>
-          <a:ext cx="971640" cy="638280"/>
+          <a:off x="7598160" y="9519120"/>
+          <a:ext cx="972360" cy="637920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1445,9 +1448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1460,8 +1463,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7538040" y="10543680"/>
-          <a:ext cx="991440" cy="686160"/>
+          <a:off x="7548120" y="10543680"/>
+          <a:ext cx="993600" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,9 +1485,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1497,8 +1500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8503560" y="10917360"/>
-          <a:ext cx="980640" cy="762120"/>
+          <a:off x="8516160" y="10917360"/>
+          <a:ext cx="981360" cy="761760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,9 +1522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>108720</xdr:colOff>
+      <xdr:colOff>108360</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1534,8 +1537,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7531200" y="11630520"/>
-          <a:ext cx="991440" cy="648000"/>
+          <a:off x="7541280" y="11630520"/>
+          <a:ext cx="993600" cy="647640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1556,9 +1559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1571,8 +1574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8511840" y="12015720"/>
-          <a:ext cx="972000" cy="619560"/>
+          <a:off x="8524440" y="12015720"/>
+          <a:ext cx="972720" cy="619200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,9 +1596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>88200</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1608,8 +1611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7501680" y="12742200"/>
-          <a:ext cx="1000440" cy="390960"/>
+          <a:off x="7511760" y="12742200"/>
+          <a:ext cx="1002600" cy="390600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1630,9 +1633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>718200</xdr:colOff>
+      <xdr:colOff>717840</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1645,8 +1648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8588880" y="12918240"/>
-          <a:ext cx="543240" cy="943200"/>
+          <a:off x="8601480" y="12918240"/>
+          <a:ext cx="542880" cy="942840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,9 +1670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>773640</xdr:colOff>
+      <xdr:colOff>773280</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1682,8 +1685,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7796520" y="13630320"/>
-          <a:ext cx="549360" cy="492840"/>
+          <a:off x="7808040" y="13630320"/>
+          <a:ext cx="549000" cy="492480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1704,9 +1707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>736200</xdr:colOff>
+      <xdr:colOff>735840</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1719,8 +1722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8721360" y="15021360"/>
-          <a:ext cx="428760" cy="943200"/>
+          <a:off x="8733960" y="15021360"/>
+          <a:ext cx="428400" cy="942840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,14 +1739,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:colOff>101880</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1756,8 +1759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515720" y="32846760"/>
-          <a:ext cx="1000440" cy="676440"/>
+          <a:off x="7525800" y="33334560"/>
+          <a:ext cx="1002600" cy="676080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,13 +1776,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>281160</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>821880</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:colOff>821520</xdr:colOff>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1793,8 +1796,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8695080" y="34426800"/>
-          <a:ext cx="540720" cy="552600"/>
+          <a:off x="8707680" y="34914600"/>
+          <a:ext cx="540360" cy="552240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,13 +1813,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333360</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>490680</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:colOff>490320</xdr:colOff>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1830,8 +1833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8747280" y="36965160"/>
-          <a:ext cx="998640" cy="762120"/>
+          <a:off x="8759880" y="37452960"/>
+          <a:ext cx="999360" cy="761760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,9 +1855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1867,8 +1870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7412760" y="2145240"/>
-          <a:ext cx="1186920" cy="858240"/>
+          <a:off x="7422840" y="2145240"/>
+          <a:ext cx="1189080" cy="857880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1889,9 +1892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>571320</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1904,8 +1907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7811280" y="16785360"/>
-          <a:ext cx="332640" cy="448920"/>
+          <a:off x="7822800" y="16785360"/>
+          <a:ext cx="332280" cy="448560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,13 +1924,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>168840</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:colOff>486720</xdr:colOff>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1941,8 +1944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8582760" y="33321240"/>
-          <a:ext cx="1159560" cy="782280"/>
+          <a:off x="8595360" y="33809040"/>
+          <a:ext cx="1160280" cy="781920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,9 +1966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>388440</xdr:colOff>
+      <xdr:colOff>388080</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1978,8 +1981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8673480" y="8922600"/>
-          <a:ext cx="970200" cy="731880"/>
+          <a:off x="8686080" y="8922600"/>
+          <a:ext cx="970920" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2000,9 +2003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2015,8 +2018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7834680" y="18814680"/>
-          <a:ext cx="267480" cy="389880"/>
+          <a:off x="7846200" y="18814680"/>
+          <a:ext cx="267120" cy="389520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2037,9 +2040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>719280</xdr:colOff>
+      <xdr:colOff>718920</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2052,8 +2055,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8750880" y="19337040"/>
-          <a:ext cx="382320" cy="344520"/>
+          <a:off x="8763480" y="19337040"/>
+          <a:ext cx="381960" cy="344160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,9 +2077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
+      <xdr:colOff>694440</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2089,8 +2092,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8767440" y="20395800"/>
-          <a:ext cx="341280" cy="307800"/>
+          <a:off x="8780040" y="20395800"/>
+          <a:ext cx="340920" cy="307440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2111,9 +2114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2126,8 +2129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7216920" y="19506240"/>
-          <a:ext cx="1401120" cy="946440"/>
+          <a:off x="7227000" y="19506240"/>
+          <a:ext cx="1403280" cy="946080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2143,14 +2146,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>626040</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>170280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:colOff>153720</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2163,8 +2166,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9039960" y="32189040"/>
-          <a:ext cx="1210680" cy="946440"/>
+          <a:off x="9052560" y="32676480"/>
+          <a:ext cx="1212840" cy="946080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2180,13 +2183,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>682560</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:colOff>682200</xdr:colOff>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2200,8 +2203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9543600" y="34413480"/>
-          <a:ext cx="394200" cy="1422720"/>
+          <a:off x="9557280" y="34901280"/>
+          <a:ext cx="393840" cy="1422360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2222,9 +2225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>635400</xdr:colOff>
+      <xdr:colOff>635040</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2237,8 +2240,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8502480" y="22360320"/>
-          <a:ext cx="546840" cy="518040"/>
+          <a:off x="8515080" y="22360320"/>
+          <a:ext cx="546480" cy="517680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347040</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>71640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171000</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>22320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 55" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7930800" y="22758120"/>
+          <a:ext cx="666720" cy="601200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,52 +2293,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>789480</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:colOff>808200</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>613800</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 55" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7520400" y="22744800"/>
-          <a:ext cx="665640" cy="601560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>98640</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>684720</xdr:colOff>
+      <xdr:colOff>551160</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2311,8 +2314,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8512560" y="23345640"/>
-          <a:ext cx="586080" cy="414360"/>
+          <a:off x="7549200" y="23332320"/>
+          <a:ext cx="585720" cy="414000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2327,15 +2330,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:colOff>245520</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>481680</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2348,8 +2351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7592760" y="23776920"/>
-          <a:ext cx="461160" cy="530640"/>
+          <a:off x="7829280" y="24353280"/>
+          <a:ext cx="460800" cy="530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2365,13 +2368,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>21240</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:colOff>768240</xdr:colOff>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2385,8 +2388,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8435160" y="24200640"/>
-          <a:ext cx="747360" cy="616680"/>
+          <a:off x="8447760" y="24688440"/>
+          <a:ext cx="747000" cy="616320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2407,9 +2410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>405000</xdr:colOff>
+      <xdr:colOff>404640</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2422,8 +2425,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7643520" y="20842920"/>
-          <a:ext cx="333720" cy="657360"/>
+          <a:off x="7655040" y="20842920"/>
+          <a:ext cx="333360" cy="657000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2439,14 +2442,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2459,8 +2462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6739200" y="40130280"/>
-          <a:ext cx="1821960" cy="1369440"/>
+          <a:off x="6749280" y="40617720"/>
+          <a:ext cx="1824120" cy="1369080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2481,9 +2484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2496,8 +2499,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8413920" y="21257280"/>
-          <a:ext cx="877320" cy="723960"/>
+          <a:off x="8426520" y="21257280"/>
+          <a:ext cx="878040" cy="723600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2518,9 +2521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>646920</xdr:colOff>
+      <xdr:colOff>646560</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2533,8 +2536,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7656840" y="21745080"/>
-          <a:ext cx="562320" cy="678240"/>
+          <a:off x="7668360" y="21745080"/>
+          <a:ext cx="561960" cy="677880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2550,14 +2553,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>291960</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>205200</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:colOff>204840</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2570,8 +2573,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181560" y="37528200"/>
-          <a:ext cx="2437560" cy="1157400"/>
+          <a:off x="6190560" y="38016000"/>
+          <a:ext cx="2440800" cy="1157040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2587,14 +2590,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>225720</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>100800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>789840</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:colOff>789480</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2607,8 +2610,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639640" y="38116440"/>
-          <a:ext cx="1405440" cy="1297800"/>
+          <a:off x="8652240" y="38603880"/>
+          <a:ext cx="1406160" cy="1297440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2624,51 +2627,51 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>303120</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>182160</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7044120" y="39125160"/>
+          <a:ext cx="1564560" cy="1269720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196920</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 22" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7034040" y="38637360"/>
-          <a:ext cx="1562400" cy="1270080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
-      <xdr:row>223</xdr:row>
       <xdr:rowOff>142560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>444240</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:colOff>443880</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2681,8 +2684,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8610840" y="39458520"/>
-          <a:ext cx="1929960" cy="795240"/>
+          <a:off x="8623440" y="39946320"/>
+          <a:ext cx="1932120" cy="794880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2698,51 +2701,51 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>416160</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164160</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>30960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7157160" y="36685440"/>
+          <a:ext cx="1433520" cy="1008000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7147080" y="36198000"/>
-          <a:ext cx="1431360" cy="1008360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
-      <xdr:row>201</xdr:row>
       <xdr:rowOff>28080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:colOff>238320</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2755,8 +2758,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8512200" y="35656200"/>
-          <a:ext cx="981720" cy="951120"/>
+          <a:off x="8524800" y="36143640"/>
+          <a:ext cx="982440" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2772,13 +2775,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>783000</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>95040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:colOff>7200</xdr:colOff>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2792,8 +2795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7513920" y="35207280"/>
-          <a:ext cx="907560" cy="951120"/>
+          <a:off x="7524000" y="35695080"/>
+          <a:ext cx="909720" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2809,14 +2812,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451440</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:colOff>199440</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2829,8 +2832,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7182360" y="33742080"/>
-          <a:ext cx="1431360" cy="912960"/>
+          <a:off x="7192440" y="34229880"/>
+          <a:ext cx="1433520" cy="912600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2851,9 +2854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>41400</xdr:colOff>
+      <xdr:colOff>41040</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2866,8 +2869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7055280" y="8251920"/>
-          <a:ext cx="1400040" cy="1052280"/>
+          <a:off x="7065360" y="8251920"/>
+          <a:ext cx="1402200" cy="1051920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2888,9 +2891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>372960</xdr:colOff>
+      <xdr:colOff>372600</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2903,8 +2906,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8674920" y="9804240"/>
-          <a:ext cx="953280" cy="750960"/>
+          <a:off x="8687520" y="9804240"/>
+          <a:ext cx="954000" cy="750600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2925,9 +2928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>830880</xdr:colOff>
+      <xdr:colOff>830520</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2940,8 +2943,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8502480" y="14024520"/>
-          <a:ext cx="742320" cy="705240"/>
+          <a:off x="8515080" y="14024520"/>
+          <a:ext cx="741960" cy="704880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2962,9 +2965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>831600</xdr:colOff>
+      <xdr:colOff>831240</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2977,8 +2980,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7677720" y="14540760"/>
-          <a:ext cx="726120" cy="807120"/>
+          <a:off x="7689240" y="14540760"/>
+          <a:ext cx="725760" cy="806760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2999,9 +3002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>613080</xdr:colOff>
+      <xdr:colOff>612720</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3014,8 +3017,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7727400" y="15579000"/>
-          <a:ext cx="457920" cy="763920"/>
+          <a:off x="7738920" y="15579000"/>
+          <a:ext cx="457560" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3036,9 +3039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>605880</xdr:colOff>
+      <xdr:colOff>605520</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3051,8 +3054,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8519760" y="16046280"/>
-          <a:ext cx="500040" cy="758160"/>
+          <a:off x="8532360" y="16046280"/>
+          <a:ext cx="499680" cy="757800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3073,9 +3076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>765720</xdr:colOff>
+      <xdr:colOff>765360</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3088,8 +3091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7511760" y="17722440"/>
-          <a:ext cx="826200" cy="686880"/>
+          <a:off x="7521840" y="17722440"/>
+          <a:ext cx="827280" cy="686520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3110,9 +3113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>789480</xdr:colOff>
+      <xdr:colOff>789120</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3125,8 +3128,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8406000" y="18182160"/>
-          <a:ext cx="797400" cy="647280"/>
+          <a:off x="8417520" y="18182160"/>
+          <a:ext cx="798120" cy="646920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3142,13 +3145,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>94320</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704880</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:colOff>704520</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3162,8 +3165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8508240" y="25425360"/>
-          <a:ext cx="610560" cy="475920"/>
+          <a:off x="8520840" y="25913160"/>
+          <a:ext cx="610200" cy="475560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3179,14 +3182,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>119880</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>690480</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:colOff>690120</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3199,8 +3202,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7692120" y="25904880"/>
-          <a:ext cx="570600" cy="507600"/>
+          <a:off x="7703640" y="26392320"/>
+          <a:ext cx="570240" cy="507240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3216,13 +3219,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>170280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:colOff>547200</xdr:colOff>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3236,8 +3239,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8498160" y="26494200"/>
-          <a:ext cx="463320" cy="495720"/>
+          <a:off x="8510760" y="26982000"/>
+          <a:ext cx="462960" cy="495360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3253,14 +3256,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>155160</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>711360</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:colOff>711000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3273,8 +3276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7727400" y="27072360"/>
-          <a:ext cx="556200" cy="522720"/>
+          <a:off x="7738920" y="27559800"/>
+          <a:ext cx="555840" cy="522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3290,14 +3293,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>832320</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676440</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:colOff>676080</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3310,8 +3313,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7563240" y="24861600"/>
-          <a:ext cx="685440" cy="451080"/>
+          <a:off x="7573320" y="25349400"/>
+          <a:ext cx="686520" cy="450720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3327,14 +3330,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721800</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>232560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:colOff>290160</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3347,8 +3350,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7452720" y="31646160"/>
-          <a:ext cx="1251720" cy="920160"/>
+          <a:off x="7462800" y="32133600"/>
+          <a:ext cx="1253880" cy="919800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3369,9 +3372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>48960</xdr:colOff>
+      <xdr:colOff>48600</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3384,8 +3387,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8335800" y="17117280"/>
-          <a:ext cx="968400" cy="768240"/>
+          <a:off x="8347320" y="17117280"/>
+          <a:ext cx="970200" cy="767880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3401,13 +3404,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>90720</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>567000</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:colOff>566640</xdr:colOff>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3421,8 +3424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8504640" y="27711360"/>
-          <a:ext cx="476280" cy="390240"/>
+          <a:off x="8517240" y="28199160"/>
+          <a:ext cx="475920" cy="389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3438,14 +3441,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>116640</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>652320</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:colOff>651960</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3458,8 +3461,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7688880" y="28276560"/>
-          <a:ext cx="535680" cy="482760"/>
+          <a:off x="7700400" y="28764000"/>
+          <a:ext cx="535320" cy="482400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3475,13 +3478,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>834480</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>184320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>757080</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:colOff>756720</xdr:colOff>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3495,8 +3498,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8406720" y="28794240"/>
-          <a:ext cx="764280" cy="492840"/>
+          <a:off x="8418240" y="29282040"/>
+          <a:ext cx="765000" cy="492480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3512,14 +3515,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>70200</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:colOff>588960</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3532,8 +3535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7642440" y="29467440"/>
-          <a:ext cx="519120" cy="455400"/>
+          <a:off x="7653960" y="29954880"/>
+          <a:ext cx="518760" cy="455040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3549,13 +3552,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>119160</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>658800</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:colOff>658440</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3569,8 +3572,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8533080" y="29977200"/>
-          <a:ext cx="539640" cy="428040"/>
+          <a:off x="8545680" y="30465000"/>
+          <a:ext cx="539280" cy="427680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84240</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666720</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Image 71" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8510760" y="23864760"/>
+          <a:ext cx="582480" cy="582480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3590,13 +3630,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O230"/>
+  <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A174" activeCellId="0" sqref="A174"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L139" activeCellId="0" sqref="L139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -4919,18 +4959,15 @@
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="9"/>
     </row>
-    <row r="138" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="n">
+    <row r="138" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="14" t="n">
         <f aca="false">A135+1</f>
         <v>43</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="O138" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="9"/>
@@ -4938,8 +4975,8 @@
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="9"/>
     </row>
-    <row r="141" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10" t="n">
+    <row r="141" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="12" t="n">
         <f aca="false">A138+1</f>
         <v>44</v>
       </c>
@@ -4970,16 +5007,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="9"/>
     </row>
     <row r="147" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="15" t="n">
+      <c r="A147" s="10" t="n">
         <f aca="false">A144+1</f>
         <v>46</v>
       </c>
@@ -4992,23 +5027,20 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="14"/>
-      <c r="B148" s="0" t="s">
-        <v>162</v>
-      </c>
+      <c r="A148" s="15"/>
       <c r="D148" s="9"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="14"/>
+      <c r="A149" s="15"/>
       <c r="D149" s="9"/>
     </row>
     <row r="150" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="15" t="n">
+      <c r="A150" s="16" t="n">
         <f aca="false">A147+1</f>
         <v>47</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D150" s="11"/>
       <c r="O150" s="12" t="n">
@@ -5016,23 +5048,23 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14"/>
-      <c r="B151" s="0" t="s">
+      <c r="A151" s="15"/>
+      <c r="B151" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D151" s="9"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="14"/>
+      <c r="A152" s="15"/>
       <c r="D152" s="9"/>
     </row>
     <row r="153" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="15" t="n">
+      <c r="A153" s="16" t="n">
         <f aca="false">A150+1</f>
         <v>48</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D153" s="11"/>
       <c r="O153" s="12" t="n">
@@ -5040,23 +5072,23 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="14"/>
-      <c r="B154" s="0" t="s">
-        <v>162</v>
+      <c r="A154" s="15"/>
+      <c r="B154" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="D154" s="9"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="14"/>
+      <c r="A155" s="15"/>
       <c r="D155" s="9"/>
     </row>
     <row r="156" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="15" t="n">
+      <c r="A156" s="16" t="n">
         <f aca="false">A153+1</f>
         <v>49</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D156" s="11"/>
       <c r="O156" s="12" t="n">
@@ -5064,18 +5096,18 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="14"/>
-      <c r="B157" s="0" t="s">
+      <c r="A157" s="15"/>
+      <c r="B157" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D157" s="9"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14"/>
+      <c r="A158" s="15"/>
       <c r="D158" s="9"/>
     </row>
     <row r="159" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="15" t="n">
+      <c r="A159" s="16" t="n">
         <f aca="false">A156+1</f>
         <v>50</v>
       </c>
@@ -5083,13 +5115,19 @@
         <v>165</v>
       </c>
       <c r="D159" s="11"/>
+      <c r="O159" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="14"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="D160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="14"/>
+      <c r="A161" s="15"/>
       <c r="D161" s="9"/>
     </row>
     <row r="162" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5097,14 +5135,17 @@
         <f aca="false">A159+1</f>
         <v>51</v>
       </c>
+      <c r="B162" s="12" t="s">
+        <v>166</v>
+      </c>
       <c r="D162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14"/>
+      <c r="A163" s="15"/>
       <c r="D163" s="9"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="14"/>
+      <c r="A164" s="15"/>
       <c r="D164" s="9"/>
     </row>
     <row r="165" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,11 +5156,11 @@
       <c r="D165" s="11"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14"/>
+      <c r="A166" s="15"/>
       <c r="D166" s="9"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14"/>
+      <c r="A167" s="15"/>
       <c r="D167" s="9"/>
     </row>
     <row r="168" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,11 +5171,11 @@
       <c r="D168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="14"/>
+      <c r="A169" s="15"/>
       <c r="D169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14"/>
+      <c r="A170" s="15"/>
       <c r="D170" s="9"/>
     </row>
     <row r="171" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,292 +5186,283 @@
       <c r="D171" s="11"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14"/>
+      <c r="A172" s="15"/>
       <c r="D172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14"/>
+      <c r="A173" s="15"/>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18" t="n">
+    <row r="174" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="16" t="n">
+        <f aca="false">A171+1</f>
+        <v>55</v>
+      </c>
+      <c r="D174" s="11"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="15"/>
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="15"/>
+      <c r="D176" s="9"/>
+    </row>
+    <row r="177" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="18" t="n">
         <f aca="false">SUM(M12:M116)</f>
         <v>76</v>
       </c>
-      <c r="N174" s="18" t="n">
+      <c r="N177" s="18" t="n">
         <f aca="false">SUM(N12:N119)</f>
         <v>62</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="19" t="n">
+    <row r="181" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B181" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19" t="s">
+      <c r="B184" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="20" t="s">
+      <c r="C184" s="19"/>
+      <c r="D184" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="19"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D182" s="9" t="s">
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="20" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="184" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="21" t="n">
-        <f aca="false">A181+1</f>
-        <v>2</v>
-      </c>
-      <c r="B184" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E184" s="21"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="I184" s="21"/>
-      <c r="J184" s="21"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="21"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="19"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="19" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="187" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="21" t="n">
         <f aca="false">A184+1</f>
-        <v>3</v>
-      </c>
-      <c r="B187" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="19"/>
-      <c r="L187" s="19"/>
+      <c r="I187" s="21"/>
+      <c r="J187" s="21"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="21"/>
+      <c r="M187" s="21"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="19" t="n">
+        <f aca="false">A187+1</f>
+        <v>3</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="20" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="190" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="21" t="n">
-        <f aca="false">A187+1</f>
-        <v>4</v>
-      </c>
-      <c r="B190" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E190" s="21"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="I190" s="21"/>
-      <c r="J190" s="21"/>
-      <c r="K190" s="21"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="21"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="19"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="193" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="21" t="n">
+        <f aca="false">A190+1</f>
+        <v>4</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="22" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="19" t="n">
-        <f aca="false">A190+1</f>
+      <c r="I193" s="21"/>
+      <c r="J193" s="21"/>
+      <c r="K193" s="21"/>
+      <c r="L193" s="21"/>
+      <c r="M193" s="21"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D194" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="19" t="n">
+        <f aca="false">A193+1</f>
         <v>5</v>
       </c>
-      <c r="B193" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19" t="s">
+      <c r="B196" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="20" t="s">
+      <c r="C196" s="19"/>
+      <c r="D196" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
-    </row>
-    <row r="196" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="21" t="n">
-        <f aca="false">A193+1</f>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I196" s="19"/>
+      <c r="J196" s="19"/>
+      <c r="K196" s="19"/>
+      <c r="L196" s="19"/>
+      <c r="M196" s="19"/>
+    </row>
+    <row r="199" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="21" t="n">
+        <f aca="false">A196+1</f>
         <v>6</v>
       </c>
-      <c r="B196" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21" t="s">
+      <c r="B199" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E196" s="21"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="22" t="s">
+      <c r="C199" s="21"/>
+      <c r="D199" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="I196" s="21"/>
-      <c r="J196" s="21"/>
-      <c r="K196" s="21"/>
-      <c r="L196" s="21"/>
-      <c r="M196" s="21"/>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="19" t="n">
-        <f aca="false">A196+1</f>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I199" s="21"/>
+      <c r="J199" s="21"/>
+      <c r="K199" s="21"/>
+      <c r="L199" s="21"/>
+      <c r="M199" s="21"/>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="19" t="n">
+        <f aca="false">A199+1</f>
         <v>7</v>
       </c>
-      <c r="B199" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19" t="s">
+      <c r="B202" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="20" t="s">
+      <c r="C202" s="19"/>
+      <c r="D202" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-    </row>
-    <row r="202" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="21" t="n">
-        <f aca="false">A199+1</f>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I202" s="19"/>
+      <c r="J202" s="19"/>
+      <c r="K202" s="19"/>
+      <c r="L202" s="19"/>
+      <c r="M202" s="19"/>
+    </row>
+    <row r="205" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="21" t="n">
+        <f aca="false">A202+1</f>
         <v>8</v>
       </c>
-      <c r="B202" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21" t="s">
+      <c r="B205" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="22" t="s">
+      <c r="C205" s="21"/>
+      <c r="D205" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I202" s="21"/>
-      <c r="J202" s="21"/>
-      <c r="K202" s="21"/>
-      <c r="L202" s="21"/>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="19" t="n">
-        <f aca="false">A202+1</f>
-        <v>9</v>
-      </c>
-      <c r="B205" s="19" t="s">
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
+      <c r="I205" s="21"/>
+      <c r="J205" s="21"/>
+      <c r="K205" s="21"/>
+      <c r="L205" s="21"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="19" t="n">
         <f aca="false">A205+1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I208" s="19"/>
       <c r="J208" s="19"/>
@@ -5438,33 +5470,23 @@
       <c r="L208" s="19"/>
       <c r="M208" s="19"/>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D209" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D210" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="19" t="n">
         <f aca="false">A208+1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C211" s="19"/>
       <c r="D211" s="19" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="19"/>
       <c r="G211" s="19"/>
       <c r="H211" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I211" s="19"/>
       <c r="J211" s="19"/>
@@ -5474,55 +5496,89 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D213" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="19" t="n">
+        <f aca="false">A211+1</f>
+        <v>11</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="20" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="216" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="21" t="n">
-        <f aca="false">A211+1</f>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="19"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D215" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="219" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="21" t="n">
+        <f aca="false">A214+1</f>
         <v>12</v>
       </c>
-      <c r="B216" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D216" s="21" t="s">
+      <c r="B219" s="21" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="221" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="21" t="n">
-        <f aca="false">A216+1</f>
+      <c r="D219" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="224" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="21" t="n">
+        <f aca="false">A219+1</f>
         <v>13</v>
-      </c>
-      <c r="B221" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="224" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="22" t="n">
-        <f aca="false">A221+1</f>
-        <v>14</v>
       </c>
       <c r="B224" s="23" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="227" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="24" t="n">
+    <row r="227" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="22" t="n">
         <f aca="false">A224+1</f>
-        <v>15</v>
-      </c>
-      <c r="B227" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="230" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="24" t="n">
         <f aca="false">A227+1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B230" s="25" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="233" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="24" t="n">
+        <f aca="false">A230+1</f>
+        <v>16</v>
+      </c>
+      <c r="B233" s="25" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="213">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t xml:space="preserve">inserted into the slot at the bottom plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kb_set</t>
   </si>
   <si>
     <t xml:space="preserve">for correct fixation of the movable mesh</t>
@@ -1004,9 +1007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>361800</xdr:colOff>
+      <xdr:colOff>361440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1019,8 +1022,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658360" y="2709360"/>
-          <a:ext cx="972360" cy="590400"/>
+          <a:off x="8670960" y="2709360"/>
+          <a:ext cx="973440" cy="590040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,9 +1044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1056,23 +1059,23 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505280" y="3251160"/>
-          <a:ext cx="1002600" cy="590400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
+          <a:off x="7515720" y="3251160"/>
+          <a:ext cx="1004400" cy="590040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>298080</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
@@ -1080,7 +1083,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>436680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1093,8 +1096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8852760" y="3590280"/>
-          <a:ext cx="723960" cy="981360"/>
+          <a:off x="8866440" y="3589920"/>
+          <a:ext cx="723600" cy="982440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,9 +1118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
+      <xdr:colOff>150120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1130,8 +1133,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7604640" y="4173840"/>
-          <a:ext cx="972360" cy="857160"/>
+          <a:off x="7616160" y="4173840"/>
+          <a:ext cx="973080" cy="856800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,13 +1151,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>283320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:rowOff>160920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1167,8 +1170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="8709840" y="4694040"/>
-          <a:ext cx="247680" cy="942840"/>
+          <a:off x="8722080" y="4694040"/>
+          <a:ext cx="247320" cy="942480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,9 +1192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>611280</xdr:colOff>
+      <xdr:colOff>610920</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1204,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="8023680" y="5121360"/>
-          <a:ext cx="171360" cy="942840"/>
+          <a:off x="8035200" y="5121720"/>
+          <a:ext cx="171000" cy="942480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1226,9 +1229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1241,8 +1244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8340840" y="5889960"/>
-          <a:ext cx="1002240" cy="533160"/>
+          <a:off x="8352360" y="5889960"/>
+          <a:ext cx="1004400" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1263,9 +1266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>129240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1278,8 +1281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7583760" y="6378120"/>
-          <a:ext cx="972360" cy="495360"/>
+          <a:off x="7595280" y="6378120"/>
+          <a:ext cx="973080" cy="495000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1300,9 +1303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1315,8 +1318,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8716680" y="6922080"/>
-          <a:ext cx="787680" cy="578880"/>
+          <a:off x="8729280" y="6922080"/>
+          <a:ext cx="788760" cy="578520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,9 +1340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>656280</xdr:colOff>
+      <xdr:colOff>655920</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1352,8 +1355,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7636680" y="7496640"/>
-          <a:ext cx="603360" cy="457920"/>
+          <a:off x="7648200" y="7496640"/>
+          <a:ext cx="603000" cy="457560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,9 +1377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>193680</xdr:colOff>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,8 +1392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8798400" y="7939440"/>
-          <a:ext cx="664200" cy="614520"/>
+          <a:off x="8811000" y="7939440"/>
+          <a:ext cx="665280" cy="614160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1411,9 +1414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>144000</xdr:colOff>
+      <xdr:colOff>143640</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1426,8 +1429,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7598160" y="9519120"/>
-          <a:ext cx="972360" cy="637920"/>
+          <a:off x="7609680" y="9519120"/>
+          <a:ext cx="973080" cy="637560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1448,9 +1451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,8 +1466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7548120" y="10543680"/>
-          <a:ext cx="993600" cy="685800"/>
+          <a:off x="7558560" y="10543680"/>
+          <a:ext cx="995400" cy="685440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,9 +1488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1500,8 +1503,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8516160" y="10917360"/>
-          <a:ext cx="981360" cy="761760"/>
+          <a:off x="8528760" y="10917360"/>
+          <a:ext cx="982440" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,9 +1525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>108360</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1537,8 +1540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7541280" y="11630520"/>
-          <a:ext cx="993600" cy="647640"/>
+          <a:off x="7551720" y="11630520"/>
+          <a:ext cx="995400" cy="647280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1559,9 +1562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1574,8 +1577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524440" y="12015720"/>
-          <a:ext cx="972720" cy="619200"/>
+          <a:off x="8537040" y="12015720"/>
+          <a:ext cx="973800" cy="618840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,9 +1599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
+      <xdr:colOff>87480</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1611,8 +1614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7511760" y="12742200"/>
-          <a:ext cx="1002600" cy="390600"/>
+          <a:off x="7522200" y="12742200"/>
+          <a:ext cx="1004400" cy="390240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1633,9 +1636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>717840</xdr:colOff>
+      <xdr:colOff>717480</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1648,8 +1651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601480" y="12918240"/>
-          <a:ext cx="542880" cy="942840"/>
+          <a:off x="8614080" y="12918240"/>
+          <a:ext cx="542520" cy="942480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1670,9 +1673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>773280</xdr:colOff>
+      <xdr:colOff>772920</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1685,8 +1688,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7808040" y="13630320"/>
-          <a:ext cx="549000" cy="492480"/>
+          <a:off x="7819560" y="13630320"/>
+          <a:ext cx="548640" cy="492120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,9 +1710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>735840</xdr:colOff>
+      <xdr:colOff>735480</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1722,8 +1725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8733960" y="15021360"/>
-          <a:ext cx="428400" cy="942840"/>
+          <a:off x="8746560" y="15021360"/>
+          <a:ext cx="428040" cy="942480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1744,9 +1747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1759,8 +1762,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7525800" y="33334560"/>
-          <a:ext cx="1002600" cy="676080"/>
+          <a:off x="7536240" y="33334560"/>
+          <a:ext cx="1004400" cy="675720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1781,9 +1784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>821520</xdr:colOff>
+      <xdr:colOff>821160</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1796,8 +1799,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8707680" y="34914600"/>
-          <a:ext cx="540360" cy="552240"/>
+          <a:off x="8720280" y="34914600"/>
+          <a:ext cx="540000" cy="551880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1818,9 +1821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>490320</xdr:colOff>
+      <xdr:colOff>489960</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1833,8 +1836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8759880" y="37452960"/>
-          <a:ext cx="999360" cy="761760"/>
+          <a:off x="8772480" y="37452960"/>
+          <a:ext cx="1000440" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1855,9 +1858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>185400</xdr:colOff>
+      <xdr:colOff>185040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1870,8 +1873,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7422840" y="2145240"/>
-          <a:ext cx="1189080" cy="857880"/>
+          <a:off x="7433280" y="2145240"/>
+          <a:ext cx="1190880" cy="857520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1892,9 +1895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571320</xdr:colOff>
+      <xdr:colOff>570960</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1907,8 +1910,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7822800" y="16785360"/>
-          <a:ext cx="332280" cy="448560"/>
+          <a:off x="7834320" y="16785360"/>
+          <a:ext cx="331920" cy="448200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1929,9 +1932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>486720</xdr:colOff>
+      <xdr:colOff>486360</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1944,8 +1947,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8595360" y="33809040"/>
-          <a:ext cx="1160280" cy="781920"/>
+          <a:off x="8607960" y="33809040"/>
+          <a:ext cx="1161360" cy="781560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,9 +1969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>388080</xdr:colOff>
+      <xdr:colOff>387720</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1981,8 +1984,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686080" y="8922600"/>
-          <a:ext cx="970920" cy="731520"/>
+          <a:off x="8698680" y="8922600"/>
+          <a:ext cx="972000" cy="731160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2003,9 +2006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2018,8 +2021,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7846200" y="18814680"/>
-          <a:ext cx="267120" cy="389520"/>
+          <a:off x="7857720" y="18814680"/>
+          <a:ext cx="266760" cy="389160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2040,9 +2043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>718920</xdr:colOff>
+      <xdr:colOff>718560</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2055,8 +2058,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8763480" y="19337040"/>
-          <a:ext cx="381960" cy="344160"/>
+          <a:off x="8776080" y="19337040"/>
+          <a:ext cx="381600" cy="343800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2077,9 +2080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>694440</xdr:colOff>
+      <xdr:colOff>694080</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2092,8 +2095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8780040" y="20395800"/>
-          <a:ext cx="340920" cy="307440"/>
+          <a:off x="8792640" y="20395800"/>
+          <a:ext cx="340560" cy="307080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2114,9 +2117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2129,8 +2132,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7227000" y="19506240"/>
-          <a:ext cx="1403280" cy="946080"/>
+          <a:off x="7237440" y="19506240"/>
+          <a:ext cx="1405080" cy="945720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2151,9 +2154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>153720</xdr:colOff>
+      <xdr:colOff>153360</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2166,8 +2169,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9052560" y="32676480"/>
-          <a:ext cx="1212840" cy="946080"/>
+          <a:off x="9065160" y="32676480"/>
+          <a:ext cx="1215360" cy="945720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2188,9 +2191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>682200</xdr:colOff>
+      <xdr:colOff>681840</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2203,8 +2206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9557280" y="34901280"/>
-          <a:ext cx="393840" cy="1422360"/>
+          <a:off x="9571320" y="34901280"/>
+          <a:ext cx="393480" cy="1422000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,9 +2228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
+      <xdr:colOff>634680</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2240,8 +2243,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8515080" y="22360320"/>
-          <a:ext cx="546480" cy="517680"/>
+          <a:off x="8527680" y="22360320"/>
+          <a:ext cx="546120" cy="517320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2262,9 +2265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>171000</xdr:colOff>
+      <xdr:colOff>170640</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2277,8 +2280,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7930800" y="22758120"/>
-          <a:ext cx="666720" cy="601200"/>
+          <a:off x="7942320" y="22758120"/>
+          <a:ext cx="667440" cy="600840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2299,9 +2302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
+      <xdr:colOff>550800</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2314,8 +2317,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7549200" y="23332320"/>
-          <a:ext cx="585720" cy="414000"/>
+          <a:off x="7559640" y="23332320"/>
+          <a:ext cx="586440" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2336,9 +2339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>706320</xdr:colOff>
+      <xdr:colOff>705960</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2351,8 +2354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7829280" y="24353280"/>
-          <a:ext cx="460800" cy="530280"/>
+          <a:off x="7840800" y="24353280"/>
+          <a:ext cx="460440" cy="529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2373,9 +2376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2388,8 +2391,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8447760" y="24688440"/>
-          <a:ext cx="747000" cy="616320"/>
+          <a:off x="8460360" y="24688440"/>
+          <a:ext cx="746640" cy="615960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,9 +2413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>404640</xdr:colOff>
+      <xdr:colOff>404280</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2425,8 +2428,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7655040" y="20842920"/>
-          <a:ext cx="333360" cy="657000"/>
+          <a:off x="7666560" y="20842920"/>
+          <a:ext cx="333000" cy="656640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,9 +2450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
+      <xdr:colOff>146520</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2462,8 +2465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6749280" y="40617720"/>
-          <a:ext cx="1824120" cy="1369080"/>
+          <a:off x="6759720" y="40617720"/>
+          <a:ext cx="1825920" cy="1368720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2484,9 +2487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2499,8 +2502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8426520" y="21257280"/>
-          <a:ext cx="878040" cy="723600"/>
+          <a:off x="8439120" y="21257280"/>
+          <a:ext cx="879120" cy="723240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2521,9 +2524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>646560</xdr:colOff>
+      <xdr:colOff>646200</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2536,8 +2539,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7668360" y="21745080"/>
-          <a:ext cx="561960" cy="677880"/>
+          <a:off x="7679880" y="21745080"/>
+          <a:ext cx="561600" cy="677520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2558,9 +2561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>204480</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2573,8 +2576,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6190560" y="38016000"/>
-          <a:ext cx="2440800" cy="1157040"/>
+          <a:off x="6199200" y="38016000"/>
+          <a:ext cx="2444400" cy="1156680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2595,9 +2598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>789480</xdr:colOff>
+      <xdr:colOff>789120</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2610,8 +2613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8652240" y="38603880"/>
-          <a:ext cx="1406160" cy="1297440"/>
+          <a:off x="8664840" y="38603880"/>
+          <a:ext cx="1407240" cy="1297080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2632,9 +2635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>182160</xdr:colOff>
+      <xdr:colOff>181800</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2647,8 +2650,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7044120" y="39125160"/>
-          <a:ext cx="1564560" cy="1269720"/>
+          <a:off x="7054560" y="39125160"/>
+          <a:ext cx="1566360" cy="1269360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2669,9 +2672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>443880</xdr:colOff>
+      <xdr:colOff>443520</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2684,8 +2687,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8623440" y="39946320"/>
-          <a:ext cx="1932120" cy="794880"/>
+          <a:off x="8636040" y="39946320"/>
+          <a:ext cx="1934640" cy="794520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2706,9 +2709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>213</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2721,8 +2724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7157160" y="36685440"/>
-          <a:ext cx="1433520" cy="1008000"/>
+          <a:off x="7167600" y="36685440"/>
+          <a:ext cx="1435320" cy="1007640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2743,9 +2746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>238320</xdr:colOff>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2758,8 +2761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524800" y="36143640"/>
-          <a:ext cx="982440" cy="950760"/>
+          <a:off x="8537400" y="36143640"/>
+          <a:ext cx="983520" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2780,9 +2783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2795,8 +2798,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524000" y="35695080"/>
-          <a:ext cx="909720" cy="950760"/>
+          <a:off x="7534440" y="35695080"/>
+          <a:ext cx="911520" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2817,9 +2820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>199440</xdr:colOff>
+      <xdr:colOff>199080</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2832,8 +2835,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7192440" y="34229880"/>
-          <a:ext cx="1433520" cy="912600"/>
+          <a:off x="7202880" y="34229880"/>
+          <a:ext cx="1435320" cy="912240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2854,9 +2857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>41040</xdr:colOff>
+      <xdr:colOff>40680</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2869,8 +2872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7065360" y="8251920"/>
-          <a:ext cx="1402200" cy="1051920"/>
+          <a:off x="7075800" y="8251920"/>
+          <a:ext cx="1404000" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2891,9 +2894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>372600</xdr:colOff>
+      <xdr:colOff>372240</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2906,8 +2909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8687520" y="9804240"/>
-          <a:ext cx="954000" cy="750600"/>
+          <a:off x="8700120" y="9804240"/>
+          <a:ext cx="955080" cy="750240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,9 +2931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>830520</xdr:colOff>
+      <xdr:colOff>830160</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2943,8 +2946,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8515080" y="14024520"/>
-          <a:ext cx="741960" cy="704880"/>
+          <a:off x="8527680" y="14024520"/>
+          <a:ext cx="741600" cy="704520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,9 +2968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>831240</xdr:colOff>
+      <xdr:colOff>830880</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2980,8 +2983,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7689240" y="14540760"/>
-          <a:ext cx="725760" cy="806760"/>
+          <a:off x="7700760" y="14540760"/>
+          <a:ext cx="725400" cy="806400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3002,9 +3005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>612720</xdr:colOff>
+      <xdr:colOff>612360</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3017,8 +3020,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7738920" y="15579000"/>
-          <a:ext cx="457560" cy="763560"/>
+          <a:off x="7750440" y="15579000"/>
+          <a:ext cx="457200" cy="763200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3039,9 +3042,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3054,8 +3057,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8532360" y="16046280"/>
-          <a:ext cx="499680" cy="757800"/>
+          <a:off x="8544960" y="16046280"/>
+          <a:ext cx="499320" cy="757440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3076,9 +3079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>765360</xdr:colOff>
+      <xdr:colOff>765000</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3091,8 +3094,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7521840" y="17722440"/>
-          <a:ext cx="827280" cy="686520"/>
+          <a:off x="7532280" y="17722440"/>
+          <a:ext cx="828000" cy="686160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3113,9 +3116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>789120</xdr:colOff>
+      <xdr:colOff>788760</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3128,8 +3131,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8417520" y="18182160"/>
-          <a:ext cx="798120" cy="646920"/>
+          <a:off x="8429040" y="18182160"/>
+          <a:ext cx="798840" cy="646560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3150,9 +3153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704520</xdr:colOff>
+      <xdr:colOff>704160</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3165,8 +3168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8520840" y="25913160"/>
-          <a:ext cx="610200" cy="475560"/>
+          <a:off x="8533440" y="25913160"/>
+          <a:ext cx="609840" cy="475200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3187,9 +3190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>690120</xdr:colOff>
+      <xdr:colOff>689760</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3202,8 +3205,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7703640" y="26392320"/>
-          <a:ext cx="570240" cy="507240"/>
+          <a:off x="7715160" y="26392320"/>
+          <a:ext cx="569880" cy="506880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3224,9 +3227,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>547200</xdr:colOff>
+      <xdr:colOff>546840</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3239,8 +3242,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8510760" y="26982000"/>
-          <a:ext cx="462960" cy="495360"/>
+          <a:off x="8523360" y="26982000"/>
+          <a:ext cx="462600" cy="495000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3261,9 +3264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>711000</xdr:colOff>
+      <xdr:colOff>710640</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3276,8 +3279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7738920" y="27559800"/>
-          <a:ext cx="555840" cy="522360"/>
+          <a:off x="7750440" y="27559800"/>
+          <a:ext cx="555480" cy="522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3298,9 +3301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3313,8 +3316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7573320" y="25349400"/>
-          <a:ext cx="686520" cy="450720"/>
+          <a:off x="7583760" y="25349400"/>
+          <a:ext cx="687240" cy="450360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3335,9 +3338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>290160</xdr:colOff>
+      <xdr:colOff>289800</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3350,8 +3353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7462800" y="32133600"/>
-          <a:ext cx="1253880" cy="919800"/>
+          <a:off x="7473240" y="32133600"/>
+          <a:ext cx="1255680" cy="919440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3372,9 +3375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>48600</xdr:colOff>
+      <xdr:colOff>48240</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3387,8 +3390,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8347320" y="17117280"/>
-          <a:ext cx="970200" cy="767880"/>
+          <a:off x="8358840" y="17117280"/>
+          <a:ext cx="972360" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3409,9 +3412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>566640</xdr:colOff>
+      <xdr:colOff>566280</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3424,8 +3427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8517240" y="28199160"/>
-          <a:ext cx="475920" cy="389880"/>
+          <a:off x="8529840" y="28199160"/>
+          <a:ext cx="475560" cy="389520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3446,9 +3449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>651960</xdr:colOff>
+      <xdr:colOff>651600</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3461,8 +3464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7700400" y="28764000"/>
-          <a:ext cx="535320" cy="482400"/>
+          <a:off x="7711920" y="28764000"/>
+          <a:ext cx="534960" cy="482040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3483,9 +3486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>756720</xdr:colOff>
+      <xdr:colOff>756360</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3498,8 +3501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8418240" y="29282040"/>
-          <a:ext cx="765000" cy="492480"/>
+          <a:off x="8429760" y="29282040"/>
+          <a:ext cx="765720" cy="492120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3520,9 +3523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>588960</xdr:colOff>
+      <xdr:colOff>588600</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3535,8 +3538,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7653960" y="29954880"/>
-          <a:ext cx="518760" cy="455040"/>
+          <a:off x="7665480" y="29954880"/>
+          <a:ext cx="518400" cy="454680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3557,9 +3560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>658440</xdr:colOff>
+      <xdr:colOff>658080</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3572,8 +3575,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8545680" y="30465000"/>
-          <a:ext cx="539280" cy="427680"/>
+          <a:off x="8558280" y="30465000"/>
+          <a:ext cx="538920" cy="427320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3594,9 +3597,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666720</xdr:colOff>
+      <xdr:colOff>666360</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3609,8 +3612,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8510760" y="23864760"/>
-          <a:ext cx="582480" cy="582480"/>
+          <a:off x="8523360" y="23864760"/>
+          <a:ext cx="582120" cy="582120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3632,11 +3635,11 @@
   </sheetPr>
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L139" activeCellId="0" sqref="L139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H126" activeCellId="0" sqref="H126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -4865,15 +4868,18 @@
       <c r="D123" s="12" t="s">
         <v>149</v>
       </c>
+      <c r="H123" s="12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,7 +4888,7 @@
         <v>39</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>149</v>
@@ -4890,12 +4896,12 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,10 +4910,10 @@
         <v>40</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O129" s="12" t="n">
         <v>2</v>
@@ -4925,10 +4931,10 @@
         <v>41</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O132" s="12" t="n">
         <v>6</v>
@@ -4946,7 +4952,7 @@
         <v>42</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D135" s="11"/>
       <c r="O135" s="12" t="n">
@@ -4965,7 +4971,7 @@
         <v>43</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D138" s="11"/>
     </row>
@@ -4981,7 +4987,7 @@
         <v>44</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D141" s="11"/>
       <c r="O141" s="12" t="n">
@@ -5000,7 +5006,7 @@
         <v>45</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D144" s="11"/>
       <c r="O144" s="12" t="n">
@@ -5019,7 +5025,7 @@
         <v>46</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D147" s="11"/>
       <c r="O147" s="12" t="n">
@@ -5040,7 +5046,7 @@
         <v>47</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D150" s="11"/>
       <c r="O150" s="12" t="n">
@@ -5050,7 +5056,7 @@
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="15"/>
       <c r="B151" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D151" s="9"/>
     </row>
@@ -5064,7 +5070,7 @@
         <v>48</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D153" s="11"/>
       <c r="O153" s="12" t="n">
@@ -5074,7 +5080,7 @@
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15"/>
       <c r="B154" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D154" s="9"/>
     </row>
@@ -5088,7 +5094,7 @@
         <v>49</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D156" s="11"/>
       <c r="O156" s="12" t="n">
@@ -5098,7 +5104,7 @@
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15"/>
       <c r="B157" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D157" s="9"/>
     </row>
@@ -5112,7 +5118,7 @@
         <v>50</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D159" s="11"/>
       <c r="O159" s="12" t="n">
@@ -5122,7 +5128,7 @@
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15"/>
       <c r="B160" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D160" s="9"/>
     </row>
@@ -5136,7 +5142,7 @@
         <v>51</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D162" s="11"/>
     </row>
@@ -5210,7 +5216,7 @@
     </row>
     <row r="177" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -5234,7 +5240,7 @@
     </row>
     <row r="181" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,17 +5248,17 @@
         <v>1</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C184" s="19"/>
       <c r="D184" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
       <c r="H184" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
@@ -5262,7 +5268,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,17 +5277,17 @@
         <v>2</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C187" s="21"/>
       <c r="D187" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E187" s="21"/>
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
       <c r="H187" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I187" s="21"/>
       <c r="J187" s="21"/>
@@ -5291,7 +5297,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,17 +5306,17 @@
         <v>3</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C190" s="19"/>
       <c r="D190" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
       <c r="H190" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
@@ -5319,7 +5325,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,17 +5334,17 @@
         <v>4</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C193" s="21"/>
       <c r="D193" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
       <c r="H193" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I193" s="21"/>
       <c r="J193" s="21"/>
@@ -5348,7 +5354,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D194" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,17 +5363,17 @@
         <v>5</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C196" s="19"/>
       <c r="D196" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
       <c r="H196" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
@@ -5381,17 +5387,17 @@
         <v>6</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C199" s="21"/>
       <c r="D199" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
       <c r="H199" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I199" s="21"/>
       <c r="J199" s="21"/>
@@ -5405,17 +5411,17 @@
         <v>7</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C202" s="19"/>
       <c r="D202" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I202" s="19"/>
       <c r="J202" s="19"/>
@@ -5429,17 +5435,17 @@
         <v>8</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
       <c r="H205" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
@@ -5452,17 +5458,17 @@
         <v>9</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I208" s="19"/>
       <c r="J208" s="19"/>
@@ -5476,17 +5482,17 @@
         <v>10</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C211" s="19"/>
       <c r="D211" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="19"/>
       <c r="G211" s="19"/>
       <c r="H211" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I211" s="19"/>
       <c r="J211" s="19"/>
@@ -5496,12 +5502,12 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D213" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,17 +5516,17 @@
         <v>11</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C214" s="19"/>
       <c r="D214" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="19"/>
       <c r="G214" s="19"/>
       <c r="H214" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I214" s="19"/>
       <c r="J214" s="19"/>
@@ -5530,7 +5536,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="219" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,10 +5545,10 @@
         <v>12</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,7 +5557,7 @@
         <v>13</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,7 +5566,7 @@
         <v>14</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5569,7 +5575,7 @@
         <v>15</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="233" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5578,7 +5584,7 @@
         <v>16</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="231">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -88,6 +88,42 @@
     <t xml:space="preserve">LEDs and keyboards</t>
   </si>
   <si>
+    <t xml:space="preserve">joystick tip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boll_tilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact on the tip of the joystick for connection to a capacitive sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joystick case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joystic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft joystick shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tip of the pyramid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tilt_toch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact at the tip of the pyramid for connection to a capacitive sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joystick frame ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel_ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a hard ring inside a soft shell that holds the edges</t>
+  </si>
+  <si>
     <t xml:space="preserve">fixing ring nut</t>
   </si>
   <si>
@@ -499,9 +535,15 @@
     <t xml:space="preserve">mouse button</t>
   </si>
   <si>
+    <t xml:space="preserve">standard non-locking mouse button</t>
+  </si>
+  <si>
     <t xml:space="preserve">power switch</t>
   </si>
   <si>
+    <t xml:space="preserve">latching switch for power supply of battery circuit</t>
+  </si>
+  <si>
     <t xml:space="preserve">mouse encoder</t>
   </si>
   <si>
@@ -526,6 +568,12 @@
     <t xml:space="preserve">resistor</t>
   </si>
   <si>
+    <t xml:space="preserve">power stabilizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacitor</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of details</t>
   </si>
   <si>
@@ -595,6 +643,9 @@
     <t xml:space="preserve">magnet_with_holder</t>
   </si>
   <si>
+    <t xml:space="preserve">assembly of pyramids with joysticks</t>
+  </si>
+  <si>
     <t xml:space="preserve">sheathed rod</t>
   </si>
   <si>
@@ -656,6 +707,9 @@
   </si>
   <si>
     <t xml:space="preserve">LED board </t>
+  </si>
+  <si>
+    <t xml:space="preserve">back  PCB</t>
   </si>
   <si>
     <t xml:space="preserve">Raspderry Pi Pico </t>
@@ -819,7 +873,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -872,11 +926,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,11 +970,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1001,19 +1063,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:colOff>250560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 8" descr=""/>
+      <xdr:colOff>387360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1021,83 +1083,9 @@
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8670960" y="2709360"/>
-          <a:ext cx="973440" cy="590040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>764280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7515720" y="3251160"/>
-          <a:ext cx="1004400" cy="590040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>298080</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>436680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 12" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8866440" y="3589920"/>
-          <a:ext cx="723600" cy="982440"/>
+          <a:off x="8879040" y="5552640"/>
+          <a:ext cx="721800" cy="986400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,18 +1101,92 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>20880</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>150120</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 13" descr=""/>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667640" y="6124680"/>
+          <a:ext cx="977040" cy="855000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284040</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>529560</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="2059800">
+          <a:off x="8780400" y="6644160"/>
+          <a:ext cx="245520" cy="940680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439560</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>608760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1132,83 +1194,9 @@
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7616160" y="4173840"/>
-          <a:ext cx="973080" cy="856800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="2059800">
-          <a:off x="8722080" y="4694040"/>
-          <a:ext cx="247320" cy="942480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439920</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>610920</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 15" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="8035200" y="5121720"/>
-          <a:ext cx="171000" cy="942480"/>
+          <a:off x="8086320" y="7072920"/>
+          <a:ext cx="169200" cy="940680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1224,28 +1212,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>757080</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8352360" y="5889960"/>
-          <a:ext cx="1004400" cy="532800"/>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8403840" y="7840800"/>
+          <a:ext cx="1014120" cy="531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1261,28 +1249,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>107640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>129240</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7595280" y="6378120"/>
-          <a:ext cx="973080" cy="495000"/>
+      <xdr:colOff>127440</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7646760" y="8328960"/>
+          <a:ext cx="977040" cy="493200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1298,28 +1286,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>290160</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 18" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8729280" y="6922080"/>
-          <a:ext cx="788760" cy="578520"/>
+      <xdr:colOff>233280</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 18" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8786520" y="8872560"/>
+          <a:ext cx="792720" cy="576720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,28 +1323,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>52920</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>32040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 26" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7648200" y="7496640"/>
-          <a:ext cx="603000" cy="457560"/>
+      <xdr:colOff>654120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7699680" y="9447120"/>
+          <a:ext cx="601200" cy="455760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1372,28 +1360,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371880</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>193320</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8811000" y="7939440"/>
-          <a:ext cx="665280" cy="614160"/>
+      <xdr:colOff>191520</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 27" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8868240" y="9890280"/>
+          <a:ext cx="669240" cy="612360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1409,28 +1397,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>14400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>143640</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 30" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7609680" y="9519120"/>
-          <a:ext cx="973080" cy="637560"/>
+      <xdr:colOff>141840</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>112320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 30" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7661160" y="11469960"/>
+          <a:ext cx="977040" cy="635760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,28 +1434,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>807120</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>147960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 32" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7558560" y="10543680"/>
-          <a:ext cx="995400" cy="685440"/>
+      <xdr:colOff>113040</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604280" y="12494160"/>
+          <a:ext cx="1005120" cy="683640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,28 +1471,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 33" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8528760" y="10917360"/>
-          <a:ext cx="982440" cy="761400"/>
+      <xdr:colOff>226440</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 33" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8586000" y="12868200"/>
+          <a:ext cx="986400" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1520,28 +1508,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>800280</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>41040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 34" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7551720" y="11630520"/>
-          <a:ext cx="995400" cy="647280"/>
+      <xdr:colOff>106200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 34" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7597440" y="13581000"/>
+          <a:ext cx="1005120" cy="645480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,28 +1545,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>97920</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>73440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 35" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8537040" y="12015720"/>
-          <a:ext cx="973800" cy="618840"/>
+      <xdr:colOff>226080</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 35" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8594280" y="13966560"/>
+          <a:ext cx="977760" cy="617040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1594,28 +1582,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>770760</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 36" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7522200" y="12742200"/>
-          <a:ext cx="1004400" cy="390240"/>
+      <xdr:colOff>85680</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 36" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7567920" y="14693040"/>
+          <a:ext cx="1014120" cy="388440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,28 +1619,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>174960</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>717480</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 37" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8614080" y="12918240"/>
-          <a:ext cx="542520" cy="942480"/>
+      <xdr:colOff>715680</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 37" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8671320" y="14869080"/>
+          <a:ext cx="540720" cy="940680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,28 +1656,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>224280</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>141120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>772920</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 38" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7819560" y="13630320"/>
-          <a:ext cx="548640" cy="492120"/>
+      <xdr:colOff>771120</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 38" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7871040" y="15581160"/>
+          <a:ext cx="546840" cy="490320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1705,28 +1693,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>307440</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>175680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>735480</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 42" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8746560" y="15021360"/>
-          <a:ext cx="428040" cy="942480"/>
+      <xdr:colOff>733680</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 42" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8803800" y="16972200"/>
+          <a:ext cx="426240" cy="940680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1742,18 +1730,92 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 23" descr=""/>
+      <xdr:colOff>99720</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581960" y="35285040"/>
+          <a:ext cx="1014120" cy="673920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>237960</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622800</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 50" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734320" y="36939600"/>
+          <a:ext cx="384840" cy="393480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333360</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>115560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>488160</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 57" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1762,82 +1824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7536240" y="33334560"/>
-          <a:ext cx="1004400" cy="675720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>281160</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>821160</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 50" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8720280" y="34914600"/>
-          <a:ext cx="540000" cy="551880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333360</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>489960</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 57" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8772480" y="37452960"/>
-          <a:ext cx="1000440" cy="761400"/>
+          <a:off x="8829720" y="39891240"/>
+          <a:ext cx="1004400" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,23 +1846,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7433280" y="2145240"/>
-          <a:ext cx="1190880" cy="857520"/>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7479000" y="2145240"/>
+          <a:ext cx="1200600" cy="855720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1890,18 +1878,92 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>239040</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>39600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 45" descr=""/>
+      <xdr:colOff>569160</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7885800" y="18735840"/>
+          <a:ext cx="330120" cy="446400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>168840</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484560</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8665200" y="35759880"/>
+          <a:ext cx="1165320" cy="779760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259560</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385920</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1910,82 +1972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7834320" y="16785360"/>
-          <a:ext cx="331920" cy="448200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>486360</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 24" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8607960" y="33809040"/>
-          <a:ext cx="1161360" cy="781560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>259560</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>387720</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8698680" y="8922600"/>
-          <a:ext cx="972000" cy="731160"/>
+          <a:off x="8755920" y="10873080"/>
+          <a:ext cx="975960" cy="729360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2001,18 +1989,92 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>262440</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 5" descr=""/>
+      <xdr:colOff>527400</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7909200" y="20765160"/>
+          <a:ext cx="264960" cy="387360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336960</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>716760</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8833320" y="21287880"/>
+          <a:ext cx="379800" cy="342000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353520</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>692280</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>183600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2021,82 +2083,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7857720" y="18814680"/>
-          <a:ext cx="266760" cy="389160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>718560</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8776080" y="19337040"/>
-          <a:ext cx="381600" cy="343800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>353520</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>694080</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8792640" y="20395800"/>
-          <a:ext cx="340560" cy="307080"/>
+          <a:off x="8849880" y="22346640"/>
+          <a:ext cx="338760" cy="305280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2112,18 +2100,92 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>486000</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 11" descr=""/>
+      <xdr:colOff>201600</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7283160" y="21457080"/>
+          <a:ext cx="1414800" cy="943920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>626040</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>83160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9122400" y="34627320"/>
+          <a:ext cx="1224720" cy="943920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>632880</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>26280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 51" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2132,119 +2194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7237440" y="19506240"/>
-          <a:ext cx="1405080" cy="945720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>626040</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>153360</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9065160" y="32676480"/>
-          <a:ext cx="1215360" cy="945720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>681840</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 21" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9571320" y="34901280"/>
-          <a:ext cx="393480" cy="1422000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>634680</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 51" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8527680" y="22360320"/>
-          <a:ext cx="546120" cy="517320"/>
+          <a:off x="8584920" y="24310800"/>
+          <a:ext cx="544320" cy="515520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2260,28 +2211,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>347040</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>170640</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 55" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7942320" y="22758120"/>
-          <a:ext cx="667440" cy="600840"/>
+      <xdr:colOff>168840</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 55" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993800" y="24708960"/>
+          <a:ext cx="671400" cy="599040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2297,28 +2248,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>808200</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>158040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>550800</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 56" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7559640" y="23332320"/>
-          <a:ext cx="586440" cy="413640"/>
+      <xdr:colOff>549000</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 56" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7605360" y="25283160"/>
+          <a:ext cx="590400" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2334,28 +2285,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>245520</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>41040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>705960</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 58" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7840800" y="24353280"/>
-          <a:ext cx="460440" cy="529920"/>
+      <xdr:colOff>704160</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 58" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7892280" y="26304120"/>
+          <a:ext cx="458640" cy="528120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2371,28 +2322,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>21240</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 59" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8460360" y="24688440"/>
-          <a:ext cx="746640" cy="615960"/>
+      <xdr:colOff>766080</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 59" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8517600" y="26639280"/>
+          <a:ext cx="744840" cy="614160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2408,28 +2359,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>404280</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 60" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7666560" y="20842920"/>
-          <a:ext cx="333000" cy="656640"/>
+      <xdr:colOff>402480</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>111600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 60" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7718040" y="22793760"/>
+          <a:ext cx="331200" cy="654840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2444,29 +2395,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 61" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6759720" y="40617720"/>
-          <a:ext cx="1825920" cy="1368720"/>
+      <xdr:colOff>343440</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665640</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>42840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 61" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7140600" y="43771680"/>
+          <a:ext cx="1171800" cy="873000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2482,28 +2433,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 64" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8439120" y="21257280"/>
-          <a:ext cx="879120" cy="723240"/>
+      <xdr:colOff>33480</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 64" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496360" y="23208120"/>
+          <a:ext cx="883080" cy="721440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,28 +2470,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>84600</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>646200</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 65" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7679880" y="21745080"/>
-          <a:ext cx="561600" cy="677520"/>
+      <xdr:colOff>644400</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 65" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7731360" y="23695920"/>
+          <a:ext cx="559800" cy="675720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2556,18 +2507,129 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>291960</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204480</xdr:colOff>
+      <xdr:colOff>202680</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6239520" y="40454280"/>
+          <a:ext cx="2459520" cy="1154880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>343440</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>321480</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839800" y="41320080"/>
+          <a:ext cx="827640" cy="758880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762480</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>799200</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>98280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7559640" y="41981400"/>
+          <a:ext cx="886320" cy="712080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570600</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 2" descr=""/>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97920</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 29" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2576,35 +2638,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6199200" y="38016000"/>
-          <a:ext cx="2444400" cy="1156680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+          <a:off x="7367760" y="39224880"/>
+          <a:ext cx="1226520" cy="853560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196200</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>789120</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 3" descr=""/>
+      <xdr:colOff>48600</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 39" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2613,35 +2675,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8664840" y="38603880"/>
-          <a:ext cx="1407240" cy="1297080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>303120</xdr:colOff>
+          <a:off x="8692560" y="38690640"/>
+          <a:ext cx="702000" cy="673920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25560</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>672840</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>181800</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 22" descr=""/>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 49" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2650,156 +2712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7054560" y="39125160"/>
-          <a:ext cx="1566360" cy="1269360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>443520</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 28" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8636040" y="39946320"/>
-          <a:ext cx="1934640" cy="794520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>416160</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7167600" y="36685440"/>
-          <a:ext cx="1435320" cy="1007640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 39" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8537400" y="36143640"/>
-          <a:ext cx="983520" cy="950400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>783000</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 49" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7534440" y="35695080"/>
-          <a:ext cx="911520" cy="950400"/>
+          <a:off x="7672320" y="38296080"/>
+          <a:ext cx="647280" cy="668160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2815,28 +2729,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451440</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>199080</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 25" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7202880" y="34229880"/>
-          <a:ext cx="1435320" cy="912240"/>
+      <xdr:colOff>197280</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248600" y="36180720"/>
+          <a:ext cx="1445040" cy="910440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2852,28 +2766,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>324360</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>109440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>40680</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7075800" y="8251920"/>
-          <a:ext cx="1404000" cy="1051560"/>
+      <xdr:colOff>38880</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7121520" y="10202760"/>
+          <a:ext cx="1413720" cy="1049760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2889,28 +2803,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>261000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>372240</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 31" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8700120" y="9804240"/>
-          <a:ext cx="955080" cy="750240"/>
+      <xdr:colOff>370440</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Image 31" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8757360" y="11755080"/>
+          <a:ext cx="959040" cy="748440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2926,28 +2840,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>88560</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>830160</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 40" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8527680" y="14024520"/>
-          <a:ext cx="741600" cy="704520"/>
+      <xdr:colOff>828360</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Image 40" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8584920" y="15975000"/>
+          <a:ext cx="739800" cy="702720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2963,28 +2877,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>105480</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>830880</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 41" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7700760" y="14540760"/>
-          <a:ext cx="725400" cy="806400"/>
+      <xdr:colOff>829080</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 41" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7752240" y="16491600"/>
+          <a:ext cx="723600" cy="804600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3000,28 +2914,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>155160</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>612360</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Image 43" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7750440" y="15579000"/>
-          <a:ext cx="457200" cy="763200"/>
+      <xdr:colOff>610560</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Image 43" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7801920" y="17529840"/>
+          <a:ext cx="455400" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3037,28 +2951,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>105840</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>605160</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 44" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8544960" y="16046280"/>
-          <a:ext cx="499320" cy="757440"/>
+      <xdr:colOff>603360</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Image 44" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8602200" y="17996760"/>
+          <a:ext cx="497520" cy="755640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3074,28 +2988,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>780840</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>765000</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Image 46" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7532280" y="17722440"/>
-          <a:ext cx="828000" cy="686160"/>
+      <xdr:colOff>763200</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 46" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7578000" y="19672920"/>
+          <a:ext cx="831960" cy="684360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3111,28 +3025,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>833760</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>788760</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Image 47" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8429040" y="18182160"/>
-          <a:ext cx="798840" cy="646560"/>
+      <xdr:colOff>786960</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 47" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8480520" y="20132640"/>
+          <a:ext cx="802800" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,28 +3062,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>94320</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704160</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Image 48" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8533440" y="25913160"/>
-          <a:ext cx="609840" cy="475200"/>
+      <xdr:colOff>702360</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Image 48" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8590680" y="27864000"/>
+          <a:ext cx="608040" cy="473400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3185,28 +3099,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>119880</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>689760</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Image 52" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7715160" y="26392320"/>
-          <a:ext cx="569880" cy="506880"/>
+      <xdr:colOff>687960</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Image 52" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7766640" y="28343160"/>
+          <a:ext cx="568080" cy="505080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3222,28 +3136,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>170280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>546840</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Image 53" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8523360" y="26982000"/>
-          <a:ext cx="462600" cy="495000"/>
+      <xdr:colOff>545040</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Image 53" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8580600" y="28932480"/>
+          <a:ext cx="460800" cy="493200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3259,28 +3173,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>155160</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>710640</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Image 54" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId62"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7750440" y="27559800"/>
-          <a:ext cx="555480" cy="522000"/>
+      <xdr:colOff>708840</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>125640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Image 54" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7801920" y="29510640"/>
+          <a:ext cx="553680" cy="520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3296,28 +3210,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>832320</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>675720</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Image 62" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId63"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7583760" y="25349400"/>
-          <a:ext cx="687240" cy="450360"/>
+      <xdr:colOff>673920</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Image 62" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629480" y="27300240"/>
+          <a:ext cx="691200" cy="448560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3333,28 +3247,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721800</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>232560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>289800</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Image 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId64"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7473240" y="32133600"/>
-          <a:ext cx="1255680" cy="919440"/>
+      <xdr:colOff>288000</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Image 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518960" y="34084440"/>
+          <a:ext cx="1265400" cy="917640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3370,28 +3284,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>763560</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Image 63" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId65"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8358840" y="17117280"/>
-          <a:ext cx="972360" cy="767520"/>
+      <xdr:colOff>46440</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>106200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Image 63" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410320" y="19068120"/>
+          <a:ext cx="982080" cy="765720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3407,28 +3321,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>90720</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>566280</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Image 66" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId66"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8529840" y="28199160"/>
-          <a:ext cx="475560" cy="389520"/>
+      <xdr:colOff>564480</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Image 66" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8587080" y="30150000"/>
+          <a:ext cx="473760" cy="387720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3444,28 +3358,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>116640</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>651600</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Image 67" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId67"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7711920" y="28764000"/>
-          <a:ext cx="534960" cy="482040"/>
+      <xdr:colOff>649800</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Image 67" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7763400" y="30714840"/>
+          <a:ext cx="533160" cy="480240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3481,28 +3395,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>834480</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>184320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>756360</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Image 68" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId68"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8429760" y="29282040"/>
-          <a:ext cx="765720" cy="492120"/>
+      <xdr:colOff>754560</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Image 68" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8481240" y="31232520"/>
+          <a:ext cx="769680" cy="490320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3518,18 +3432,166 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>70200</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>588600</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Image 69" descr=""/>
+      <xdr:colOff>586800</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Image 69" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7716960" y="31905720"/>
+          <a:ext cx="516600" cy="452880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119160</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656280</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Image 70" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8615520" y="32415840"/>
+          <a:ext cx="537120" cy="425520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84240</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664560</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Image 71" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8580600" y="25815600"/>
+          <a:ext cx="580320" cy="580320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>232560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8728920" y="2743200"/>
+          <a:ext cx="1212480" cy="699840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>828720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Image 72" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3538,35 +3600,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7665480" y="29954880"/>
-          <a:ext cx="518400" cy="454680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>658080</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Image 70" descr=""/>
+          <a:off x="7808040" y="4281480"/>
+          <a:ext cx="667440" cy="538920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>526680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Image 73" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3575,35 +3637,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8558280" y="30465000"/>
-          <a:ext cx="538920" cy="427320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Image 71" descr=""/>
+          <a:off x="8173440" y="3841200"/>
+          <a:ext cx="497520" cy="386280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>751680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Image 74" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3612,8 +3674,230 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8523360" y="23864760"/>
-          <a:ext cx="582120" cy="582120"/>
+          <a:off x="8398440" y="4809240"/>
+          <a:ext cx="548280" cy="453600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196920</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Image 75" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7843680" y="5311440"/>
+          <a:ext cx="523800" cy="460080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111960</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>235080</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Image 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8608320" y="42519600"/>
+          <a:ext cx="972720" cy="464760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97560</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>642600</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Image 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8593920" y="37828440"/>
+          <a:ext cx="545040" cy="555840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350640</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Image 76" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7997400" y="42942960"/>
+          <a:ext cx="519480" cy="770400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7709760" y="3243960"/>
+          <a:ext cx="965880" cy="617040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>708480</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>842760</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Image 77" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505640" y="37341360"/>
+          <a:ext cx="983880" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3633,13 +3917,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O233"/>
+  <dimension ref="A3:O251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H126" activeCellId="0" sqref="H126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E249" activeCellId="0" sqref="E249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -3795,134 +4079,105 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
-        <f aca="false">A18+1</f>
+    <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <f aca="false">A18 + 1</f>
         <v>4</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="11"/>
+      <c r="H21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10" t="s">
+      <c r="M21" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
+        <f aca="false">A21 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
-        <f aca="false">A21+1</f>
-        <v>5</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="D24" s="11"/>
+      <c r="H24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="N24" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="n">
         <f aca="false">A24+1</f>
         <v>6</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="H27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
+      <c r="M27" s="13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="n">
         <f aca="false">A27+1</f>
         <v>7</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="H30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9"/>
     </row>
     <row r="33" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
@@ -3930,17 +4185,17 @@
         <v>8</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -3953,7 +4208,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,57 +4217,64 @@
         <v>9</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="39" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
         <f aca="false">A36+1</f>
         <v>10</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="n">
@@ -4020,29 +4282,30 @@
         <v>11</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="11" t="n">
-        <v>6</v>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,17 +4314,17 @@
         <v>12</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -4069,17 +4332,12 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,72 +4346,56 @@
         <v>13</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
+      <c r="K48" s="12"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="51" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="n">
         <f aca="false">A48+1</f>
         <v>14</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11" t="n">
-        <v>2</v>
+      <c r="M51" s="11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="9" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,25 +4404,29 @@
         <v>15</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11" t="n">
-        <v>1</v>
+      <c r="M54" s="11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,31 +4435,35 @@
         <v>16</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11" t="n">
-        <v>1</v>
+      <c r="N57" s="11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,17 +4472,17 @@
         <v>17</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
@@ -4245,7 +4495,12 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="63" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,17 +4509,17 @@
         <v>18</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -4272,12 +4527,17 @@
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,17 +4546,17 @@
         <v>19</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -4307,41 +4567,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="69" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="n">
         <f aca="false">A66+1</f>
         <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
-      <c r="N69" s="11" t="n">
+      <c r="N69" s="11"/>
+      <c r="O69" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,24 +4606,30 @@
         <v>21</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
-      <c r="M72" s="11" t="n">
+      <c r="M72" s="11"/>
+      <c r="N72" s="11" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="75" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,24 +4638,30 @@
         <v>22</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
-      <c r="M75" s="11" t="n">
-        <v>2</v>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,7 +4670,7 @@
         <v>23</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11" t="s">
@@ -4425,26 +4693,26 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="n">
         <f aca="false">A78+1</f>
         <v>24</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
@@ -4452,10 +4720,15 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
       <c r="N81" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="n">
         <f aca="false">A81+1</f>
         <v>25</v>
@@ -4465,56 +4738,49 @@
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M84" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="n">
         <f aca="false">A84+1</f>
         <v>26</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M87" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="n">
         <f aca="false">A87+1</f>
         <v>27</v>
@@ -4524,25 +4790,26 @@
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
-      <c r="M90" s="11" t="n">
-        <v>2</v>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,34 +4818,26 @@
         <v>28</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
-      <c r="M93" s="11" t="n">
+      <c r="M93" s="11"/>
+      <c r="N93" s="11" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J94" s="9"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J95" s="9"/>
     </row>
     <row r="96" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="n">
@@ -4586,29 +4845,25 @@
         <v>29</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
-      <c r="M96" s="11" t="n">
+      <c r="M96" s="11"/>
+      <c r="N96" s="11" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,17 +4872,17 @@
         <v>30</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
@@ -4635,12 +4890,12 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,17 +4904,17 @@
         <v>31</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
@@ -4671,7 +4926,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4935,7 @@
         <v>32</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11" t="s">
@@ -4690,7 +4945,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
@@ -4704,67 +4959,72 @@
       <c r="D106" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="n">
         <f aca="false">A105+1</f>
         <v>33</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
       <c r="M108" s="11" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="n">
         <f aca="false">A108+1</f>
         <v>34</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
-      <c r="M111" s="11" t="n">
-        <v>17</v>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,178 +5033,214 @@
         <v>35</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="13" t="s">
-        <v>135</v>
+      <c r="H114" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
       <c r="M114" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="9"/>
       <c r="D115" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="n">
         <f aca="false">A114+1</f>
         <v>36</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>138</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C117" s="11"/>
       <c r="D117" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="N117" s="11" t="n">
-        <v>17</v>
+        <v>132</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10" t="n">
         <f aca="false">A117+1</f>
         <v>37</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>144</v>
-      </c>
+      <c r="B120" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
       <c r="H120" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D122" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="10" t="n">
         <f aca="false">A120+1</f>
         <v>38</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>150</v>
+      <c r="B123" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="10" t="n">
         <f aca="false">A123+1</f>
         <v>39</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>149</v>
+      <c r="B126" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="9"/>
       <c r="D127" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="10" t="n">
         <f aca="false">A126+1</f>
         <v>40</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="N129" s="11" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D130" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="O129" s="12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="9"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="9"/>
-    </row>
-    <row r="132" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="132" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="12" t="n">
         <f aca="false">A129+1</f>
         <v>41</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="H132" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="O132" s="12" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="9"/>
+      <c r="D133" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="9"/>
+      <c r="D134" s="9" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="135" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="12" t="n">
@@ -4952,34 +5248,46 @@
         <v>42</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D135" s="11"/>
-      <c r="O135" s="12" t="n">
-        <v>3</v>
+        <v>160</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D136" s="9"/>
+      <c r="D136" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="14" t="n">
+      <c r="D137" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="12" t="n">
         <f aca="false">A135+1</f>
         <v>43</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D138" s="11"/>
+      <c r="B138" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D139" s="9"/>
+      <c r="D139" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="9"/>
+      <c r="D140" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="141" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="12" t="n">
@@ -4987,11 +5295,13 @@
         <v>44</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D141" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="O141" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,17 +5310,19 @@
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="9"/>
     </row>
-    <row r="144" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="n">
+    <row r="144" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="12" t="n">
         <f aca="false">A141+1</f>
         <v>45</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D144" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="O144" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,106 +5331,90 @@
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="9"/>
     </row>
-    <row r="147" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="n">
+    <row r="147" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="12" t="n">
         <f aca="false">A144+1</f>
         <v>46</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D147" s="11"/>
+        <v>170</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="O147" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="15"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="9"/>
     </row>
-    <row r="150" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16" t="n">
+    <row r="150" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="13" t="n">
         <f aca="false">A147+1</f>
         <v>47</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D150" s="11"/>
-      <c r="O150" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="15"/>
-      <c r="B151" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="B150" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="15"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="9"/>
     </row>
-    <row r="153" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="16" t="n">
+    <row r="153" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="12" t="n">
         <f aca="false">A150+1</f>
         <v>48</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D153" s="11"/>
       <c r="O153" s="12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="15"/>
-      <c r="B154" s="9" t="s">
-        <v>165</v>
-      </c>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D154" s="9"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="15"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="9"/>
     </row>
     <row r="156" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="16" t="n">
+      <c r="A156" s="10" t="n">
         <f aca="false">A153+1</f>
         <v>49</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D156" s="11"/>
       <c r="O156" s="12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="15"/>
-      <c r="B157" s="9" t="s">
-        <v>164</v>
-      </c>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="15"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D158" s="9"/>
     </row>
     <row r="159" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="16" t="n">
+      <c r="A159" s="10" t="n">
         <f aca="false">A156+1</f>
         <v>50</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D159" s="11"/>
       <c r="O159" s="12" t="n">
@@ -5127,9 +5423,6 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15"/>
-      <c r="B160" s="9" t="s">
-        <v>165</v>
-      </c>
       <c r="D160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,12 +5435,18 @@
         <v>51</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D162" s="11"/>
+      <c r="O162" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15"/>
+      <c r="B163" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="D163" s="9"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,10 +5458,19 @@
         <f aca="false">A162+1</f>
         <v>52</v>
       </c>
+      <c r="B165" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="D165" s="11"/>
+      <c r="O165" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15"/>
+      <c r="B166" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="D166" s="9"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,10 +5482,19 @@
         <f aca="false">A165+1</f>
         <v>53</v>
       </c>
+      <c r="B168" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="D168" s="11"/>
+      <c r="O168" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15"/>
+      <c r="B169" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="D169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,10 +5506,19 @@
         <f aca="false">A168+1</f>
         <v>54</v>
       </c>
+      <c r="B171" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="D171" s="11"/>
+      <c r="O171" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15"/>
+      <c r="B172" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="D172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,6 +5530,9 @@
         <f aca="false">A171+1</f>
         <v>55</v>
       </c>
+      <c r="B174" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="D174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,166 +5543,123 @@
       <c r="A176" s="15"/>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18" t="n">
-        <f aca="false">SUM(M12:M116)</f>
-        <v>76</v>
-      </c>
-      <c r="N177" s="18" t="n">
-        <f aca="false">SUM(N12:N119)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="6" t="s">
-        <v>169</v>
-      </c>
+    <row r="177" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="16" t="n">
+        <f aca="false">A174+1</f>
+        <v>56</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D177" s="11"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="15"/>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="15"/>
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="16" t="n">
+        <f aca="false">A177+1</f>
+        <v>57</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="15"/>
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="15"/>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="16" t="n">
+        <f aca="false">A180+1</f>
+        <v>58</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D183" s="11"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="19"/>
-      <c r="L184" s="19"/>
-      <c r="M184" s="19"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D185" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="187" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="21" t="n">
-        <f aca="false">A184+1</f>
-        <v>2</v>
-      </c>
-      <c r="B187" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I187" s="21"/>
-      <c r="J187" s="21"/>
-      <c r="K187" s="21"/>
-      <c r="L187" s="21"/>
-      <c r="M187" s="21"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D188" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="19" t="n">
-        <f aca="false">A187+1</f>
-        <v>3</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C190" s="19"/>
-      <c r="D190" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="19"/>
-      <c r="L190" s="19"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D191" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="193" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="21" t="n">
-        <f aca="false">A190+1</f>
-        <v>4</v>
-      </c>
-      <c r="B193" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="22" t="s">
+      <c r="A184" s="15"/>
+      <c r="D184" s="9"/>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="15"/>
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="16" t="n">
+        <f aca="false">A183+1</f>
+        <v>59</v>
+      </c>
+      <c r="B186" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I193" s="21"/>
-      <c r="J193" s="21"/>
-      <c r="K193" s="21"/>
-      <c r="L193" s="21"/>
-      <c r="M193" s="21"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D194" s="9" t="s">
+      <c r="D186" s="11"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="15"/>
+      <c r="D187" s="9"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="15"/>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="17" t="s">
         <v>184</v>
+      </c>
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18" t="n">
+        <f aca="false">M123+M120+M117+M114+M108+M105+M102+M87+M84+M54+M51+M39+M30+M27+M21+M18</f>
+        <v>94</v>
+      </c>
+      <c r="N189" s="18" t="n">
+        <f aca="false">SUM(N12:N131)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="19" t="n">
-        <f aca="false">A193+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C196" s="19"/>
       <c r="D196" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
       <c r="H196" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
@@ -5381,23 +5667,28 @@
       <c r="L196" s="19"/>
       <c r="M196" s="19"/>
     </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D197" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
     <row r="199" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="n">
         <f aca="false">A196+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C199" s="21"/>
       <c r="D199" s="21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
       <c r="H199" s="22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I199" s="21"/>
       <c r="J199" s="21"/>
@@ -5405,70 +5696,85 @@
       <c r="L199" s="21"/>
       <c r="M199" s="21"/>
     </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D200" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="19" t="n">
         <f aca="false">A199+1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C202" s="19"/>
       <c r="D202" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I202" s="19"/>
       <c r="J202" s="19"/>
       <c r="K202" s="19"/>
       <c r="L202" s="19"/>
-      <c r="M202" s="19"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D203" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="205" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="n">
         <f aca="false">A202+1</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
       <c r="H205" s="22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
       <c r="K205" s="21"/>
       <c r="L205" s="21"/>
+      <c r="M205" s="21"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D206" s="9" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="19" t="n">
         <f aca="false">A205+1</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I208" s="19"/>
       <c r="J208" s="19"/>
@@ -5476,115 +5782,228 @@
       <c r="L208" s="19"/>
       <c r="M208" s="19"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="19" t="n">
+    <row r="211" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="21" t="n">
         <f aca="false">A208+1</f>
+        <v>6</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I211" s="21"/>
+      <c r="J211" s="21"/>
+      <c r="K211" s="21"/>
+      <c r="L211" s="21"/>
+      <c r="M211" s="21"/>
+    </row>
+    <row r="214" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="24" t="n">
+        <f aca="false">A211+1</f>
+        <v>7</v>
+      </c>
+      <c r="B214" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="19" t="n">
+        <f aca="false">A214+1</f>
+        <v>8</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I217" s="19"/>
+      <c r="J217" s="19"/>
+      <c r="K217" s="19"/>
+      <c r="L217" s="19"/>
+      <c r="M217" s="19"/>
+    </row>
+    <row r="220" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="21" t="n">
+        <f aca="false">A217+1</f>
+        <v>9</v>
+      </c>
+      <c r="B220" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I220" s="21"/>
+      <c r="J220" s="21"/>
+      <c r="K220" s="21"/>
+      <c r="L220" s="21"/>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="19" t="n">
+        <f aca="false">A220+1</f>
         <v>10</v>
       </c>
-      <c r="B211" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C211" s="19"/>
-      <c r="D211" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="19"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D212" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D213" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="19" t="n">
-        <f aca="false">A211+1</f>
+      <c r="B223" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C223" s="19"/>
+      <c r="D223" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E223" s="19"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="19"/>
+      <c r="H223" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="I223" s="19"/>
+      <c r="J223" s="19"/>
+      <c r="K223" s="19"/>
+      <c r="L223" s="19"/>
+      <c r="M223" s="19"/>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="19" t="n">
+        <f aca="false">A223+1</f>
         <v>11</v>
       </c>
-      <c r="B214" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C214" s="19"/>
-      <c r="D214" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I214" s="19"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D215" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="219" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="21" t="n">
-        <f aca="false">A214+1</f>
+      <c r="B226" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C226" s="19"/>
+      <c r="D226" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E226" s="19"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="19"/>
+      <c r="H226" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I226" s="19"/>
+      <c r="J226" s="19"/>
+      <c r="K226" s="19"/>
+      <c r="L226" s="19"/>
+      <c r="M226" s="19"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D227" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D228" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="19" t="n">
+        <f aca="false">A226+1</f>
         <v>12</v>
       </c>
-      <c r="B219" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D219" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="224" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="21" t="n">
-        <f aca="false">A219+1</f>
+      <c r="B229" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="19"/>
+      <c r="H229" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="I229" s="19"/>
+      <c r="J229" s="19"/>
+      <c r="K229" s="19"/>
+      <c r="L229" s="19"/>
+      <c r="M229" s="19"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D230" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="234" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="21" t="n">
+        <f aca="false">A229+1</f>
         <v>13</v>
       </c>
-      <c r="B224" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="227" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="22" t="n">
-        <f aca="false">A224+1</f>
+      <c r="B234" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D234" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="239" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="21" t="n">
+        <f aca="false">A234+1</f>
         <v>14</v>
       </c>
-      <c r="B227" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="230" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="24" t="n">
-        <f aca="false">A227+1</f>
+      <c r="B239" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="242" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="22" t="n">
+        <f aca="false">A239+1</f>
         <v>15</v>
       </c>
-      <c r="B230" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="233" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="24" t="n">
-        <f aca="false">A230+1</f>
+      <c r="B242" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="245" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="25" t="n">
+        <f aca="false">A242+1</f>
         <v>16</v>
       </c>
-      <c r="B233" s="25" t="s">
-        <v>212</v>
+      <c r="B245" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="248" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="27" t="n">
+        <f aca="false">A245+1</f>
+        <v>17</v>
+      </c>
+      <c r="B248" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="251" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="25" t="n">
+        <f aca="false">A248+1</f>
+        <v>18</v>
+      </c>
+      <c r="B251" s="26" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="228">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -104,15 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">soft joystick shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tip of the pyramid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tilt_toch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact at the tip of the pyramid for connection to a capacitive sensor</t>
   </si>
   <si>
     <t xml:space="preserve">joystick frame ring</t>
@@ -1063,15 +1054,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>250560</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>250920</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>387360</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1084,8 +1075,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8879040" y="5552640"/>
-          <a:ext cx="721800" cy="986400"/>
+          <a:off x="8892720" y="5064480"/>
+          <a:ext cx="721440" cy="987480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,51 +1092,51 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>20880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679160" y="5636880"/>
+          <a:ext cx="977760" cy="854640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7667640" y="6124680"/>
-          <a:ext cx="977040" cy="855000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>284040</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>529200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1158,8 +1149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="8780400" y="6644160"/>
-          <a:ext cx="245520" cy="940680"/>
+          <a:off x="8793000" y="6156360"/>
+          <a:ext cx="245160" cy="940320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,14 +1166,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>439560</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>73800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:colOff>608400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1195,8 +1186,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="8086320" y="7072920"/>
-          <a:ext cx="169200" cy="940680"/>
+          <a:off x="8097480" y="6585840"/>
+          <a:ext cx="168840" cy="940320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1212,14 +1203,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>757080</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71640</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1232,8 +1223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8403840" y="7840800"/>
-          <a:ext cx="1014120" cy="531000"/>
+          <a:off x="8415360" y="7353000"/>
+          <a:ext cx="1016280" cy="530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,14 +1240,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1269,8 +1260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7646760" y="8328960"/>
-          <a:ext cx="977040" cy="493200"/>
+          <a:off x="7658280" y="7841160"/>
+          <a:ext cx="977760" cy="492840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1286,14 +1277,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>290160</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>233280</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:colOff>232920</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1306,8 +1297,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8786520" y="8872560"/>
-          <a:ext cx="792720" cy="576720"/>
+          <a:off x="8799120" y="8385120"/>
+          <a:ext cx="793800" cy="576360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,13 +1314,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>52920</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>32040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>654120</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>653760</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1343,8 +1334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7699680" y="9447120"/>
-          <a:ext cx="601200" cy="455760"/>
+          <a:off x="7711200" y="8959680"/>
+          <a:ext cx="600840" cy="455400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,14 +1351,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371880</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:colOff>191160</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1380,8 +1371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8868240" y="9890280"/>
-          <a:ext cx="669240" cy="612360"/>
+          <a:off x="8880840" y="9402480"/>
+          <a:ext cx="670320" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,14 +1388,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>14400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:colOff>141480</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1417,8 +1408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7661160" y="11469960"/>
-          <a:ext cx="977040" cy="635760"/>
+          <a:off x="7672680" y="10982160"/>
+          <a:ext cx="977760" cy="635400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1434,51 +1425,51 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>807120</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>147960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112680</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7614360" y="12006720"/>
+          <a:ext cx="1007280" cy="683280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 32" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7604280" y="12494160"/>
-          <a:ext cx="1005120" cy="683640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1491,8 +1482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8586000" y="12868200"/>
-          <a:ext cx="986400" cy="759600"/>
+          <a:off x="8598600" y="12380400"/>
+          <a:ext cx="987480" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,14 +1499,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>800280</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>41040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>105840</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1528,8 +1519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7597440" y="13581000"/>
-          <a:ext cx="1005120" cy="645480"/>
+          <a:off x="7607520" y="13093560"/>
+          <a:ext cx="1007280" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1545,14 +1536,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>97920</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>73440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:colOff>225720</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1565,8 +1556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8594280" y="13966560"/>
-          <a:ext cx="977760" cy="617040"/>
+          <a:off x="8606880" y="13478760"/>
+          <a:ext cx="978840" cy="616680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,14 +1573,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>770760</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:colOff>85320</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1602,8 +1593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7567920" y="14693040"/>
-          <a:ext cx="1014120" cy="388440"/>
+          <a:off x="7578000" y="14205240"/>
+          <a:ext cx="1016280" cy="388080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,14 +1610,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>174960</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>715680</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:colOff>715320</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1639,8 +1630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8671320" y="14869080"/>
-          <a:ext cx="540720" cy="940680"/>
+          <a:off x="8683920" y="14381280"/>
+          <a:ext cx="540360" cy="940320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1656,14 +1647,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>224280</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>770760</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1676,8 +1667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7871040" y="15581160"/>
-          <a:ext cx="546840" cy="490320"/>
+          <a:off x="7882560" y="15093360"/>
+          <a:ext cx="546480" cy="489960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,14 +1684,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>307440</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>175680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>733680</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:colOff>733320</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1713,8 +1704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8803800" y="16972200"/>
-          <a:ext cx="426240" cy="940680"/>
+          <a:off x="8816400" y="16484400"/>
+          <a:ext cx="425880" cy="940320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,14 +1721,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:colOff>99360</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1750,8 +1741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581960" y="35285040"/>
-          <a:ext cx="1014120" cy="673920"/>
+          <a:off x="7592040" y="34797600"/>
+          <a:ext cx="1016280" cy="673560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,14 +1758,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>237960</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>622800</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:colOff>622440</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1787,8 +1778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8734320" y="36939600"/>
-          <a:ext cx="384840" cy="393480"/>
+          <a:off x="8746920" y="36451800"/>
+          <a:ext cx="384480" cy="393120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,13 +1795,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333360</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>488160</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:colOff>487800</xdr:colOff>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1824,8 +1815,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8829720" y="39891240"/>
-          <a:ext cx="1004400" cy="759600"/>
+          <a:off x="8842320" y="39403800"/>
+          <a:ext cx="1005480" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1846,9 +1837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1861,8 +1852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7479000" y="2145240"/>
-          <a:ext cx="1200600" cy="855720"/>
+          <a:off x="7489080" y="2145240"/>
+          <a:ext cx="1202760" cy="855360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,13 +1869,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>239040</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>39600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>569160</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:colOff>568800</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1898,8 +1889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7885800" y="18735840"/>
-          <a:ext cx="330120" cy="446400"/>
+          <a:off x="7897320" y="18248400"/>
+          <a:ext cx="329760" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1915,14 +1906,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>168840</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>484560</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:colOff>484200</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1935,8 +1926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8665200" y="35759880"/>
-          <a:ext cx="1165320" cy="779760"/>
+          <a:off x="8677800" y="35272080"/>
+          <a:ext cx="1166400" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1952,14 +1943,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>259560</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>73800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>385920</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:colOff>385560</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1972,8 +1963,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8755920" y="10873080"/>
-          <a:ext cx="975960" cy="729360"/>
+          <a:off x="8768520" y="10385640"/>
+          <a:ext cx="977040" cy="729000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,51 +1980,51 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>262440</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>527040</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7920720" y="20277720"/>
+          <a:ext cx="264600" cy="387000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336960</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>527400</xdr:colOff>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>716400</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7909200" y="20765160"/>
-          <a:ext cx="264960" cy="387360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>716760</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2046,8 +2037,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8833320" y="21287880"/>
-          <a:ext cx="379800" cy="342000"/>
+          <a:off x="8845920" y="20800080"/>
+          <a:ext cx="379440" cy="341640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2063,14 +2054,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>353520</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>41040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>692280</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:colOff>691920</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2083,8 +2074,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8849880" y="22346640"/>
-          <a:ext cx="338760" cy="305280"/>
+          <a:off x="8862480" y="21858840"/>
+          <a:ext cx="338400" cy="304920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2100,14 +2091,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>486000</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:colOff>201240</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,8 +2111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7283160" y="21457080"/>
-          <a:ext cx="1414800" cy="943920"/>
+          <a:off x="7293240" y="20969280"/>
+          <a:ext cx="1416960" cy="943560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2137,14 +2128,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>626040</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>170280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,8 +2148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9122400" y="34627320"/>
-          <a:ext cx="1224720" cy="943920"/>
+          <a:off x="9135000" y="34139520"/>
+          <a:ext cx="1226880" cy="943560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,13 +2165,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>88560</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>632880</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:colOff>632520</xdr:colOff>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2194,8 +2185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8584920" y="24310800"/>
-          <a:ext cx="544320" cy="515520"/>
+          <a:off x="8597520" y="23823360"/>
+          <a:ext cx="543960" cy="515160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2211,14 +2202,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>347040</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:colOff>168480</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2231,8 +2222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7993800" y="24708960"/>
-          <a:ext cx="671400" cy="599040"/>
+          <a:off x="8005320" y="24221160"/>
+          <a:ext cx="672120" cy="598680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2248,14 +2239,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>808200</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>549000</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,8 +2259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7605360" y="25283160"/>
-          <a:ext cx="590400" cy="411840"/>
+          <a:off x="7615440" y="24795360"/>
+          <a:ext cx="591480" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2285,14 +2276,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>245520</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>703800</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>704160</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2305,8 +2296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7892280" y="26304120"/>
-          <a:ext cx="458640" cy="528120"/>
+          <a:off x="7903800" y="25816320"/>
+          <a:ext cx="458280" cy="527760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2322,14 +2313,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>21240</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>765720</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>766080</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,8 +2333,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8517600" y="26639280"/>
-          <a:ext cx="744840" cy="614160"/>
+          <a:off x="8530200" y="26151480"/>
+          <a:ext cx="744480" cy="613800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2359,14 +2350,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>402480</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:colOff>402120</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,8 +2370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7718040" y="22793760"/>
-          <a:ext cx="331200" cy="654840"/>
+          <a:off x="7729560" y="22305960"/>
+          <a:ext cx="330840" cy="654480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2396,13 +2387,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>343440</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>665640</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:colOff>665280</xdr:colOff>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2416,8 +2407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7140600" y="43771680"/>
-          <a:ext cx="1171800" cy="873000"/>
+          <a:off x="7150680" y="43284240"/>
+          <a:ext cx="1172880" cy="872640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2433,51 +2424,51 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33120</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 64" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8508960" y="22720320"/>
+          <a:ext cx="884160" cy="721080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>644040</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 64" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8496360" y="23208120"/>
-          <a:ext cx="883080" cy="721440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>644400</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2490,8 +2481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7731360" y="23695920"/>
-          <a:ext cx="559800" cy="675720"/>
+          <a:off x="7742880" y="23208120"/>
+          <a:ext cx="559440" cy="675360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2507,14 +2498,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>291960</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>202680</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:colOff>202320</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2527,8 +2518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6239520" y="40454280"/>
-          <a:ext cx="2459520" cy="1154880"/>
+          <a:off x="6248160" y="39966480"/>
+          <a:ext cx="2463120" cy="1154520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2544,14 +2535,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>343440</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:colOff>321120</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2564,8 +2555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8839800" y="41320080"/>
-          <a:ext cx="827640" cy="758880"/>
+          <a:off x="8852400" y="40832280"/>
+          <a:ext cx="828720" cy="758520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2581,14 +2572,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>762480</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>64440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>799200</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:colOff>798840</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2601,8 +2592,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7559640" y="41981400"/>
-          <a:ext cx="886320" cy="712080"/>
+          <a:off x="7569720" y="41493600"/>
+          <a:ext cx="887400" cy="711720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2618,14 +2609,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>570600</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>97920</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:colOff>97560</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2638,8 +2629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7367760" y="39224880"/>
-          <a:ext cx="1226520" cy="853560"/>
+          <a:off x="7377840" y="38737080"/>
+          <a:ext cx="1228680" cy="853200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2655,14 +2646,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>196200</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>136440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>48600</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:colOff>48240</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2675,8 +2666,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8692560" y="38690640"/>
-          <a:ext cx="702000" cy="673920"/>
+          <a:off x="8705160" y="38202840"/>
+          <a:ext cx="703080" cy="673560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,14 +2683,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>25560</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>672840</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:colOff>672480</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2712,8 +2703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7672320" y="38296080"/>
-          <a:ext cx="647280" cy="668160"/>
+          <a:off x="7683840" y="37808640"/>
+          <a:ext cx="646920" cy="667800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2729,14 +2720,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451440</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:colOff>196920</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,8 +2740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7248600" y="36180720"/>
-          <a:ext cx="1445040" cy="910440"/>
+          <a:off x="7258680" y="35692920"/>
+          <a:ext cx="1447200" cy="910080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2766,51 +2757,51 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>324360</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>109440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7131600" y="9714960"/>
+          <a:ext cx="1415880" cy="1049400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7121520" y="10202760"/>
-          <a:ext cx="1413720" cy="1049760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>261000</xdr:colOff>
-      <xdr:row>65</xdr:row>
       <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>370440</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:colOff>370080</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2823,8 +2814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8757360" y="11755080"/>
-          <a:ext cx="959040" cy="748440"/>
+          <a:off x="8769960" y="11267280"/>
+          <a:ext cx="960120" cy="748080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2840,13 +2831,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>88560</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:colOff>828000</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2860,8 +2851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8584920" y="15975000"/>
-          <a:ext cx="739800" cy="702720"/>
+          <a:off x="8597520" y="15487560"/>
+          <a:ext cx="739440" cy="702360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2877,14 +2868,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>105480</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>829080</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:colOff>828720</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2897,8 +2888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7752240" y="16491600"/>
-          <a:ext cx="723600" cy="804600"/>
+          <a:off x="7763760" y="16003800"/>
+          <a:ext cx="723240" cy="804240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2914,51 +2905,51 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>155160</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>610560</xdr:colOff>
+      <xdr:colOff>610200</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>110160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Image 43" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7813440" y="17042040"/>
+          <a:ext cx="455040" cy="761040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105840</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603000</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 43" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7801920" y="17529840"/>
-          <a:ext cx="455400" cy="761400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2971,8 +2962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8602200" y="17996760"/>
-          <a:ext cx="497520" cy="755640"/>
+          <a:off x="8614800" y="17509320"/>
+          <a:ext cx="497160" cy="755280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,13 +2979,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>780840</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>763200</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:colOff>762840</xdr:colOff>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3008,8 +2999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7578000" y="19672920"/>
-          <a:ext cx="831960" cy="684360"/>
+          <a:off x="7588080" y="19185480"/>
+          <a:ext cx="833040" cy="684000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3025,14 +3016,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>833760</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>786960</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:colOff>786600</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3045,8 +3036,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8480520" y="20132640"/>
-          <a:ext cx="802800" cy="644760"/>
+          <a:off x="8492040" y="19645200"/>
+          <a:ext cx="803520" cy="644400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3062,14 +3053,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>94320</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>702360</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:colOff>702000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3082,8 +3073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8590680" y="27864000"/>
-          <a:ext cx="608040" cy="473400"/>
+          <a:off x="8603280" y="27376200"/>
+          <a:ext cx="607680" cy="473040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3099,50 +3090,50 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>119880</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>687600</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>687960</xdr:colOff>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Image 52" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7778160" y="27855360"/>
+          <a:ext cx="567720" cy="504720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84240</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544680</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 52" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7766640" y="28343160"/>
-          <a:ext cx="568080" cy="505080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>545040</xdr:colOff>
-      <xdr:row>168</xdr:row>
       <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3156,8 +3147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8580600" y="28932480"/>
-          <a:ext cx="460800" cy="493200"/>
+          <a:off x="8593200" y="28445040"/>
+          <a:ext cx="460440" cy="492840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3173,14 +3164,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>155160</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>708480</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>708840</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3193,8 +3184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7801920" y="29510640"/>
-          <a:ext cx="553680" cy="520200"/>
+          <a:off x="7813440" y="29022840"/>
+          <a:ext cx="553320" cy="519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3210,14 +3201,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>832320</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>673920</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:colOff>673560</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3230,8 +3221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7629480" y="27300240"/>
-          <a:ext cx="691200" cy="448560"/>
+          <a:off x="7639560" y="26812440"/>
+          <a:ext cx="692280" cy="448200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3247,14 +3238,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721800</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>232560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:colOff>287640</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3267,8 +3258,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7518960" y="34084440"/>
-          <a:ext cx="1265400" cy="917640"/>
+          <a:off x="7529040" y="33596640"/>
+          <a:ext cx="1267560" cy="917280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3284,14 +3275,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>763560</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>46440</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:colOff>46080</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3304,8 +3295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8410320" y="19068120"/>
-          <a:ext cx="982080" cy="765720"/>
+          <a:off x="8421840" y="18580320"/>
+          <a:ext cx="984240" cy="765360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3321,14 +3312,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>90720</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>564480</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:colOff>564120</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3341,8 +3332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8587080" y="30150000"/>
-          <a:ext cx="473760" cy="387720"/>
+          <a:off x="8599680" y="29662200"/>
+          <a:ext cx="473400" cy="387360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3358,14 +3349,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>116640</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>649800</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:colOff>649440</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3378,8 +3369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7763400" y="30714840"/>
-          <a:ext cx="533160" cy="480240"/>
+          <a:off x="7774920" y="30227040"/>
+          <a:ext cx="532800" cy="479880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,13 +3386,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>834480</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>184320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>754200</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>180</xdr:row>
       <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3415,8 +3406,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8481240" y="31232520"/>
-          <a:ext cx="769680" cy="490320"/>
+          <a:off x="8492760" y="30745080"/>
+          <a:ext cx="770400" cy="489960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3432,51 +3423,51 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>70200</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586440</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>166680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Image 69" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7728480" y="31417920"/>
+          <a:ext cx="516240" cy="452520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119160</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>586800</xdr:colOff>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655920</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Image 69" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId65"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7716960" y="31905720"/>
-          <a:ext cx="516600" cy="452880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>656280</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3489,8 +3480,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8615520" y="32415840"/>
-          <a:ext cx="537120" cy="425520"/>
+          <a:off x="8628120" y="31928040"/>
+          <a:ext cx="536760" cy="425160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3506,14 +3497,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84240</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664200</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>664560</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3526,8 +3517,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8580600" y="25815600"/>
-          <a:ext cx="580320" cy="580320"/>
+          <a:off x="8593200" y="25327800"/>
+          <a:ext cx="579960" cy="579960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3548,9 +3539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
+      <xdr:colOff>595080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3563,8 +3554,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8728920" y="2743200"/>
-          <a:ext cx="1212480" cy="699840"/>
+          <a:off x="8741520" y="2743200"/>
+          <a:ext cx="1213560" cy="699480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3585,9 +3576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>828720</xdr:colOff>
+      <xdr:colOff>828360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3600,8 +3591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7808040" y="4281480"/>
-          <a:ext cx="667440" cy="538920"/>
+          <a:off x="7819560" y="4281480"/>
+          <a:ext cx="667080" cy="538560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3622,9 +3613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
+      <xdr:colOff>174240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3637,45 +3628,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8173440" y="3841200"/>
-          <a:ext cx="497520" cy="386280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>751680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Image 74" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId71"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8398440" y="4809240"/>
-          <a:ext cx="548280" cy="453600"/>
+          <a:off x="8184960" y="3841200"/>
+          <a:ext cx="498240" cy="385920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3691,18 +3645,55 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>196920</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>720720</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Image 75" descr=""/>
+      <xdr:colOff>720360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Image 75" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7855200" y="4986360"/>
+          <a:ext cx="523440" cy="459720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111960</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234720</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Image 28" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3711,35 +3702,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7843680" y="5311440"/>
-          <a:ext cx="523800" cy="460080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Image 28" descr=""/>
+          <a:off x="8620920" y="42032160"/>
+          <a:ext cx="973800" cy="464400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97560</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>642240</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Image 21" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3748,45 +3739,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8608320" y="42519600"/>
-          <a:ext cx="972720" cy="464760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>642600</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Image 21" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId74"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8593920" y="37828440"/>
-          <a:ext cx="545040" cy="555840"/>
+          <a:off x="8606520" y="37340640"/>
+          <a:ext cx="544680" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3802,28 +3756,28 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>350640</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>185400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Image 76" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId75"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7997400" y="42942960"/>
-          <a:ext cx="519480" cy="770400"/>
+        <xdr:cNvPr id="73" name="Image 76" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8008920" y="42455520"/>
+          <a:ext cx="520200" cy="770040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3844,23 +3798,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Image 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId76"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7709760" y="3243960"/>
-          <a:ext cx="965880" cy="617040"/>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721280" y="3243960"/>
+          <a:ext cx="966600" cy="616680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3876,28 +3830,28 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>708480</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>842760</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:colOff>842400</xdr:colOff>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Image 77" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId77"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7505640" y="37341360"/>
-          <a:ext cx="983880" cy="609120"/>
+        <xdr:cNvPr id="75" name="Image 77" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515720" y="36853920"/>
+          <a:ext cx="984960" cy="608760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3917,13 +3871,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O251"/>
+  <dimension ref="A3:O248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E249" activeCellId="0" sqref="E249"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L186" activeCellId="0" sqref="L186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -4096,7 +4050,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="9"/>
@@ -4121,7 +4075,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="9"/>
@@ -4142,11 +4096,11 @@
         <v>29</v>
       </c>
       <c r="M27" s="13" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="9"/>
@@ -4154,48 +4108,55 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="9"/>
     </row>
-    <row r="30" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+    <row r="30" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
         <f aca="false">A27+1</f>
         <v>7</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="H30" s="13" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="13" t="n">
-        <v>2</v>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
         <f aca="false">A30+1</f>
         <v>8</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -4208,10 +4169,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
         <f aca="false">A33+1</f>
         <v>9</v>
@@ -4233,66 +4194,66 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11" t="n">
-        <v>1</v>
+      <c r="M36" s="11" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
         <f aca="false">A36+1</f>
         <v>10</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="11" t="n">
+      <c r="M39" s="11"/>
+      <c r="N39" s="11" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="n">
         <f aca="false">A39+1</f>
         <v>11</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -4300,47 +4261,42 @@
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="n">
         <f aca="false">A42+1</f>
         <v>12</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
+      <c r="K45" s="12"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="n">
         <f aca="false">A45+1</f>
         <v>13</v>
@@ -4360,37 +4316,41 @@
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="12"/>
+      <c r="K48" s="11"/>
       <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M48" s="11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="n">
         <f aca="false">A48+1</f>
         <v>14</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,7 +4358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="n">
         <f aca="false">A51+1</f>
         <v>15</v>
@@ -4414,38 +4374,44 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="11" t="n">
+      <c r="M54" s="11"/>
+      <c r="N54" s="11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="n">
         <f aca="false">A54+1</f>
         <v>16</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -4453,36 +4419,36 @@
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="n">
         <f aca="false">A57+1</f>
         <v>17</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
@@ -4490,20 +4456,20 @@
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="n">
         <f aca="false">A60+1</f>
         <v>18</v>
@@ -4527,20 +4493,10 @@
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="n">
         <f aca="false">A63+1</f>
         <v>19</v>
@@ -4563,60 +4519,65 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
-      <c r="N66" s="11" t="n">
+      <c r="N66" s="11"/>
+      <c r="O66" s="11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="69" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="n">
         <f aca="false">A66+1</f>
         <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11" t="n">
+      <c r="N69" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="n">
         <f aca="false">A69+1</f>
         <v>21</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
@@ -4629,10 +4590,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="n">
         <f aca="false">A72+1</f>
         <v>22</v>
@@ -4661,10 +4622,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="n">
         <f aca="false">A75+1</f>
         <v>23</v>
@@ -4693,42 +4654,36 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="n">
         <f aca="false">A78+1</f>
         <v>24</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11" t="n">
+      <c r="M81" s="11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="n">
         <f aca="false">A81+1</f>
         <v>25</v>
@@ -4751,10 +4706,10 @@
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="n">
         <f aca="false">A84+1</f>
         <v>26</v>
@@ -4764,20 +4719,26 @@
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="11" t="n">
-        <v>2</v>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,13 +4751,13 @@
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
@@ -4804,15 +4765,10 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
       <c r="N90" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="n">
         <f aca="false">A90+1</f>
         <v>28</v>
@@ -4822,13 +4778,13 @@
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
@@ -4839,13 +4795,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="n">
         <f aca="false">A93+1</f>
         <v>29</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11" t="s">
@@ -4863,58 +4819,62 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="n">
         <f aca="false">A96+1</f>
         <v>30</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11" t="n">
-        <v>1</v>
+      <c r="M99" s="11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="n">
         <f aca="false">A99+1</f>
         <v>31</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
@@ -4926,26 +4886,30 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="n">
         <f aca="false">A102+1</f>
         <v>32</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
@@ -4957,87 +4921,83 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J107" s="9"/>
-    </row>
-    <row r="108" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="n">
         <f aca="false">A105+1</f>
         <v>33</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
-      <c r="M108" s="11" t="n">
+      <c r="M108" s="11"/>
+      <c r="N108" s="11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="n">
         <f aca="false">A108+1</f>
         <v>34</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11" t="n">
+      <c r="M111" s="11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="n">
         <f aca="false">A111+1</f>
         <v>35</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -5055,7 +5015,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,11 +5024,11 @@
         <v>36</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
@@ -5081,31 +5041,31 @@
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
       <c r="M117" s="11" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="n">
         <f aca="false">A117+1</f>
         <v>37</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="11"/>
@@ -5117,7 +5077,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,120 +5086,114 @@
         <v>38</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="10" t="s">
-        <v>143</v>
+      <c r="H123" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
-      <c r="M123" s="11" t="n">
-        <v>17</v>
+      <c r="M123" s="11"/>
+      <c r="N123" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="9"/>
       <c r="D124" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="n">
         <f aca="false">A123+1</f>
         <v>39</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C126" s="11"/>
+        <v>147</v>
+      </c>
       <c r="D126" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
-      <c r="N126" s="12" t="n">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="N126" s="11" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="9"/>
       <c r="D127" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="12" t="n">
         <f aca="false">A126+1</f>
         <v>40</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H129" s="11" t="s">
+      <c r="B129" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="N129" s="11" t="n">
-        <v>17</v>
+      <c r="D129" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="12" t="n">
         <f aca="false">A129+1</f>
         <v>41</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D134" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,23 +5202,20 @@
         <v>42</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,21 +5224,20 @@
         <v>43</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="O138" s="12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D139" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="D139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="D140" s="9"/>
     </row>
     <row r="141" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="12" t="n">
@@ -5295,13 +5245,13 @@
         <v>44</v>
       </c>
       <c r="B141" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D141" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="O141" s="12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,13 +5266,13 @@
         <v>45</v>
       </c>
       <c r="B144" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D144" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="O144" s="12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,19 +5281,16 @@
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="9"/>
     </row>
-    <row r="147" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12" t="n">
+    <row r="147" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="13" t="n">
         <f aca="false">A144+1</f>
         <v>46</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="O147" s="12" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,16 +5299,17 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="9"/>
     </row>
-    <row r="150" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="13" t="n">
+    <row r="150" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="12" t="n">
         <f aca="false">A147+1</f>
         <v>47</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>173</v>
+      <c r="B150" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="O150" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5370,13 +5318,13 @@
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="9"/>
     </row>
-    <row r="153" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12" t="n">
+    <row r="153" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="10" t="n">
         <f aca="false">A150+1</f>
         <v>48</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D153" s="11"/>
       <c r="O153" s="12" t="n">
@@ -5395,26 +5343,28 @@
         <v>49</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D156" s="11"/>
       <c r="O156" s="12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="15"/>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="15"/>
       <c r="D158" s="9"/>
     </row>
     <row r="159" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10" t="n">
+      <c r="A159" s="16" t="n">
         <f aca="false">A156+1</f>
         <v>50</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D159" s="11"/>
       <c r="O159" s="12" t="n">
@@ -5423,6 +5373,9 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15"/>
+      <c r="B160" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="D160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,7 +5388,7 @@
         <v>51</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D162" s="11"/>
       <c r="O162" s="12" t="n">
@@ -5445,7 +5398,7 @@
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15"/>
       <c r="B163" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D163" s="9"/>
     </row>
@@ -5469,7 +5422,7 @@
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15"/>
       <c r="B166" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D166" s="9"/>
     </row>
@@ -5483,7 +5436,7 @@
         <v>53</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D168" s="11"/>
       <c r="O168" s="12" t="n">
@@ -5493,7 +5446,7 @@
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15"/>
       <c r="B169" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D169" s="9"/>
     </row>
@@ -5507,18 +5460,12 @@
         <v>54</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D171" s="11"/>
-      <c r="O171" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15"/>
-      <c r="B172" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="D172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5478,7 @@
         <v>55</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D174" s="11"/>
     </row>
@@ -5549,7 +5496,7 @@
         <v>56</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D177" s="11"/>
     </row>
@@ -5567,7 +5514,7 @@
         <v>57</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D180" s="11"/>
     </row>
@@ -5585,7 +5532,7 @@
         <v>58</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D183" s="11"/>
     </row>
@@ -5597,275 +5544,281 @@
       <c r="A185" s="15"/>
       <c r="D185" s="9"/>
     </row>
-    <row r="186" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="16" t="n">
-        <f aca="false">A183+1</f>
-        <v>59</v>
-      </c>
-      <c r="B186" s="12" t="s">
+    <row r="186" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18" t="n">
+        <f aca="false">M117+M114+M111+M105+M102+M99+M84+M81+M51+M48+M27+M21+M18</f>
+        <v>45</v>
+      </c>
+      <c r="N186" s="18" t="n">
+        <f aca="false">SUM(N12:N128)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D186" s="11"/>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="15"/>
-      <c r="D187" s="9"/>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="15"/>
-      <c r="D188" s="9"/>
-    </row>
-    <row r="189" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17" t="s">
+      <c r="C193" s="19"/>
+      <c r="D193" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
-      <c r="I189" s="18"/>
-      <c r="J189" s="18"/>
-      <c r="K189" s="18"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="18" t="n">
-        <f aca="false">M123+M120+M117+M114+M108+M105+M102+M87+M84+M54+M51+M39+M30+M27+M21+M18</f>
-        <v>94</v>
-      </c>
-      <c r="N189" s="18" t="n">
-        <f aca="false">SUM(N12:N131)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="6" t="s">
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="20" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B196" s="19" t="s">
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D194" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C196" s="19"/>
-      <c r="D196" s="19" t="s">
+    </row>
+    <row r="196" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="21" t="n">
+        <f aca="false">A193+1</f>
+        <v>2</v>
+      </c>
+      <c r="B196" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="20" t="s">
+      <c r="C196" s="21"/>
+      <c r="D196" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="19"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I196" s="21"/>
+      <c r="J196" s="21"/>
+      <c r="K196" s="21"/>
+      <c r="L196" s="21"/>
+      <c r="M196" s="21"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="199" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="21" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="19" t="n">
         <f aca="false">A196+1</f>
-        <v>2</v>
-      </c>
-      <c r="B199" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C199" s="21"/>
-      <c r="D199" s="21" t="s">
+      <c r="C199" s="19"/>
+      <c r="D199" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="21"/>
-      <c r="H199" s="22" t="s">
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I199" s="21"/>
-      <c r="J199" s="21"/>
-      <c r="K199" s="21"/>
-      <c r="L199" s="21"/>
-      <c r="M199" s="21"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="19" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="202" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="21" t="n">
         <f aca="false">A199+1</f>
-        <v>3</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C202" s="19"/>
-      <c r="D202" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-      <c r="H202" s="20" t="s">
+      <c r="C202" s="21"/>
+      <c r="D202" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="I202" s="19"/>
-      <c r="J202" s="19"/>
-      <c r="K202" s="19"/>
-      <c r="L202" s="19"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I202" s="21"/>
+      <c r="J202" s="21"/>
+      <c r="K202" s="21"/>
+      <c r="L202" s="21"/>
+      <c r="M202" s="21"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="205" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="21" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="19" t="n">
         <f aca="false">A202+1</f>
-        <v>4</v>
-      </c>
-      <c r="B205" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="22" t="s">
+      <c r="C205" s="19"/>
+      <c r="D205" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="I205" s="21"/>
-      <c r="J205" s="21"/>
-      <c r="K205" s="21"/>
-      <c r="L205" s="21"/>
-      <c r="M205" s="21"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D206" s="9" t="s">
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="20" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="19" t="n">
+      <c r="I205" s="19"/>
+      <c r="J205" s="19"/>
+      <c r="K205" s="19"/>
+      <c r="L205" s="19"/>
+      <c r="M205" s="19"/>
+    </row>
+    <row r="208" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="21" t="n">
         <f aca="false">A205+1</f>
-        <v>5</v>
-      </c>
-      <c r="B208" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C208" s="19"/>
-      <c r="D208" s="19" t="s">
+      <c r="C208" s="21"/>
+      <c r="D208" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E208" s="19"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="20" t="s">
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="I208" s="19"/>
-      <c r="J208" s="19"/>
-      <c r="K208" s="19"/>
-      <c r="L208" s="19"/>
-      <c r="M208" s="19"/>
-    </row>
-    <row r="211" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="21" t="n">
+      <c r="I208" s="21"/>
+      <c r="J208" s="21"/>
+      <c r="K208" s="21"/>
+      <c r="L208" s="21"/>
+      <c r="M208" s="21"/>
+    </row>
+    <row r="211" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="24" t="n">
         <f aca="false">A208+1</f>
-        <v>6</v>
-      </c>
-      <c r="B211" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21" t="s">
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="19" t="n">
+        <f aca="false">A211+1</f>
+        <v>8</v>
+      </c>
+      <c r="B214" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E211" s="21"/>
-      <c r="F211" s="21"/>
-      <c r="G211" s="21"/>
-      <c r="H211" s="22" t="s">
+      <c r="C214" s="19"/>
+      <c r="D214" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="I211" s="21"/>
-      <c r="J211" s="21"/>
-      <c r="K211" s="21"/>
-      <c r="L211" s="21"/>
-      <c r="M211" s="21"/>
-    </row>
-    <row r="214" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="24" t="n">
-        <f aca="false">A211+1</f>
-        <v>7</v>
-      </c>
-      <c r="B214" s="24" t="s">
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="20" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="19" t="n">
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="19"/>
+    </row>
+    <row r="217" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="21" t="n">
         <f aca="false">A214+1</f>
-        <v>8</v>
-      </c>
-      <c r="B217" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19" t="s">
+      <c r="C217" s="21"/>
+      <c r="D217" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E217" s="19"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="19"/>
-      <c r="H217" s="20" t="s">
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="I217" s="19"/>
-      <c r="J217" s="19"/>
-      <c r="K217" s="19"/>
-      <c r="L217" s="19"/>
-      <c r="M217" s="19"/>
-    </row>
-    <row r="220" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="21" t="n">
+      <c r="I217" s="21"/>
+      <c r="J217" s="21"/>
+      <c r="K217" s="21"/>
+      <c r="L217" s="21"/>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="19" t="n">
         <f aca="false">A217+1</f>
-        <v>9</v>
-      </c>
-      <c r="B220" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C220" s="21"/>
-      <c r="D220" s="21" t="s">
+      <c r="C220" s="19"/>
+      <c r="D220" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E220" s="21"/>
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="22" t="s">
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="19"/>
+      <c r="H220" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="I220" s="21"/>
-      <c r="J220" s="21"/>
-      <c r="K220" s="21"/>
-      <c r="L220" s="21"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="19"/>
+      <c r="K220" s="19"/>
+      <c r="L220" s="19"/>
+      <c r="M220" s="19"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="19" t="n">
         <f aca="false">A220+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>214</v>
@@ -5886,17 +5839,27 @@
       <c r="L223" s="19"/>
       <c r="M223" s="19"/>
     </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D224" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D225" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="19" t="n">
         <f aca="false">A223+1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C226" s="19"/>
       <c r="D226" s="19" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="19"/>
@@ -5915,95 +5878,61 @@
         <v>220</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D228" s="9" t="s">
+    <row r="231" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="21" t="n">
+        <f aca="false">A226+1</f>
+        <v>13</v>
+      </c>
+      <c r="B231" s="21" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="19" t="n">
-        <f aca="false">A226+1</f>
-        <v>12</v>
-      </c>
-      <c r="B229" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="20" t="s">
+      <c r="D231" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="I229" s="19"/>
-      <c r="J229" s="19"/>
-      <c r="K229" s="19"/>
-      <c r="L229" s="19"/>
-      <c r="M229" s="19"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D230" s="9" t="s">
+    </row>
+    <row r="236" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="21" t="n">
+        <f aca="false">A231+1</f>
+        <v>14</v>
+      </c>
+      <c r="B236" s="23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="234" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="21" t="n">
-        <f aca="false">A229+1</f>
-        <v>13</v>
-      </c>
-      <c r="B234" s="21" t="s">
+    <row r="239" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="22" t="n">
+        <f aca="false">A236+1</f>
+        <v>15</v>
+      </c>
+      <c r="B239" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D234" s="21" t="s">
+    </row>
+    <row r="242" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="25" t="n">
+        <f aca="false">A239+1</f>
+        <v>16</v>
+      </c>
+      <c r="B242" s="26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="239" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="21" t="n">
-        <f aca="false">A234+1</f>
-        <v>14</v>
-      </c>
-      <c r="B239" s="23" t="s">
+    <row r="245" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="27" t="n">
+        <f aca="false">A242+1</f>
+        <v>17</v>
+      </c>
+      <c r="B245" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="242" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="22" t="n">
-        <f aca="false">A239+1</f>
-        <v>15</v>
-      </c>
-      <c r="B242" s="23" t="s">
+    <row r="248" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="25" t="n">
+        <f aca="false">A245+1</f>
+        <v>18</v>
+      </c>
+      <c r="B248" s="26" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="245" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="25" t="n">
-        <f aca="false">A242+1</f>
-        <v>16</v>
-      </c>
-      <c r="B245" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="248" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="27" t="n">
-        <f aca="false">A245+1</f>
-        <v>17</v>
-      </c>
-      <c r="B248" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="251" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="25" t="n">
-        <f aca="false">A248+1</f>
-        <v>18</v>
-      </c>
-      <c r="B251" s="26" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/bom.xlsx
+++ b/datasheet/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="229">
   <si>
     <t xml:space="preserve">Bill of material</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t xml:space="preserve">touch sensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIC16F13145</t>
   </si>
   <si>
     <t xml:space="preserve">header connector</t>
@@ -864,7 +867,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,6 +929,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1054,9 +1061,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>250920</xdr:colOff>
+      <xdr:colOff>251280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1075,8 +1082,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5451600">
-          <a:off x="8892720" y="5064480"/>
-          <a:ext cx="721440" cy="987480"/>
+          <a:off x="8906400" y="5063760"/>
+          <a:ext cx="721080" cy="988560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1097,9 +1104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>147600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1112,23 +1119,23 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7679160" y="5636880"/>
-          <a:ext cx="977760" cy="854640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>284040</xdr:colOff>
+          <a:off x="7690320" y="5636880"/>
+          <a:ext cx="978840" cy="854280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
@@ -1136,7 +1143,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>529200</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1149,8 +1156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="2059800">
-          <a:off x="8793000" y="6156360"/>
-          <a:ext cx="245160" cy="940320"/>
+          <a:off x="8805600" y="6156000"/>
+          <a:ext cx="244800" cy="939960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,11 +1174,11 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>439560</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>608400</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
@@ -1186,8 +1193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18984000">
-          <a:off x="8097480" y="6585840"/>
-          <a:ext cx="168840" cy="940320"/>
+          <a:off x="8108640" y="6585840"/>
+          <a:ext cx="168480" cy="939960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,9 +1215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>71640</xdr:colOff>
+      <xdr:colOff>71280</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,8 +1230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8415360" y="7353000"/>
-          <a:ext cx="1016280" cy="530640"/>
+          <a:off x="8426520" y="7353000"/>
+          <a:ext cx="1018800" cy="530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1245,9 +1252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:colOff>126720</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1260,8 +1267,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658280" y="7841160"/>
-          <a:ext cx="977760" cy="492840"/>
+          <a:off x="7669440" y="7841160"/>
+          <a:ext cx="978840" cy="492480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1282,9 +1289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>232920</xdr:colOff>
+      <xdr:colOff>232560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1297,8 +1304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8799120" y="8385120"/>
-          <a:ext cx="793800" cy="576360"/>
+          <a:off x="8811720" y="8385120"/>
+          <a:ext cx="794880" cy="576000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1319,9 +1326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>653760</xdr:colOff>
+      <xdr:colOff>653400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1334,8 +1341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7711200" y="8959680"/>
-          <a:ext cx="600840" cy="455400"/>
+          <a:off x="7722360" y="8959680"/>
+          <a:ext cx="600480" cy="455040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1356,9 +1363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>191160</xdr:colOff>
+      <xdr:colOff>190800</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1371,8 +1378,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8880840" y="9402480"/>
-          <a:ext cx="670320" cy="612000"/>
+          <a:off x="8893440" y="9402480"/>
+          <a:ext cx="671400" cy="611640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1393,9 +1400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>141120</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1408,8 +1415,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7672680" y="10982160"/>
-          <a:ext cx="977760" cy="635400"/>
+          <a:off x="7683840" y="10982160"/>
+          <a:ext cx="978840" cy="635040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1430,9 +1437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>112320</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1445,8 +1452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7614360" y="12006720"/>
-          <a:ext cx="1007280" cy="683280"/>
+          <a:off x="7624440" y="12006720"/>
+          <a:ext cx="1009440" cy="682920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,9 +1474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1482,8 +1489,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8598600" y="12380400"/>
-          <a:ext cx="987480" cy="759240"/>
+          <a:off x="8611200" y="12380400"/>
+          <a:ext cx="988560" cy="758880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1504,9 +1511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1519,8 +1526,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7607520" y="13093560"/>
-          <a:ext cx="1007280" cy="645120"/>
+          <a:off x="7617600" y="13093560"/>
+          <a:ext cx="1009440" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1541,9 +1548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1556,8 +1563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8606880" y="13478760"/>
-          <a:ext cx="978840" cy="616680"/>
+          <a:off x="8619480" y="13478760"/>
+          <a:ext cx="979920" cy="616320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,9 +1585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1593,8 +1600,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7578000" y="14205240"/>
-          <a:ext cx="1016280" cy="388080"/>
+          <a:off x="7588080" y="14205240"/>
+          <a:ext cx="1018440" cy="387720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1615,9 +1622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>715320</xdr:colOff>
+      <xdr:colOff>714960</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,8 +1637,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8683920" y="14381280"/>
-          <a:ext cx="540360" cy="940320"/>
+          <a:off x="8696520" y="14381280"/>
+          <a:ext cx="540000" cy="939960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1667,8 +1674,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7882560" y="15093360"/>
-          <a:ext cx="546480" cy="489960"/>
+          <a:off x="7893720" y="15093360"/>
+          <a:ext cx="546120" cy="489600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>733320</xdr:colOff>
+      <xdr:colOff>732960</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1704,8 +1711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8816400" y="16484400"/>
-          <a:ext cx="425880" cy="940320"/>
+          <a:off x="8829000" y="16484400"/>
+          <a:ext cx="425520" cy="939960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1721,14 +1728,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>99360</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:colOff>99000</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1741,8 +1748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7592040" y="34797600"/>
-          <a:ext cx="1016280" cy="673560"/>
+          <a:off x="7602120" y="35368920"/>
+          <a:ext cx="1018440" cy="673200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,13 +1765,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>237960</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>622440</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:colOff>622080</xdr:colOff>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1778,8 +1785,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8746920" y="36451800"/>
-          <a:ext cx="384480" cy="393120"/>
+          <a:off x="8759520" y="37023480"/>
+          <a:ext cx="384120" cy="392760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1795,14 +1802,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333360</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>487800</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:colOff>487440</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1815,8 +1822,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8842320" y="39403800"/>
-          <a:ext cx="1005480" cy="759240"/>
+          <a:off x="8854920" y="39975120"/>
+          <a:ext cx="1006560" cy="758880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,9 +1844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>182520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1852,8 +1859,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7489080" y="2145240"/>
-          <a:ext cx="1202760" cy="855360"/>
+          <a:off x="7499160" y="2145240"/>
+          <a:ext cx="1204920" cy="855000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1874,9 +1881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>568800</xdr:colOff>
+      <xdr:colOff>568440</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1889,8 +1896,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7897320" y="18248400"/>
-          <a:ext cx="329760" cy="446040"/>
+          <a:off x="7908480" y="18248400"/>
+          <a:ext cx="329400" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,14 +1913,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>168840</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:colOff>483840</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1926,8 +1933,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8677800" y="35272080"/>
-          <a:ext cx="1166400" cy="779400"/>
+          <a:off x="8690400" y="35843400"/>
+          <a:ext cx="1167480" cy="779040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1948,9 +1955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
+      <xdr:colOff>385200</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1963,8 +1970,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8768520" y="10385640"/>
-          <a:ext cx="977040" cy="729000"/>
+          <a:off x="8781120" y="10385640"/>
+          <a:ext cx="978120" cy="728640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1985,9 +1992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>527040</xdr:colOff>
+      <xdr:colOff>526680</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2000,8 +2007,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7920720" y="20277720"/>
-          <a:ext cx="264600" cy="387000"/>
+          <a:off x="7931880" y="20277720"/>
+          <a:ext cx="264240" cy="386640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2022,9 +2029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>716400</xdr:colOff>
+      <xdr:colOff>716040</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2037,8 +2044,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8845920" y="20800080"/>
-          <a:ext cx="379440" cy="341640"/>
+          <a:off x="8858520" y="20800080"/>
+          <a:ext cx="379080" cy="341280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2059,9 +2066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>691920</xdr:colOff>
+      <xdr:colOff>691560</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2074,8 +2081,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8862480" y="21858840"/>
-          <a:ext cx="338400" cy="304920"/>
+          <a:off x="8875080" y="21858840"/>
+          <a:ext cx="338040" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,9 +2103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2111,8 +2118,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7293240" y="20969280"/>
-          <a:ext cx="1416960" cy="943560"/>
+          <a:off x="7303320" y="20969280"/>
+          <a:ext cx="1419120" cy="943200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2128,13 +2135,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>626040</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>170280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:colOff>150840</xdr:colOff>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2148,8 +2155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9135000" y="34139520"/>
-          <a:ext cx="1226880" cy="943560"/>
+          <a:off x="9147600" y="34711200"/>
+          <a:ext cx="1229400" cy="943200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,9 +2177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>632520</xdr:colOff>
+      <xdr:colOff>632160</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2185,8 +2192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8597520" y="23823360"/>
-          <a:ext cx="543960" cy="515160"/>
+          <a:off x="8610120" y="23823360"/>
+          <a:ext cx="543600" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2207,9 +2214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>168480</xdr:colOff>
+      <xdr:colOff>168120</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2222,8 +2229,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8005320" y="24221160"/>
-          <a:ext cx="672120" cy="598680"/>
+          <a:off x="8016480" y="24221160"/>
+          <a:ext cx="673200" cy="598320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2244,9 +2251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>548280</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2259,8 +2266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7615440" y="24795360"/>
-          <a:ext cx="591480" cy="411480"/>
+          <a:off x="7625520" y="24795360"/>
+          <a:ext cx="592200" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2281,9 +2288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>703800</xdr:colOff>
+      <xdr:colOff>703440</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2296,8 +2303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7903800" y="25816320"/>
-          <a:ext cx="458280" cy="527760"/>
+          <a:off x="7914960" y="25816320"/>
+          <a:ext cx="457920" cy="527400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2318,9 +2325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>765720</xdr:colOff>
+      <xdr:colOff>765360</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2333,8 +2340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8530200" y="26151480"/>
-          <a:ext cx="744480" cy="613800"/>
+          <a:off x="8542800" y="26151480"/>
+          <a:ext cx="744120" cy="613440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2355,9 +2362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
+      <xdr:colOff>401760</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2370,8 +2377,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7729560" y="22305960"/>
-          <a:ext cx="330840" cy="654480"/>
+          <a:off x="7740720" y="22305960"/>
+          <a:ext cx="330480" cy="654120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2387,14 +2394,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>343440</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>665280</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:colOff>664920</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2407,8 +2414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7150680" y="43284240"/>
-          <a:ext cx="1172880" cy="872640"/>
+          <a:off x="7160760" y="43855560"/>
+          <a:ext cx="1173600" cy="872280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2429,9 +2436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2444,8 +2451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8508960" y="22720320"/>
-          <a:ext cx="884160" cy="721080"/>
+          <a:off x="8521560" y="22720320"/>
+          <a:ext cx="885240" cy="720720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,9 +2473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>644040</xdr:colOff>
+      <xdr:colOff>643680</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2481,8 +2488,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7742880" y="23208120"/>
-          <a:ext cx="559440" cy="675360"/>
+          <a:off x="7754040" y="23208120"/>
+          <a:ext cx="559080" cy="675000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2498,14 +2505,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>291960</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:colOff>201960</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2518,8 +2525,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248160" y="39966480"/>
-          <a:ext cx="2463120" cy="1154520"/>
+          <a:off x="6257160" y="40538160"/>
+          <a:ext cx="2466360" cy="1154160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2535,14 +2542,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>343440</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:colOff>320760</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2555,8 +2562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8852400" y="40832280"/>
-          <a:ext cx="828720" cy="758520"/>
+          <a:off x="8865000" y="41403960"/>
+          <a:ext cx="829800" cy="758160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2572,14 +2579,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>762480</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>64440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>798840</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:colOff>798480</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2592,8 +2599,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7569720" y="41493600"/>
-          <a:ext cx="887400" cy="711720"/>
+          <a:off x="7579800" y="42065280"/>
+          <a:ext cx="888120" cy="711360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2609,51 +2616,51 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>570600</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97200</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7387920" y="39308760"/>
+          <a:ext cx="1230840" cy="852840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7377840" y="38737080"/>
-          <a:ext cx="1228680" cy="853200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>196200</xdr:colOff>
-      <xdr:row>216</xdr:row>
       <xdr:rowOff>136440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:colOff>47880</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2666,8 +2673,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8705160" y="38202840"/>
-          <a:ext cx="703080" cy="673560"/>
+          <a:off x="8717760" y="38774160"/>
+          <a:ext cx="704160" cy="673200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2683,14 +2690,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>25560</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>672480</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:colOff>672120</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2703,8 +2710,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7683840" y="37808640"/>
-          <a:ext cx="646920" cy="667800"/>
+          <a:off x="7695000" y="38379960"/>
+          <a:ext cx="646560" cy="667440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2720,13 +2727,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451440</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:colOff>196560</xdr:colOff>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2740,8 +2747,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258680" y="35692920"/>
-          <a:ext cx="1447200" cy="910080"/>
+          <a:off x="7268760" y="36264600"/>
+          <a:ext cx="1449360" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2762,9 +2769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2777,8 +2784,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7131600" y="9714960"/>
-          <a:ext cx="1415880" cy="1049400"/>
+          <a:off x="7141680" y="9714960"/>
+          <a:ext cx="1418040" cy="1049040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2799,9 +2806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>370080</xdr:colOff>
+      <xdr:colOff>369720</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2814,8 +2821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8769960" y="11267280"/>
-          <a:ext cx="960120" cy="748080"/>
+          <a:off x="8782560" y="11267280"/>
+          <a:ext cx="961200" cy="747720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2836,9 +2843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827640</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2851,8 +2858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8597520" y="15487560"/>
-          <a:ext cx="739440" cy="702360"/>
+          <a:off x="8610120" y="15487560"/>
+          <a:ext cx="739080" cy="702000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2873,9 +2880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>828720</xdr:colOff>
+      <xdr:colOff>828360</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2888,8 +2895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7763760" y="16003800"/>
-          <a:ext cx="723240" cy="804240"/>
+          <a:off x="7774920" y="16003800"/>
+          <a:ext cx="722880" cy="803880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2910,9 +2917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
+      <xdr:colOff>609840</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2925,8 +2932,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7813440" y="17042040"/>
-          <a:ext cx="455040" cy="761040"/>
+          <a:off x="7824600" y="17042040"/>
+          <a:ext cx="454680" cy="760680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2947,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>603000</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2962,8 +2969,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8614800" y="17509320"/>
-          <a:ext cx="497160" cy="755280"/>
+          <a:off x="8627400" y="17509320"/>
+          <a:ext cx="496800" cy="754920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2984,9 +2991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>762840</xdr:colOff>
+      <xdr:colOff>762480</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2999,8 +3006,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7588080" y="19185480"/>
-          <a:ext cx="833040" cy="684000"/>
+          <a:off x="7598160" y="19185480"/>
+          <a:ext cx="833760" cy="683640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3021,9 +3028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>786600</xdr:colOff>
+      <xdr:colOff>786240</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3036,31 +3043,31 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8492040" y="19645200"/>
-          <a:ext cx="803520" cy="644400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>702000</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+          <a:off x="8503200" y="19645200"/>
+          <a:ext cx="804600" cy="644040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>59040</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666360</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3073,8 +3080,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8603280" y="27376200"/>
-          <a:ext cx="607680" cy="473040"/>
+          <a:off x="8580600" y="27968040"/>
+          <a:ext cx="607320" cy="472680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3090,13 +3097,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>119880</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>687600</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:colOff>687240</xdr:colOff>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3110,8 +3117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7778160" y="27855360"/>
-          <a:ext cx="567720" cy="504720"/>
+          <a:off x="7789320" y="28427040"/>
+          <a:ext cx="567360" cy="504360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3127,14 +3134,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>170280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>544680</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:colOff>544320</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3147,8 +3154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8593200" y="28445040"/>
-          <a:ext cx="460440" cy="492840"/>
+          <a:off x="8605800" y="29016360"/>
+          <a:ext cx="460080" cy="492480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3164,13 +3171,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>155160</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>708480</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:colOff>708120</xdr:colOff>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3184,8 +3191,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7813440" y="29022840"/>
-          <a:ext cx="553320" cy="519840"/>
+          <a:off x="7824600" y="29594520"/>
+          <a:ext cx="552960" cy="519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3206,9 +3213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>673560</xdr:colOff>
+      <xdr:colOff>673200</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3221,8 +3228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639560" y="26812440"/>
-          <a:ext cx="692280" cy="448200"/>
+          <a:off x="7649640" y="26812440"/>
+          <a:ext cx="693000" cy="447840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3238,13 +3245,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721800</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>232560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3258,8 +3265,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7529040" y="33596640"/>
-          <a:ext cx="1267560" cy="917280"/>
+          <a:off x="7539120" y="34168320"/>
+          <a:ext cx="1269720" cy="916920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3280,9 +3287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3295,8 +3302,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8421840" y="18580320"/>
-          <a:ext cx="984240" cy="765360"/>
+          <a:off x="8433000" y="18580320"/>
+          <a:ext cx="986760" cy="765000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3312,14 +3319,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>90720</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>564120</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:colOff>563760</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3332,8 +3339,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8599680" y="29662200"/>
-          <a:ext cx="473400" cy="387360"/>
+          <a:off x="8612280" y="30233520"/>
+          <a:ext cx="473040" cy="387000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3349,13 +3356,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>116640</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>649440</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:colOff>649080</xdr:colOff>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3369,8 +3376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7774920" y="30227040"/>
-          <a:ext cx="532800" cy="479880"/>
+          <a:off x="7786080" y="30798720"/>
+          <a:ext cx="532440" cy="479520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3386,14 +3393,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>834480</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>184320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>754200</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:colOff>753840</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3406,8 +3413,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8492760" y="30745080"/>
-          <a:ext cx="770400" cy="489960"/>
+          <a:off x="8503920" y="31316400"/>
+          <a:ext cx="771480" cy="489600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3423,13 +3430,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>70200</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:colOff>586080</xdr:colOff>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3443,8 +3450,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7728480" y="31417920"/>
-          <a:ext cx="516240" cy="452520"/>
+          <a:off x="7739640" y="31989600"/>
+          <a:ext cx="515880" cy="452160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3460,14 +3467,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>119160</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:colOff>655560</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3480,8 +3487,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8628120" y="31928040"/>
-          <a:ext cx="536760" cy="425160"/>
+          <a:off x="8640720" y="32499360"/>
+          <a:ext cx="536400" cy="424800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3502,9 +3509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3517,8 +3524,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8593200" y="25327800"/>
-          <a:ext cx="579960" cy="579960"/>
+          <a:off x="8605800" y="25327800"/>
+          <a:ext cx="579600" cy="579600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3539,9 +3546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>595080</xdr:colOff>
+      <xdr:colOff>594720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3554,8 +3561,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8741520" y="2743200"/>
-          <a:ext cx="1213560" cy="699480"/>
+          <a:off x="8754120" y="2743200"/>
+          <a:ext cx="1214640" cy="699120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3576,9 +3583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
+      <xdr:colOff>828000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3591,8 +3598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="4281480"/>
-          <a:ext cx="667080" cy="538560"/>
+          <a:off x="7830720" y="4281480"/>
+          <a:ext cx="666720" cy="538200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3613,9 +3620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>174240</xdr:colOff>
+      <xdr:colOff>173880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3628,8 +3635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8184960" y="3841200"/>
-          <a:ext cx="498240" cy="385920"/>
+          <a:off x="8196120" y="3841200"/>
+          <a:ext cx="499320" cy="385560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3650,9 +3657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>720360</xdr:colOff>
+      <xdr:colOff>720000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3665,8 +3672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7855200" y="4986360"/>
-          <a:ext cx="523440" cy="459720"/>
+          <a:off x="7866360" y="4986360"/>
+          <a:ext cx="523080" cy="459360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3682,14 +3689,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>111960</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>87120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>234720</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:colOff>234360</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3702,8 +3709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8620920" y="42032160"/>
-          <a:ext cx="973800" cy="464400"/>
+          <a:off x="8633520" y="42603480"/>
+          <a:ext cx="974880" cy="464040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3719,13 +3726,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>97560</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>115200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:colOff>641880</xdr:colOff>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3739,8 +3746,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8606520" y="37340640"/>
-          <a:ext cx="544680" cy="555480"/>
+          <a:off x="8619120" y="37912320"/>
+          <a:ext cx="544320" cy="555120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3756,14 +3763,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>350640</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>185400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:colOff>19800</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3776,8 +3783,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8008920" y="42455520"/>
-          <a:ext cx="520200" cy="770040"/>
+          <a:off x="8020080" y="43026840"/>
+          <a:ext cx="521280" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3798,9 +3805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>178560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3813,8 +3820,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7721280" y="3243960"/>
-          <a:ext cx="966600" cy="616680"/>
+          <a:off x="7732440" y="3243960"/>
+          <a:ext cx="967680" cy="616320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3830,14 +3837,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>708480</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>842400</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:colOff>842040</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3850,8 +3857,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515720" y="36853920"/>
-          <a:ext cx="984960" cy="608760"/>
+          <a:off x="7525800" y="37425240"/>
+          <a:ext cx="985680" cy="608400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676080</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>641520</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Image 74" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7493400" y="27349560"/>
+          <a:ext cx="817560" cy="693720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3871,13 +3915,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O248"/>
+  <dimension ref="A3:O251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L186" activeCellId="0" sqref="L186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H160" activeCellId="0" sqref="H160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -5358,24 +5402,17 @@
       <c r="A158" s="15"/>
       <c r="D158" s="9"/>
     </row>
-    <row r="159" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="16" t="n">
         <f aca="false">A156+1</f>
         <v>50</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="D159" s="11"/>
-      <c r="O159" s="12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15"/>
-      <c r="B160" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="D160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,12 +5420,12 @@
       <c r="D161" s="9"/>
     </row>
     <row r="162" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="16" t="n">
+      <c r="A162" s="17" t="n">
         <f aca="false">A159+1</f>
         <v>51</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D162" s="11"/>
       <c r="O162" s="12" t="n">
@@ -5407,12 +5444,12 @@
       <c r="D164" s="9"/>
     </row>
     <row r="165" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="16" t="n">
+      <c r="A165" s="17" t="n">
         <f aca="false">A162+1</f>
         <v>52</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D165" s="11"/>
       <c r="O165" s="12" t="n">
@@ -5422,7 +5459,7 @@
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15"/>
       <c r="B166" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D166" s="9"/>
     </row>
@@ -5431,12 +5468,12 @@
       <c r="D167" s="9"/>
     </row>
     <row r="168" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="16" t="n">
+      <c r="A168" s="17" t="n">
         <f aca="false">A165+1</f>
         <v>53</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D168" s="11"/>
       <c r="O168" s="12" t="n">
@@ -5455,7 +5492,7 @@
       <c r="D170" s="9"/>
     </row>
     <row r="171" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="16" t="n">
+      <c r="A171" s="17" t="n">
         <f aca="false">A168+1</f>
         <v>54</v>
       </c>
@@ -5463,9 +5500,15 @@
         <v>178</v>
       </c>
       <c r="D171" s="11"/>
+      <c r="O171" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15"/>
+      <c r="B172" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5473,7 +5516,7 @@
       <c r="D173" s="9"/>
     </row>
     <row r="174" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="16" t="n">
+      <c r="A174" s="17" t="n">
         <f aca="false">A171+1</f>
         <v>55</v>
       </c>
@@ -5491,12 +5534,12 @@
       <c r="D176" s="9"/>
     </row>
     <row r="177" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="16" t="n">
+      <c r="A177" s="17" t="n">
         <f aca="false">A174+1</f>
         <v>56</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D177" s="11"/>
     </row>
@@ -5509,7 +5552,7 @@
       <c r="D179" s="9"/>
     </row>
     <row r="180" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="16" t="n">
+      <c r="A180" s="17" t="n">
         <f aca="false">A177+1</f>
         <v>57</v>
       </c>
@@ -5527,12 +5570,12 @@
       <c r="D182" s="9"/>
     </row>
     <row r="183" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="16" t="n">
+      <c r="A183" s="17" t="n">
         <f aca="false">A180+1</f>
         <v>58</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D183" s="11"/>
     </row>
@@ -5544,395 +5587,413 @@
       <c r="A185" s="15"/>
       <c r="D185" s="9"/>
     </row>
-    <row r="186" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17" t="s">
+    <row r="186" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="17" t="n">
+        <f aca="false">A183+1</f>
+        <v>59</v>
+      </c>
+      <c r="B186" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
-      <c r="I186" s="18"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="18" t="n">
+      <c r="D186" s="11"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="15"/>
+      <c r="D187" s="9"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="15"/>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="19" t="n">
         <f aca="false">M117+M114+M111+M105+M102+M99+M84+M81+M51+M48+M27+M21+M18</f>
         <v>45</v>
       </c>
-      <c r="N186" s="18" t="n">
+      <c r="N189" s="19" t="n">
         <f aca="false">SUM(N12:N128)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="19" t="n">
+    <row r="193" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B193" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19" t="s">
+      <c r="B196" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="20" t="s">
+      <c r="C196" s="20"/>
+      <c r="D196" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D194" s="9" t="s">
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="21" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="196" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="21" t="n">
-        <f aca="false">A193+1</f>
-        <v>2</v>
-      </c>
-      <c r="B196" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E196" s="21"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="I196" s="21"/>
-      <c r="J196" s="21"/>
-      <c r="K196" s="21"/>
-      <c r="L196" s="21"/>
-      <c r="M196" s="21"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="20"/>
+      <c r="M196" s="20"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="19" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="199" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="22" t="n">
         <f aca="false">A196+1</f>
-        <v>3</v>
-      </c>
-      <c r="B199" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
+      <c r="I199" s="22"/>
+      <c r="J199" s="22"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="22"/>
+      <c r="M199" s="22"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="20" t="n">
+        <f aca="false">A199+1</f>
+        <v>3</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="21" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="202" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="21" t="n">
-        <f aca="false">A199+1</f>
-        <v>4</v>
-      </c>
-      <c r="B202" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="I202" s="21"/>
-      <c r="J202" s="21"/>
-      <c r="K202" s="21"/>
-      <c r="L202" s="21"/>
-      <c r="M202" s="21"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="20"/>
+      <c r="K202" s="20"/>
+      <c r="L202" s="20"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="22" t="n">
+        <f aca="false">A202+1</f>
+        <v>4</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="23" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="19" t="n">
-        <f aca="false">A202+1</f>
+      <c r="I205" s="22"/>
+      <c r="J205" s="22"/>
+      <c r="K205" s="22"/>
+      <c r="L205" s="22"/>
+      <c r="M205" s="22"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D206" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="20" t="n">
+        <f aca="false">A205+1</f>
         <v>5</v>
       </c>
-      <c r="B205" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19" t="s">
+      <c r="B208" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="20" t="s">
+      <c r="C208" s="20"/>
+      <c r="D208" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
-    </row>
-    <row r="208" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="21" t="n">
-        <f aca="false">A205+1</f>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="I208" s="20"/>
+      <c r="J208" s="20"/>
+      <c r="K208" s="20"/>
+      <c r="L208" s="20"/>
+      <c r="M208" s="20"/>
+    </row>
+    <row r="211" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="22" t="n">
+        <f aca="false">A208+1</f>
         <v>6</v>
       </c>
-      <c r="B208" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C208" s="21"/>
-      <c r="D208" s="21" t="s">
+      <c r="B211" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E208" s="21"/>
-      <c r="F208" s="21"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="22" t="s">
+      <c r="C211" s="22"/>
+      <c r="D211" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="I208" s="21"/>
-      <c r="J208" s="21"/>
-      <c r="K208" s="21"/>
-      <c r="L208" s="21"/>
-      <c r="M208" s="21"/>
-    </row>
-    <row r="211" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="24" t="n">
-        <f aca="false">A208+1</f>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I211" s="22"/>
+      <c r="J211" s="22"/>
+      <c r="K211" s="22"/>
+      <c r="L211" s="22"/>
+      <c r="M211" s="22"/>
+    </row>
+    <row r="214" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="25" t="n">
+        <f aca="false">A211+1</f>
         <v>7</v>
       </c>
-      <c r="B211" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="19" t="n">
-        <f aca="false">A211+1</f>
+      <c r="B214" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="20" t="n">
+        <f aca="false">A214+1</f>
         <v>8</v>
       </c>
-      <c r="B214" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C214" s="19"/>
-      <c r="D214" s="19" t="s">
+      <c r="B217" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="20" t="s">
+      <c r="C217" s="20"/>
+      <c r="D217" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="I214" s="19"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
-    </row>
-    <row r="217" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="21" t="n">
-        <f aca="false">A214+1</f>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I217" s="20"/>
+      <c r="J217" s="20"/>
+      <c r="K217" s="20"/>
+      <c r="L217" s="20"/>
+      <c r="M217" s="20"/>
+    </row>
+    <row r="220" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="22" t="n">
+        <f aca="false">A217+1</f>
         <v>9</v>
       </c>
-      <c r="B217" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C217" s="21"/>
-      <c r="D217" s="21" t="s">
+      <c r="B220" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E217" s="21"/>
-      <c r="F217" s="21"/>
-      <c r="G217" s="21"/>
-      <c r="H217" s="22" t="s">
+      <c r="C220" s="22"/>
+      <c r="D220" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="I217" s="21"/>
-      <c r="J217" s="21"/>
-      <c r="K217" s="21"/>
-      <c r="L217" s="21"/>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="19" t="n">
-        <f aca="false">A217+1</f>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I220" s="22"/>
+      <c r="J220" s="22"/>
+      <c r="K220" s="22"/>
+      <c r="L220" s="22"/>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="20" t="n">
+        <f aca="false">A220+1</f>
         <v>10</v>
       </c>
-      <c r="B220" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19" t="s">
+      <c r="B223" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E220" s="19"/>
-      <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-      <c r="H220" s="20" t="s">
+      <c r="C223" s="20"/>
+      <c r="D223" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="I220" s="19"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="19"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="19" t="n">
-        <f aca="false">A220+1</f>
+      <c r="E223" s="20"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="I223" s="20"/>
+      <c r="J223" s="20"/>
+      <c r="K223" s="20"/>
+      <c r="L223" s="20"/>
+      <c r="M223" s="20"/>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="20" t="n">
+        <f aca="false">A223+1</f>
         <v>11</v>
       </c>
-      <c r="B223" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19" t="s">
+      <c r="B226" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="19"/>
-      <c r="H223" s="20" t="s">
+      <c r="C226" s="20"/>
+      <c r="D226" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="I223" s="19"/>
-      <c r="J223" s="19"/>
-      <c r="K223" s="19"/>
-      <c r="L223" s="19"/>
-      <c r="M223" s="19"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D224" s="9" t="s">
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="21" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D225" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="19" t="n">
-        <f aca="false">A223+1</f>
-        <v>12</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C226" s="19"/>
-      <c r="D226" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E226" s="19"/>
-      <c r="F226" s="19"/>
-      <c r="G226" s="19"/>
-      <c r="H226" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="20"/>
+      <c r="K226" s="20"/>
+      <c r="L226" s="20"/>
+      <c r="M226" s="20"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D227" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D228" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="20" t="n">
+        <f aca="false">A226+1</f>
+        <v>12</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="21" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="231" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="21" t="n">
-        <f aca="false">A226+1</f>
+      <c r="I229" s="20"/>
+      <c r="J229" s="20"/>
+      <c r="K229" s="20"/>
+      <c r="L229" s="20"/>
+      <c r="M229" s="20"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D230" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="234" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="22" t="n">
+        <f aca="false">A229+1</f>
         <v>13</v>
       </c>
-      <c r="B231" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D231" s="21" t="s">
+      <c r="B234" s="22" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="236" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="21" t="n">
-        <f aca="false">A231+1</f>
+      <c r="D234" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="239" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="22" t="n">
+        <f aca="false">A234+1</f>
         <v>14</v>
       </c>
-      <c r="B236" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="239" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="22" t="n">
-        <f aca="false">A236+1</f>
+      <c r="B239" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="242" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="23" t="n">
+        <f aca="false">A239+1</f>
         <v>15</v>
       </c>
-      <c r="B239" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="242" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="25" t="n">
-        <f aca="false">A239+1</f>
+      <c r="B242" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="245" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="26" t="n">
+        <f aca="false">A242+1</f>
         <v>16</v>
-      </c>
-      <c r="B242" s="26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="245" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="27" t="n">
-        <f aca="false">A242+1</f>
-        <v>17</v>
       </c>
       <c r="B245" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="248" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="25" t="n">
+    <row r="248" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="28" t="n">
         <f aca="false">A245+1</f>
+        <v>17</v>
+      </c>
+      <c r="B248" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="251" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="26" t="n">
+        <f aca="false">A248+1</f>
         <v>18</v>
       </c>
-      <c r="B248" s="26" t="s">
-        <v>227</v>
+      <c r="B251" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
